--- a/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9828512688171005</v>
+        <v>0.9828512688171012</v>
       </c>
       <c r="D2">
         <v>1.00439744833869</v>
       </c>
       <c r="E2">
-        <v>0.9910610859202117</v>
+        <v>0.9910610859202119</v>
       </c>
       <c r="F2">
-        <v>0.9615312347247613</v>
+        <v>0.9615312347247622</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>1.002646374941858</v>
       </c>
       <c r="M2">
-        <v>0.9735538542778477</v>
+        <v>0.9735538542778485</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9901414003562033</v>
+        <v>0.990141400356202</v>
       </c>
       <c r="D3">
-        <v>1.0101115636948</v>
+        <v>1.010111563694799</v>
       </c>
       <c r="E3">
-        <v>0.9971189537392964</v>
+        <v>0.9971189537392952</v>
       </c>
       <c r="F3">
-        <v>0.9748059336120543</v>
+        <v>0.9748059336120531</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039497701456905</v>
+        <v>1.039497701456904</v>
       </c>
       <c r="J3">
-        <v>1.010904477005172</v>
+        <v>1.010904477005171</v>
       </c>
       <c r="K3">
-        <v>1.020616679548536</v>
+        <v>1.020616679548535</v>
       </c>
       <c r="L3">
-        <v>1.007788831304713</v>
+        <v>1.007788831304712</v>
       </c>
       <c r="M3">
-        <v>0.985771660287849</v>
+        <v>0.9857716602878479</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.994702537975255</v>
+        <v>0.9947025379752554</v>
       </c>
       <c r="D4">
         <v>1.013684550971592</v>
       </c>
       <c r="E4">
-        <v>1.000914654341642</v>
+        <v>1.000914654341643</v>
       </c>
       <c r="F4">
-        <v>0.9829744871916586</v>
+        <v>0.9829744871916583</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,10 +521,10 @@
         <v>1.023620574134088</v>
       </c>
       <c r="L4">
-        <v>1.011002052812492</v>
+        <v>1.011002052812493</v>
       </c>
       <c r="M4">
-        <v>0.9932828332697985</v>
+        <v>0.9932828332697983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9965850896072616</v>
+        <v>0.9965850896072617</v>
       </c>
       <c r="D5">
         <v>1.015158745720021</v>
@@ -544,7 +544,7 @@
         <v>1.002482527841043</v>
       </c>
       <c r="F5">
-        <v>0.986317189542442</v>
+        <v>0.9863171895424422</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>1.015618814671066</v>
       </c>
       <c r="K5">
-        <v>1.024857495566016</v>
+        <v>1.024857495566017</v>
       </c>
       <c r="L5">
         <v>1.012327232421307</v>
       </c>
       <c r="M5">
-        <v>0.9963547825235199</v>
+        <v>0.9963547825235202</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9968991940191544</v>
+        <v>0.9968991940191546</v>
       </c>
       <c r="D6">
         <v>1.015404685254719</v>
@@ -582,7 +582,7 @@
         <v>1.002744199084625</v>
       </c>
       <c r="F6">
-        <v>0.9868733346807933</v>
+        <v>0.9868733346807931</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -597,10 +597,10 @@
         <v>1.025063707089684</v>
       </c>
       <c r="L6">
-        <v>1.012548277256955</v>
+        <v>1.012548277256956</v>
       </c>
       <c r="M6">
-        <v>0.9968657767989025</v>
+        <v>0.9968657767989021</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9947278270620468</v>
+        <v>0.994727827062046</v>
       </c>
       <c r="D7">
         <v>1.013704356469987</v>
       </c>
       <c r="E7">
-        <v>1.00093571139818</v>
+        <v>1.000935711398179</v>
       </c>
       <c r="F7">
-        <v>0.983019500106475</v>
+        <v>0.9830195001064749</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -632,13 +632,13 @@
         <v>1.014261223385697</v>
       </c>
       <c r="K7">
-        <v>1.023637201626967</v>
+        <v>1.023637201626966</v>
       </c>
       <c r="L7">
-        <v>1.011019858638224</v>
+        <v>1.011019858638223</v>
       </c>
       <c r="M7">
-        <v>0.9933242072092597</v>
+        <v>0.9933242072092596</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9853488574850069</v>
+        <v>0.985348857485008</v>
       </c>
       <c r="D8">
-        <v>1.006355540464343</v>
+        <v>1.006355540464345</v>
       </c>
       <c r="E8">
-        <v>0.9931352777701228</v>
+        <v>0.9931352777701241</v>
       </c>
       <c r="F8">
-        <v>0.9661108442255432</v>
+        <v>0.9661108442255437</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037555762896227</v>
+        <v>1.037555762896228</v>
       </c>
       <c r="J8">
-        <v>1.007390766123824</v>
+        <v>1.007390766123825</v>
       </c>
       <c r="K8">
-        <v>1.017450104673022</v>
+        <v>1.017450104673023</v>
       </c>
       <c r="L8">
-        <v>1.004409046081709</v>
+        <v>1.00440904608171</v>
       </c>
       <c r="M8">
-        <v>0.9777703126789337</v>
+        <v>0.9777703126789342</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9675013124148635</v>
+        <v>0.9675013124148634</v>
       </c>
       <c r="D9">
-        <v>0.9923534896972155</v>
+        <v>0.9923534896972154</v>
       </c>
       <c r="E9">
-        <v>0.9783412437854194</v>
+        <v>0.9783412437854193</v>
       </c>
       <c r="F9">
-        <v>0.9325667068309504</v>
+        <v>0.9325667068309486</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.030132042349874</v>
       </c>
       <c r="J9">
-        <v>0.9942562899941899</v>
+        <v>0.99425628999419</v>
       </c>
       <c r="K9">
-        <v>1.005571856536474</v>
+        <v>1.005571856536473</v>
       </c>
       <c r="L9">
         <v>0.9917957734462257</v>
       </c>
       <c r="M9">
-        <v>0.9468575832825977</v>
+        <v>0.9468575832825958</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9545047406999351</v>
+        <v>0.954504740699937</v>
       </c>
       <c r="D10">
-        <v>0.9821420741888492</v>
+        <v>0.9821420741888508</v>
       </c>
       <c r="E10">
-        <v>0.9676089424896398</v>
+        <v>0.9676089424896416</v>
       </c>
       <c r="F10">
-        <v>0.9067251005765989</v>
+        <v>0.9067251005765987</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024538490992138</v>
+        <v>1.024538490992139</v>
       </c>
       <c r="J10">
-        <v>0.9846473836637859</v>
+        <v>0.984647383663788</v>
       </c>
       <c r="K10">
-        <v>0.9968414225175893</v>
+        <v>0.9968414225175908</v>
       </c>
       <c r="L10">
-        <v>0.9825887364760735</v>
+        <v>0.9825887364760751</v>
       </c>
       <c r="M10">
-        <v>0.9230107754964251</v>
+        <v>0.9230107754964246</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9485554001825828</v>
+        <v>0.9485554001825814</v>
       </c>
       <c r="D11">
-        <v>0.9774623335867705</v>
+        <v>0.9774623335867689</v>
       </c>
       <c r="E11">
-        <v>0.9627074191732199</v>
+        <v>0.9627074191732184</v>
       </c>
       <c r="F11">
-        <v>0.8943963860493432</v>
+        <v>0.8943963860493415</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021923326579589</v>
+        <v>1.021923326579588</v>
       </c>
       <c r="J11">
-        <v>0.980236796443684</v>
+        <v>0.9802367964436827</v>
       </c>
       <c r="K11">
-        <v>0.9928221718867084</v>
+        <v>0.9928221718867069</v>
       </c>
       <c r="L11">
-        <v>0.9783686367715635</v>
+        <v>0.9783686367715622</v>
       </c>
       <c r="M11">
-        <v>0.9116283567700132</v>
+        <v>0.9116283567700117</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9462904690314264</v>
+        <v>0.946290469031425</v>
       </c>
       <c r="D12">
-        <v>0.9756796598787102</v>
+        <v>0.9756796598787086</v>
       </c>
       <c r="E12">
-        <v>0.9608432413888918</v>
+        <v>0.9608432413888905</v>
       </c>
       <c r="F12">
-        <v>0.8896074670607126</v>
+        <v>0.8896074670607108</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.020918239780163</v>
       </c>
       <c r="J12">
-        <v>0.9785556570655652</v>
+        <v>0.9785556570655638</v>
       </c>
       <c r="K12">
-        <v>0.9912881179509828</v>
+        <v>0.9912881179509815</v>
       </c>
       <c r="L12">
-        <v>0.9767611421611536</v>
+        <v>0.9767611421611524</v>
       </c>
       <c r="M12">
-        <v>0.9072064931638145</v>
+        <v>0.9072064931638127</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9467789238599579</v>
+        <v>0.9467789238599583</v>
       </c>
       <c r="D13">
-        <v>0.9760641661783709</v>
+        <v>0.976064166178371</v>
       </c>
       <c r="E13">
-        <v>0.9612451841915847</v>
+        <v>0.9612451841915851</v>
       </c>
       <c r="F13">
-        <v>0.8906449507023918</v>
+        <v>0.890644950702391</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021135450214981</v>
       </c>
       <c r="J13">
-        <v>0.9789183069547384</v>
+        <v>0.9789183069547389</v>
       </c>
       <c r="K13">
-        <v>0.991619138548307</v>
+        <v>0.9916191385483071</v>
       </c>
       <c r="L13">
-        <v>0.9771078562353743</v>
+        <v>0.9771078562353746</v>
       </c>
       <c r="M13">
-        <v>0.9081644745992803</v>
+        <v>0.9081644745992795</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9483693489433119</v>
+        <v>0.9483693489433112</v>
       </c>
       <c r="D14">
-        <v>0.9773159211497167</v>
+        <v>0.9773159211497162</v>
       </c>
       <c r="E14">
-        <v>0.9625542493436097</v>
+        <v>0.9625542493436088</v>
       </c>
       <c r="F14">
-        <v>0.894005076051702</v>
+        <v>0.8940050760517014</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.021840965437261</v>
       </c>
       <c r="J14">
-        <v>0.9800987428042446</v>
+        <v>0.9800987428042439</v>
       </c>
       <c r="K14">
-        <v>0.9926962408430203</v>
+        <v>0.9926962408430199</v>
       </c>
       <c r="L14">
-        <v>0.9782366088527165</v>
+        <v>0.9782366088527158</v>
       </c>
       <c r="M14">
-        <v>0.9112670478683425</v>
+        <v>0.9112670478683421</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.949341733377671</v>
+        <v>0.9493417333776705</v>
       </c>
       <c r="D15">
-        <v>0.9780810900567244</v>
+        <v>0.9780810900567245</v>
       </c>
       <c r="E15">
-        <v>0.9633548569937789</v>
+        <v>0.9633548569937784</v>
       </c>
       <c r="F15">
-        <v>0.8960462274842489</v>
+        <v>0.8960462274842493</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.022271027116135</v>
       </c>
       <c r="J15">
-        <v>0.9808201876983487</v>
+        <v>0.9808201876983484</v>
       </c>
       <c r="K15">
-        <v>0.9933542489692365</v>
+        <v>0.9933542489692366</v>
       </c>
       <c r="L15">
-        <v>0.9789266073291661</v>
+        <v>0.9789266073291657</v>
       </c>
       <c r="M15">
-        <v>0.9131516886322203</v>
+        <v>0.9131516886322207</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,7 +953,7 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9548922607406471</v>
+        <v>0.9548922607406469</v>
       </c>
       <c r="D16">
         <v>0.9824467666519187</v>
@@ -962,25 +962,25 @@
         <v>0.9679284563694265</v>
       </c>
       <c r="F16">
-        <v>0.907516329217348</v>
+        <v>0.9075163292173485</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024707612611559</v>
+        <v>1.02470761261156</v>
       </c>
       <c r="J16">
-        <v>0.9849344119661163</v>
+        <v>0.9849344119661164</v>
       </c>
       <c r="K16">
-        <v>0.997102717426781</v>
+        <v>0.9971027174267811</v>
       </c>
       <c r="L16">
         <v>0.9828635025541701</v>
       </c>
       <c r="M16">
-        <v>0.923741185707403</v>
+        <v>0.9237411857074035</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9582835404814674</v>
+        <v>0.9582835404814679</v>
       </c>
       <c r="D17">
-        <v>0.985112587178815</v>
+        <v>0.9851125871788154</v>
       </c>
       <c r="E17">
-        <v>0.970725884183249</v>
+        <v>0.9707258841832497</v>
       </c>
       <c r="F17">
-        <v>0.9143829310109939</v>
+        <v>0.9143829310109941</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02618140915196</v>
+        <v>1.026181409151961</v>
       </c>
       <c r="J17">
-        <v>0.9874449063140537</v>
+        <v>0.9874449063140542</v>
       </c>
       <c r="K17">
-        <v>0.9993867809289976</v>
+        <v>0.9993867809289981</v>
       </c>
       <c r="L17">
-        <v>0.9852674312808067</v>
+        <v>0.9852674312808074</v>
       </c>
       <c r="M17">
-        <v>0.930079413141682</v>
+        <v>0.9300794131416823</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9602311007000207</v>
+        <v>0.9602311007000203</v>
       </c>
       <c r="D18">
-        <v>0.986643053114295</v>
+        <v>0.9866430531142945</v>
       </c>
       <c r="E18">
-        <v>0.9723334504973211</v>
+        <v>0.9723334504973207</v>
       </c>
       <c r="F18">
-        <v>0.9182813251829879</v>
+        <v>0.9182813251829882</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027022791530967</v>
+        <v>1.027022791530966</v>
       </c>
       <c r="J18">
-        <v>0.9888855442255622</v>
+        <v>0.9888855442255616</v>
       </c>
       <c r="K18">
-        <v>1.000696397967236</v>
+        <v>1.000696397967235</v>
       </c>
       <c r="L18">
-        <v>0.9866474678133647</v>
+        <v>0.9866474678133641</v>
       </c>
       <c r="M18">
-        <v>0.9336773194824143</v>
+        <v>0.9336773194824147</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9608901720384819</v>
+        <v>0.9608901720384803</v>
       </c>
       <c r="D19">
-        <v>0.9871609017018761</v>
+        <v>0.9871609017018752</v>
       </c>
       <c r="E19">
-        <v>0.9728776382104516</v>
+        <v>0.9728776382104501</v>
       </c>
       <c r="F19">
-        <v>0.919593433034811</v>
+        <v>0.9195934330348092</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027306705499545</v>
+        <v>1.027306705499544</v>
       </c>
       <c r="J19">
-        <v>0.9893728866652722</v>
+        <v>0.9893728866652709</v>
       </c>
       <c r="K19">
-        <v>1.001139241260168</v>
+        <v>1.001139241260167</v>
       </c>
       <c r="L19">
-        <v>0.9871144000267492</v>
+        <v>0.987114400026748</v>
       </c>
       <c r="M19">
-        <v>0.9348881963830079</v>
+        <v>0.9348881963830061</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,13 +1105,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9579228883103753</v>
+        <v>0.9579228883103748</v>
       </c>
       <c r="D20">
-        <v>0.9848291362137144</v>
+        <v>0.984829136213714</v>
       </c>
       <c r="E20">
-        <v>0.9704282764695811</v>
+        <v>0.9704282764695806</v>
       </c>
       <c r="F20">
         <v>0.9136574912668366</v>
@@ -1123,16 +1123,16 @@
         <v>1.026025202846036</v>
       </c>
       <c r="J20">
-        <v>0.9871780386780383</v>
+        <v>0.9871780386780381</v>
       </c>
       <c r="K20">
-        <v>0.9991440976428201</v>
+        <v>0.9991440976428198</v>
       </c>
       <c r="L20">
-        <v>0.9850118335069186</v>
+        <v>0.985011833506918</v>
       </c>
       <c r="M20">
-        <v>0.9294098467064792</v>
+        <v>0.929409846706479</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,13 +1143,13 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9479025915287612</v>
+        <v>0.9479025915287619</v>
       </c>
       <c r="D21">
-        <v>0.9769485892500593</v>
+        <v>0.9769485892500603</v>
       </c>
       <c r="E21">
-        <v>0.9621700135461961</v>
+        <v>0.9621700135461966</v>
       </c>
       <c r="F21">
         <v>0.8930217612971326</v>
@@ -1161,16 +1161,16 @@
         <v>1.021634183816583</v>
       </c>
       <c r="J21">
-        <v>0.9797523664313665</v>
+        <v>0.9797523664313673</v>
       </c>
       <c r="K21">
-        <v>0.9923802455315158</v>
+        <v>0.9923802455315164</v>
       </c>
       <c r="L21">
-        <v>0.9779053681983512</v>
+        <v>0.9779053681983517</v>
       </c>
       <c r="M21">
-        <v>0.9103591151044983</v>
+        <v>0.9103591151044985</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9412790260279731</v>
+        <v>0.9412790260279762</v>
       </c>
       <c r="D22">
-        <v>0.971732794879016</v>
+        <v>0.9717327948790184</v>
       </c>
       <c r="E22">
-        <v>0.9567220930252733</v>
+        <v>0.9567220930252758</v>
       </c>
       <c r="F22">
-        <v>0.87880491689609</v>
+        <v>0.8788049168960927</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018674897284769</v>
+        <v>1.018674897284771</v>
       </c>
       <c r="J22">
-        <v>0.9748318464758967</v>
+        <v>0.9748318464758995</v>
       </c>
       <c r="K22">
-        <v>0.9878858277276933</v>
+        <v>0.987885827727696</v>
       </c>
       <c r="L22">
-        <v>0.973202570852196</v>
+        <v>0.9732025708521985</v>
       </c>
       <c r="M22">
-        <v>0.8972313812739371</v>
+        <v>0.8972313812739399</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9448236917030483</v>
+        <v>0.9448236917030465</v>
       </c>
       <c r="D23">
-        <v>0.9745248385395479</v>
+        <v>0.9745248385395466</v>
       </c>
       <c r="E23">
-        <v>0.95963653229938</v>
+        <v>0.9596365322993784</v>
       </c>
       <c r="F23">
-        <v>0.8864760123291973</v>
+        <v>0.8864760123291965</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020264460866198</v>
+        <v>1.020264460866197</v>
       </c>
       <c r="J23">
-        <v>0.9774663395256004</v>
+        <v>0.9774663395255991</v>
       </c>
       <c r="K23">
-        <v>0.9902934737479244</v>
+        <v>0.9902934737479233</v>
       </c>
       <c r="L23">
-        <v>0.9757198572639321</v>
+        <v>0.9757198572639306</v>
       </c>
       <c r="M23">
-        <v>0.9043149536989121</v>
+        <v>0.9043149536989114</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1260,13 +1260,13 @@
         <v>0.9580859453150378</v>
       </c>
       <c r="D24">
-        <v>0.9849572906912053</v>
+        <v>0.9849572906912054</v>
       </c>
       <c r="E24">
-        <v>0.9705628267553473</v>
+        <v>0.9705628267553474</v>
       </c>
       <c r="F24">
-        <v>0.9139856134997173</v>
+        <v>0.9139856134997185</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.02609584183766</v>
       </c>
       <c r="J24">
-        <v>0.9872986975023664</v>
+        <v>0.9872986975023667</v>
       </c>
       <c r="K24">
-        <v>0.999253825354758</v>
+        <v>0.9992538253547583</v>
       </c>
       <c r="L24">
         <v>0.9851273951853662</v>
       </c>
       <c r="M24">
-        <v>0.9297126986133036</v>
+        <v>0.9297126986133046</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9722912792700579</v>
+        <v>0.9722912792700578</v>
       </c>
       <c r="D25">
-        <v>0.9961136076122206</v>
+        <v>0.9961136076122201</v>
       </c>
       <c r="E25">
-        <v>0.9823053288407787</v>
+        <v>0.9823053288407781</v>
       </c>
       <c r="F25">
-        <v>0.9417673366446024</v>
+        <v>0.9417673366446033</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.032153633699471</v>
       </c>
       <c r="J25">
-        <v>0.9977885396244696</v>
+        <v>0.9977885396244692</v>
       </c>
       <c r="K25">
         <v>1.008772555903409</v>
       </c>
       <c r="L25">
-        <v>0.9951846863086836</v>
+        <v>0.995184686308683</v>
       </c>
       <c r="M25">
-        <v>0.9553423253467664</v>
+        <v>0.9553423253467674</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9828512688171012</v>
+        <v>0.9828512688171005</v>
       </c>
       <c r="D2">
         <v>1.00439744833869</v>
       </c>
       <c r="E2">
-        <v>0.9910610859202119</v>
+        <v>0.9910610859202117</v>
       </c>
       <c r="F2">
-        <v>0.9615312347247622</v>
+        <v>0.9615312347247613</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>1.002646374941858</v>
       </c>
       <c r="M2">
-        <v>0.9735538542778485</v>
+        <v>0.9735538542778477</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.990141400356202</v>
+        <v>0.9901414003562033</v>
       </c>
       <c r="D3">
-        <v>1.010111563694799</v>
+        <v>1.0101115636948</v>
       </c>
       <c r="E3">
-        <v>0.9971189537392952</v>
+        <v>0.9971189537392964</v>
       </c>
       <c r="F3">
-        <v>0.9748059336120531</v>
+        <v>0.9748059336120543</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039497701456904</v>
+        <v>1.039497701456905</v>
       </c>
       <c r="J3">
-        <v>1.010904477005171</v>
+        <v>1.010904477005172</v>
       </c>
       <c r="K3">
-        <v>1.020616679548535</v>
+        <v>1.020616679548536</v>
       </c>
       <c r="L3">
-        <v>1.007788831304712</v>
+        <v>1.007788831304713</v>
       </c>
       <c r="M3">
-        <v>0.9857716602878479</v>
+        <v>0.985771660287849</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9947025379752554</v>
+        <v>0.994702537975255</v>
       </c>
       <c r="D4">
         <v>1.013684550971592</v>
       </c>
       <c r="E4">
-        <v>1.000914654341643</v>
+        <v>1.000914654341642</v>
       </c>
       <c r="F4">
-        <v>0.9829744871916583</v>
+        <v>0.9829744871916586</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,10 +521,10 @@
         <v>1.023620574134088</v>
       </c>
       <c r="L4">
-        <v>1.011002052812493</v>
+        <v>1.011002052812492</v>
       </c>
       <c r="M4">
-        <v>0.9932828332697983</v>
+        <v>0.9932828332697985</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9965850896072617</v>
+        <v>0.9965850896072616</v>
       </c>
       <c r="D5">
         <v>1.015158745720021</v>
@@ -544,7 +544,7 @@
         <v>1.002482527841043</v>
       </c>
       <c r="F5">
-        <v>0.9863171895424422</v>
+        <v>0.986317189542442</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>1.015618814671066</v>
       </c>
       <c r="K5">
-        <v>1.024857495566017</v>
+        <v>1.024857495566016</v>
       </c>
       <c r="L5">
         <v>1.012327232421307</v>
       </c>
       <c r="M5">
-        <v>0.9963547825235202</v>
+        <v>0.9963547825235199</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9968991940191546</v>
+        <v>0.9968991940191544</v>
       </c>
       <c r="D6">
         <v>1.015404685254719</v>
@@ -582,7 +582,7 @@
         <v>1.002744199084625</v>
       </c>
       <c r="F6">
-        <v>0.9868733346807931</v>
+        <v>0.9868733346807933</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -597,10 +597,10 @@
         <v>1.025063707089684</v>
       </c>
       <c r="L6">
-        <v>1.012548277256956</v>
+        <v>1.012548277256955</v>
       </c>
       <c r="M6">
-        <v>0.9968657767989021</v>
+        <v>0.9968657767989025</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.994727827062046</v>
+        <v>0.9947278270620468</v>
       </c>
       <c r="D7">
         <v>1.013704356469987</v>
       </c>
       <c r="E7">
-        <v>1.000935711398179</v>
+        <v>1.00093571139818</v>
       </c>
       <c r="F7">
-        <v>0.9830195001064749</v>
+        <v>0.983019500106475</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -632,13 +632,13 @@
         <v>1.014261223385697</v>
       </c>
       <c r="K7">
-        <v>1.023637201626966</v>
+        <v>1.023637201626967</v>
       </c>
       <c r="L7">
-        <v>1.011019858638223</v>
+        <v>1.011019858638224</v>
       </c>
       <c r="M7">
-        <v>0.9933242072092596</v>
+        <v>0.9933242072092597</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.985348857485008</v>
+        <v>0.9853488574850069</v>
       </c>
       <c r="D8">
-        <v>1.006355540464345</v>
+        <v>1.006355540464343</v>
       </c>
       <c r="E8">
-        <v>0.9931352777701241</v>
+        <v>0.9931352777701228</v>
       </c>
       <c r="F8">
-        <v>0.9661108442255437</v>
+        <v>0.9661108442255432</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037555762896228</v>
+        <v>1.037555762896227</v>
       </c>
       <c r="J8">
-        <v>1.007390766123825</v>
+        <v>1.007390766123824</v>
       </c>
       <c r="K8">
-        <v>1.017450104673023</v>
+        <v>1.017450104673022</v>
       </c>
       <c r="L8">
-        <v>1.00440904608171</v>
+        <v>1.004409046081709</v>
       </c>
       <c r="M8">
-        <v>0.9777703126789342</v>
+        <v>0.9777703126789337</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9675013124148634</v>
+        <v>0.9675013124148635</v>
       </c>
       <c r="D9">
-        <v>0.9923534896972154</v>
+        <v>0.9923534896972155</v>
       </c>
       <c r="E9">
-        <v>0.9783412437854193</v>
+        <v>0.9783412437854194</v>
       </c>
       <c r="F9">
-        <v>0.9325667068309486</v>
+        <v>0.9325667068309504</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.030132042349874</v>
       </c>
       <c r="J9">
-        <v>0.99425628999419</v>
+        <v>0.9942562899941899</v>
       </c>
       <c r="K9">
-        <v>1.005571856536473</v>
+        <v>1.005571856536474</v>
       </c>
       <c r="L9">
         <v>0.9917957734462257</v>
       </c>
       <c r="M9">
-        <v>0.9468575832825958</v>
+        <v>0.9468575832825977</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.954504740699937</v>
+        <v>0.9545047406999351</v>
       </c>
       <c r="D10">
-        <v>0.9821420741888508</v>
+        <v>0.9821420741888492</v>
       </c>
       <c r="E10">
-        <v>0.9676089424896416</v>
+        <v>0.9676089424896398</v>
       </c>
       <c r="F10">
-        <v>0.9067251005765987</v>
+        <v>0.9067251005765989</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024538490992139</v>
+        <v>1.024538490992138</v>
       </c>
       <c r="J10">
-        <v>0.984647383663788</v>
+        <v>0.9846473836637859</v>
       </c>
       <c r="K10">
-        <v>0.9968414225175908</v>
+        <v>0.9968414225175893</v>
       </c>
       <c r="L10">
-        <v>0.9825887364760751</v>
+        <v>0.9825887364760735</v>
       </c>
       <c r="M10">
-        <v>0.9230107754964246</v>
+        <v>0.9230107754964251</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9485554001825814</v>
+        <v>0.9485554001825828</v>
       </c>
       <c r="D11">
-        <v>0.9774623335867689</v>
+        <v>0.9774623335867705</v>
       </c>
       <c r="E11">
-        <v>0.9627074191732184</v>
+        <v>0.9627074191732199</v>
       </c>
       <c r="F11">
-        <v>0.8943963860493415</v>
+        <v>0.8943963860493432</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021923326579588</v>
+        <v>1.021923326579589</v>
       </c>
       <c r="J11">
-        <v>0.9802367964436827</v>
+        <v>0.980236796443684</v>
       </c>
       <c r="K11">
-        <v>0.9928221718867069</v>
+        <v>0.9928221718867084</v>
       </c>
       <c r="L11">
-        <v>0.9783686367715622</v>
+        <v>0.9783686367715635</v>
       </c>
       <c r="M11">
-        <v>0.9116283567700117</v>
+        <v>0.9116283567700132</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.946290469031425</v>
+        <v>0.9462904690314264</v>
       </c>
       <c r="D12">
-        <v>0.9756796598787086</v>
+        <v>0.9756796598787102</v>
       </c>
       <c r="E12">
-        <v>0.9608432413888905</v>
+        <v>0.9608432413888918</v>
       </c>
       <c r="F12">
-        <v>0.8896074670607108</v>
+        <v>0.8896074670607126</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.020918239780163</v>
       </c>
       <c r="J12">
-        <v>0.9785556570655638</v>
+        <v>0.9785556570655652</v>
       </c>
       <c r="K12">
-        <v>0.9912881179509815</v>
+        <v>0.9912881179509828</v>
       </c>
       <c r="L12">
-        <v>0.9767611421611524</v>
+        <v>0.9767611421611536</v>
       </c>
       <c r="M12">
-        <v>0.9072064931638127</v>
+        <v>0.9072064931638145</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9467789238599583</v>
+        <v>0.9467789238599579</v>
       </c>
       <c r="D13">
-        <v>0.976064166178371</v>
+        <v>0.9760641661783709</v>
       </c>
       <c r="E13">
-        <v>0.9612451841915851</v>
+        <v>0.9612451841915847</v>
       </c>
       <c r="F13">
-        <v>0.890644950702391</v>
+        <v>0.8906449507023918</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021135450214981</v>
       </c>
       <c r="J13">
-        <v>0.9789183069547389</v>
+        <v>0.9789183069547384</v>
       </c>
       <c r="K13">
-        <v>0.9916191385483071</v>
+        <v>0.991619138548307</v>
       </c>
       <c r="L13">
-        <v>0.9771078562353746</v>
+        <v>0.9771078562353743</v>
       </c>
       <c r="M13">
-        <v>0.9081644745992795</v>
+        <v>0.9081644745992803</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9483693489433112</v>
+        <v>0.9483693489433119</v>
       </c>
       <c r="D14">
-        <v>0.9773159211497162</v>
+        <v>0.9773159211497167</v>
       </c>
       <c r="E14">
-        <v>0.9625542493436088</v>
+        <v>0.9625542493436097</v>
       </c>
       <c r="F14">
-        <v>0.8940050760517014</v>
+        <v>0.894005076051702</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.021840965437261</v>
       </c>
       <c r="J14">
-        <v>0.9800987428042439</v>
+        <v>0.9800987428042446</v>
       </c>
       <c r="K14">
-        <v>0.9926962408430199</v>
+        <v>0.9926962408430203</v>
       </c>
       <c r="L14">
-        <v>0.9782366088527158</v>
+        <v>0.9782366088527165</v>
       </c>
       <c r="M14">
-        <v>0.9112670478683421</v>
+        <v>0.9112670478683425</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9493417333776705</v>
+        <v>0.949341733377671</v>
       </c>
       <c r="D15">
-        <v>0.9780810900567245</v>
+        <v>0.9780810900567244</v>
       </c>
       <c r="E15">
-        <v>0.9633548569937784</v>
+        <v>0.9633548569937789</v>
       </c>
       <c r="F15">
-        <v>0.8960462274842493</v>
+        <v>0.8960462274842489</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.022271027116135</v>
       </c>
       <c r="J15">
-        <v>0.9808201876983484</v>
+        <v>0.9808201876983487</v>
       </c>
       <c r="K15">
-        <v>0.9933542489692366</v>
+        <v>0.9933542489692365</v>
       </c>
       <c r="L15">
-        <v>0.9789266073291657</v>
+        <v>0.9789266073291661</v>
       </c>
       <c r="M15">
-        <v>0.9131516886322207</v>
+        <v>0.9131516886322203</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,7 +953,7 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9548922607406469</v>
+        <v>0.9548922607406471</v>
       </c>
       <c r="D16">
         <v>0.9824467666519187</v>
@@ -962,25 +962,25 @@
         <v>0.9679284563694265</v>
       </c>
       <c r="F16">
-        <v>0.9075163292173485</v>
+        <v>0.907516329217348</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02470761261156</v>
+        <v>1.024707612611559</v>
       </c>
       <c r="J16">
-        <v>0.9849344119661164</v>
+        <v>0.9849344119661163</v>
       </c>
       <c r="K16">
-        <v>0.9971027174267811</v>
+        <v>0.997102717426781</v>
       </c>
       <c r="L16">
         <v>0.9828635025541701</v>
       </c>
       <c r="M16">
-        <v>0.9237411857074035</v>
+        <v>0.923741185707403</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9582835404814679</v>
+        <v>0.9582835404814674</v>
       </c>
       <c r="D17">
-        <v>0.9851125871788154</v>
+        <v>0.985112587178815</v>
       </c>
       <c r="E17">
-        <v>0.9707258841832497</v>
+        <v>0.970725884183249</v>
       </c>
       <c r="F17">
-        <v>0.9143829310109941</v>
+        <v>0.9143829310109939</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026181409151961</v>
+        <v>1.02618140915196</v>
       </c>
       <c r="J17">
-        <v>0.9874449063140542</v>
+        <v>0.9874449063140537</v>
       </c>
       <c r="K17">
-        <v>0.9993867809289981</v>
+        <v>0.9993867809289976</v>
       </c>
       <c r="L17">
-        <v>0.9852674312808074</v>
+        <v>0.9852674312808067</v>
       </c>
       <c r="M17">
-        <v>0.9300794131416823</v>
+        <v>0.930079413141682</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9602311007000203</v>
+        <v>0.9602311007000207</v>
       </c>
       <c r="D18">
-        <v>0.9866430531142945</v>
+        <v>0.986643053114295</v>
       </c>
       <c r="E18">
-        <v>0.9723334504973207</v>
+        <v>0.9723334504973211</v>
       </c>
       <c r="F18">
-        <v>0.9182813251829882</v>
+        <v>0.9182813251829879</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027022791530966</v>
+        <v>1.027022791530967</v>
       </c>
       <c r="J18">
-        <v>0.9888855442255616</v>
+        <v>0.9888855442255622</v>
       </c>
       <c r="K18">
-        <v>1.000696397967235</v>
+        <v>1.000696397967236</v>
       </c>
       <c r="L18">
-        <v>0.9866474678133641</v>
+        <v>0.9866474678133647</v>
       </c>
       <c r="M18">
-        <v>0.9336773194824147</v>
+        <v>0.9336773194824143</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9608901720384803</v>
+        <v>0.9608901720384819</v>
       </c>
       <c r="D19">
-        <v>0.9871609017018752</v>
+        <v>0.9871609017018761</v>
       </c>
       <c r="E19">
-        <v>0.9728776382104501</v>
+        <v>0.9728776382104516</v>
       </c>
       <c r="F19">
-        <v>0.9195934330348092</v>
+        <v>0.919593433034811</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027306705499544</v>
+        <v>1.027306705499545</v>
       </c>
       <c r="J19">
-        <v>0.9893728866652709</v>
+        <v>0.9893728866652722</v>
       </c>
       <c r="K19">
-        <v>1.001139241260167</v>
+        <v>1.001139241260168</v>
       </c>
       <c r="L19">
-        <v>0.987114400026748</v>
+        <v>0.9871144000267492</v>
       </c>
       <c r="M19">
-        <v>0.9348881963830061</v>
+        <v>0.9348881963830079</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,13 +1105,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9579228883103748</v>
+        <v>0.9579228883103753</v>
       </c>
       <c r="D20">
-        <v>0.984829136213714</v>
+        <v>0.9848291362137144</v>
       </c>
       <c r="E20">
-        <v>0.9704282764695806</v>
+        <v>0.9704282764695811</v>
       </c>
       <c r="F20">
         <v>0.9136574912668366</v>
@@ -1123,16 +1123,16 @@
         <v>1.026025202846036</v>
       </c>
       <c r="J20">
-        <v>0.9871780386780381</v>
+        <v>0.9871780386780383</v>
       </c>
       <c r="K20">
-        <v>0.9991440976428198</v>
+        <v>0.9991440976428201</v>
       </c>
       <c r="L20">
-        <v>0.985011833506918</v>
+        <v>0.9850118335069186</v>
       </c>
       <c r="M20">
-        <v>0.929409846706479</v>
+        <v>0.9294098467064792</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,13 +1143,13 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9479025915287619</v>
+        <v>0.9479025915287612</v>
       </c>
       <c r="D21">
-        <v>0.9769485892500603</v>
+        <v>0.9769485892500593</v>
       </c>
       <c r="E21">
-        <v>0.9621700135461966</v>
+        <v>0.9621700135461961</v>
       </c>
       <c r="F21">
         <v>0.8930217612971326</v>
@@ -1161,16 +1161,16 @@
         <v>1.021634183816583</v>
       </c>
       <c r="J21">
-        <v>0.9797523664313673</v>
+        <v>0.9797523664313665</v>
       </c>
       <c r="K21">
-        <v>0.9923802455315164</v>
+        <v>0.9923802455315158</v>
       </c>
       <c r="L21">
-        <v>0.9779053681983517</v>
+        <v>0.9779053681983512</v>
       </c>
       <c r="M21">
-        <v>0.9103591151044985</v>
+        <v>0.9103591151044983</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9412790260279762</v>
+        <v>0.9412790260279731</v>
       </c>
       <c r="D22">
-        <v>0.9717327948790184</v>
+        <v>0.971732794879016</v>
       </c>
       <c r="E22">
-        <v>0.9567220930252758</v>
+        <v>0.9567220930252733</v>
       </c>
       <c r="F22">
-        <v>0.8788049168960927</v>
+        <v>0.87880491689609</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018674897284771</v>
+        <v>1.018674897284769</v>
       </c>
       <c r="J22">
-        <v>0.9748318464758995</v>
+        <v>0.9748318464758967</v>
       </c>
       <c r="K22">
-        <v>0.987885827727696</v>
+        <v>0.9878858277276933</v>
       </c>
       <c r="L22">
-        <v>0.9732025708521985</v>
+        <v>0.973202570852196</v>
       </c>
       <c r="M22">
-        <v>0.8972313812739399</v>
+        <v>0.8972313812739371</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9448236917030465</v>
+        <v>0.9448236917030483</v>
       </c>
       <c r="D23">
-        <v>0.9745248385395466</v>
+        <v>0.9745248385395479</v>
       </c>
       <c r="E23">
-        <v>0.9596365322993784</v>
+        <v>0.95963653229938</v>
       </c>
       <c r="F23">
-        <v>0.8864760123291965</v>
+        <v>0.8864760123291973</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020264460866197</v>
+        <v>1.020264460866198</v>
       </c>
       <c r="J23">
-        <v>0.9774663395255991</v>
+        <v>0.9774663395256004</v>
       </c>
       <c r="K23">
-        <v>0.9902934737479233</v>
+        <v>0.9902934737479244</v>
       </c>
       <c r="L23">
-        <v>0.9757198572639306</v>
+        <v>0.9757198572639321</v>
       </c>
       <c r="M23">
-        <v>0.9043149536989114</v>
+        <v>0.9043149536989121</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1260,13 +1260,13 @@
         <v>0.9580859453150378</v>
       </c>
       <c r="D24">
-        <v>0.9849572906912054</v>
+        <v>0.9849572906912053</v>
       </c>
       <c r="E24">
-        <v>0.9705628267553474</v>
+        <v>0.9705628267553473</v>
       </c>
       <c r="F24">
-        <v>0.9139856134997185</v>
+        <v>0.9139856134997173</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.02609584183766</v>
       </c>
       <c r="J24">
-        <v>0.9872986975023667</v>
+        <v>0.9872986975023664</v>
       </c>
       <c r="K24">
-        <v>0.9992538253547583</v>
+        <v>0.999253825354758</v>
       </c>
       <c r="L24">
         <v>0.9851273951853662</v>
       </c>
       <c r="M24">
-        <v>0.9297126986133046</v>
+        <v>0.9297126986133036</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9722912792700578</v>
+        <v>0.9722912792700579</v>
       </c>
       <c r="D25">
-        <v>0.9961136076122201</v>
+        <v>0.9961136076122206</v>
       </c>
       <c r="E25">
-        <v>0.9823053288407781</v>
+        <v>0.9823053288407787</v>
       </c>
       <c r="F25">
-        <v>0.9417673366446033</v>
+        <v>0.9417673366446024</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.032153633699471</v>
       </c>
       <c r="J25">
-        <v>0.9977885396244692</v>
+        <v>0.9977885396244696</v>
       </c>
       <c r="K25">
         <v>1.008772555903409</v>
       </c>
       <c r="L25">
-        <v>0.995184686308683</v>
+        <v>0.9951846863086836</v>
       </c>
       <c r="M25">
-        <v>0.9553423253467674</v>
+        <v>0.9553423253467664</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9828512688171005</v>
+        <v>0.9828689909589563</v>
       </c>
       <c r="D2">
-        <v>1.00439744833869</v>
+        <v>1.004411593486595</v>
       </c>
       <c r="E2">
-        <v>0.9910610859202117</v>
+        <v>0.9910780773643468</v>
       </c>
       <c r="F2">
-        <v>0.9615312347247613</v>
+        <v>0.9615401438254354</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036534924161597</v>
+        <v>1.036542208991863</v>
       </c>
       <c r="J2">
-        <v>1.00555727965465</v>
+        <v>1.0055744458452</v>
       </c>
       <c r="K2">
-        <v>1.015795857804926</v>
+        <v>1.015809808060873</v>
       </c>
       <c r="L2">
-        <v>1.002646374941858</v>
+        <v>1.002663124240493</v>
       </c>
       <c r="M2">
-        <v>0.9735538542778477</v>
+        <v>0.9735626262670524</v>
+      </c>
+      <c r="N2">
+        <v>1.005088116031962</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9901414003562033</v>
+        <v>0.9901543097741475</v>
       </c>
       <c r="D3">
-        <v>1.0101115636948</v>
+        <v>1.010121881538179</v>
       </c>
       <c r="E3">
-        <v>0.9971189537392964</v>
+        <v>0.9971315896255729</v>
       </c>
       <c r="F3">
-        <v>0.9748059336120543</v>
+        <v>0.9748122809767021</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039497701456905</v>
+        <v>1.039503012868751</v>
       </c>
       <c r="J3">
-        <v>1.010904477005172</v>
+        <v>1.010917024866304</v>
       </c>
       <c r="K3">
-        <v>1.020616679548536</v>
+        <v>1.020626868648686</v>
       </c>
       <c r="L3">
-        <v>1.007788831304713</v>
+        <v>1.007801304344393</v>
       </c>
       <c r="M3">
-        <v>0.985771660287849</v>
+        <v>0.9857779210686716</v>
+      </c>
+      <c r="N3">
+        <v>1.008843546630809</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.994702537975255</v>
+        <v>0.9947124942883633</v>
       </c>
       <c r="D4">
-        <v>1.013684550971592</v>
+        <v>1.013692515196752</v>
       </c>
       <c r="E4">
-        <v>1.000914654341642</v>
+        <v>1.000924613742561</v>
       </c>
       <c r="F4">
-        <v>0.9829744871916586</v>
+        <v>0.9829793201701541</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04132471682213</v>
+        <v>1.041328815951433</v>
       </c>
       <c r="J4">
-        <v>1.014242731007762</v>
+        <v>1.014252428952957</v>
       </c>
       <c r="K4">
-        <v>1.023620574134088</v>
+        <v>1.023628445422819</v>
       </c>
       <c r="L4">
-        <v>1.011002052812492</v>
+        <v>1.011011892286218</v>
       </c>
       <c r="M4">
-        <v>0.9932828332697985</v>
+        <v>0.9932876053717155</v>
+      </c>
+      <c r="N4">
+        <v>1.011185460153264</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9965850896072616</v>
+        <v>0.9965938393377584</v>
       </c>
       <c r="D5">
-        <v>1.015158745720021</v>
+        <v>1.015165747165135</v>
       </c>
       <c r="E5">
-        <v>1.002482527841043</v>
+        <v>1.002491392976906</v>
       </c>
       <c r="F5">
-        <v>0.986317189542442</v>
+        <v>0.9863214153235075</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042072615526872</v>
+        <v>1.042076218952473</v>
       </c>
       <c r="J5">
-        <v>1.015618814671066</v>
+        <v>1.015627344679651</v>
       </c>
       <c r="K5">
-        <v>1.024857495566016</v>
+        <v>1.02486441763793</v>
       </c>
       <c r="L5">
-        <v>1.012327232421307</v>
+        <v>1.012335993888164</v>
       </c>
       <c r="M5">
-        <v>0.9963547825235199</v>
+        <v>0.9963589568551134</v>
+      </c>
+      <c r="N5">
+        <v>1.012150187202563</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9968991940191544</v>
+        <v>0.9969077431087984</v>
       </c>
       <c r="D6">
-        <v>1.015404685254719</v>
+        <v>1.015411526536589</v>
       </c>
       <c r="E6">
-        <v>1.002744199084625</v>
+        <v>1.002752882221615</v>
       </c>
       <c r="F6">
-        <v>0.9868733346807933</v>
+        <v>0.9868774601152008</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042197044857243</v>
+        <v>1.042200565828929</v>
       </c>
       <c r="J6">
-        <v>1.015848312496147</v>
+        <v>1.015856648092884</v>
       </c>
       <c r="K6">
-        <v>1.025063707089684</v>
+        <v>1.025070471193219</v>
       </c>
       <c r="L6">
-        <v>1.012548277256955</v>
+        <v>1.012556859356038</v>
       </c>
       <c r="M6">
-        <v>0.9968657767989025</v>
+        <v>0.9968698522929882</v>
+      </c>
+      <c r="N6">
+        <v>1.012311041755936</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9947278270620468</v>
+        <v>0.9947377671200541</v>
       </c>
       <c r="D7">
-        <v>1.013704356469987</v>
+        <v>1.013712307728942</v>
       </c>
       <c r="E7">
-        <v>1.00093571139818</v>
+        <v>1.000945656059649</v>
       </c>
       <c r="F7">
-        <v>0.983019500106475</v>
+        <v>0.983024324861513</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041334787863058</v>
+        <v>1.041338880315835</v>
       </c>
       <c r="J7">
-        <v>1.014261223385697</v>
+        <v>1.014270905609967</v>
       </c>
       <c r="K7">
-        <v>1.023637201626967</v>
+        <v>1.023645060136353</v>
       </c>
       <c r="L7">
-        <v>1.011019858638224</v>
+        <v>1.011029683596485</v>
       </c>
       <c r="M7">
-        <v>0.9933242072092597</v>
+        <v>0.9933289712187729</v>
+      </c>
+      <c r="N7">
+        <v>1.011198427152949</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9853488574850069</v>
+        <v>0.9853649174314119</v>
       </c>
       <c r="D8">
-        <v>1.006355540464343</v>
+        <v>1.006368364931517</v>
       </c>
       <c r="E8">
-        <v>0.9931352777701228</v>
+        <v>0.9931507659018747</v>
       </c>
       <c r="F8">
-        <v>0.9661108442255432</v>
+        <v>0.9661188546638215</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037555762896227</v>
+        <v>1.037562366411202</v>
       </c>
       <c r="J8">
-        <v>1.007390766123824</v>
+        <v>1.007406340934067</v>
       </c>
       <c r="K8">
-        <v>1.017450104673022</v>
+        <v>1.017462758171748</v>
       </c>
       <c r="L8">
-        <v>1.004409046081709</v>
+        <v>1.004424320749985</v>
       </c>
       <c r="M8">
-        <v>0.9777703126789337</v>
+        <v>0.9777782047290042</v>
+      </c>
+      <c r="N8">
+        <v>1.006376341057032</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9675013124148635</v>
+        <v>0.9675295870152611</v>
       </c>
       <c r="D9">
-        <v>0.9923534896972155</v>
+        <v>0.9923759909329923</v>
       </c>
       <c r="E9">
-        <v>0.9783412437854194</v>
+        <v>0.9783677495130674</v>
       </c>
       <c r="F9">
-        <v>0.9325667068309504</v>
+        <v>0.9325817184720609</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030132042349874</v>
+        <v>1.030143650498454</v>
       </c>
       <c r="J9">
-        <v>0.9942562899941899</v>
+        <v>0.9942834689811401</v>
       </c>
       <c r="K9">
-        <v>1.005571856536474</v>
+        <v>1.005593985439271</v>
       </c>
       <c r="L9">
-        <v>0.9917957734462257</v>
+        <v>0.9918218241915566</v>
       </c>
       <c r="M9">
-        <v>0.9468575832825977</v>
+        <v>0.9468723029979713</v>
+      </c>
+      <c r="N9">
+        <v>0.9971377176678894</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9545047406999351</v>
+        <v>0.954542467209706</v>
       </c>
       <c r="D10">
-        <v>0.9821420741888492</v>
+        <v>0.9821720210721091</v>
       </c>
       <c r="E10">
-        <v>0.9676089424896398</v>
+        <v>0.967643918526927</v>
       </c>
       <c r="F10">
-        <v>0.9067251005765989</v>
+        <v>0.9067463038113244</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024538490992138</v>
+        <v>1.024553979112812</v>
       </c>
       <c r="J10">
-        <v>0.9846473836637859</v>
+        <v>0.9846834010471948</v>
       </c>
       <c r="K10">
-        <v>0.9968414225175893</v>
+        <v>0.9968708027154547</v>
       </c>
       <c r="L10">
-        <v>0.9825887364760735</v>
+        <v>0.9826230243035377</v>
       </c>
       <c r="M10">
-        <v>0.9230107754964251</v>
+        <v>0.9230314830529197</v>
+      </c>
+      <c r="N10">
+        <v>0.9903673232143581</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9485554001825828</v>
+        <v>0.9485976374920306</v>
       </c>
       <c r="D11">
-        <v>0.9774623335867705</v>
+        <v>0.9774958223256414</v>
       </c>
       <c r="E11">
-        <v>0.9627074191732199</v>
+        <v>0.9627464179041419</v>
       </c>
       <c r="F11">
-        <v>0.8943963860493432</v>
+        <v>0.8944208552215789</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021923326579589</v>
+        <v>1.02194067382988</v>
       </c>
       <c r="J11">
-        <v>0.980236796443684</v>
+        <v>0.9802769897052844</v>
       </c>
       <c r="K11">
-        <v>0.9928221718867084</v>
+        <v>0.9928549902075049</v>
       </c>
       <c r="L11">
-        <v>0.9783686367715635</v>
+        <v>0.9784068228341165</v>
       </c>
       <c r="M11">
-        <v>0.9116283567700132</v>
+        <v>0.9116522051974179</v>
+      </c>
+      <c r="N11">
+        <v>0.987257493792719</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9462904690314264</v>
+        <v>0.9463344571819625</v>
       </c>
       <c r="D12">
-        <v>0.9756796598787102</v>
+        <v>0.9757145216141824</v>
       </c>
       <c r="E12">
-        <v>0.9608432413888918</v>
+        <v>0.9608837978846259</v>
       </c>
       <c r="F12">
-        <v>0.8896074670607126</v>
+        <v>0.8896332681744951</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020918239780163</v>
+        <v>1.020936310646666</v>
       </c>
       <c r="J12">
-        <v>0.9785556570655652</v>
+        <v>0.9785974640227468</v>
       </c>
       <c r="K12">
-        <v>0.9912881179509828</v>
+        <v>0.9913222671879788</v>
       </c>
       <c r="L12">
-        <v>0.9767611421611536</v>
+        <v>0.9768008355151724</v>
       </c>
       <c r="M12">
-        <v>0.9072064931638145</v>
+        <v>0.9072316192327199</v>
+      </c>
+      <c r="N12">
+        <v>0.9860718951646605</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9467789238599579</v>
+        <v>0.9468225327973274</v>
       </c>
       <c r="D13">
-        <v>0.9760641661783709</v>
+        <v>0.9760987306155846</v>
       </c>
       <c r="E13">
-        <v>0.9612451841915847</v>
+        <v>0.9612854034670775</v>
       </c>
       <c r="F13">
-        <v>0.8906449507023918</v>
+        <v>0.890670460068993</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021135450214981</v>
+        <v>1.021153364244223</v>
       </c>
       <c r="J13">
-        <v>0.9789183069547384</v>
+        <v>0.9789597647382661</v>
       </c>
       <c r="K13">
-        <v>0.991619138548307</v>
+        <v>0.991652999685716</v>
       </c>
       <c r="L13">
-        <v>0.9771078562353743</v>
+        <v>0.9771472234015697</v>
       </c>
       <c r="M13">
-        <v>0.9081644745992803</v>
+        <v>0.9081893209742105</v>
+      </c>
+      <c r="N13">
+        <v>0.9863276589241053</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9483693489433119</v>
+        <v>0.9484117293550995</v>
       </c>
       <c r="D14">
-        <v>0.9773159211497167</v>
+        <v>0.9773495221433623</v>
       </c>
       <c r="E14">
-        <v>0.9625542493436097</v>
+        <v>0.9625933754730969</v>
       </c>
       <c r="F14">
-        <v>0.894005076051702</v>
+        <v>0.8940296526655723</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021840965437261</v>
+        <v>1.021858371784065</v>
       </c>
       <c r="J14">
-        <v>0.9800987428042446</v>
+        <v>0.9801390681074796</v>
       </c>
       <c r="K14">
-        <v>0.9926962408430203</v>
+        <v>0.9927291680167538</v>
       </c>
       <c r="L14">
-        <v>0.9782366088527165</v>
+        <v>0.9782749182331145</v>
       </c>
       <c r="M14">
-        <v>0.9112670478683425</v>
+        <v>0.9112909994267027</v>
+      </c>
+      <c r="N14">
+        <v>0.9871601382502412</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.949341733377671</v>
+        <v>0.9493833672747252</v>
       </c>
       <c r="D15">
-        <v>0.9780810900567244</v>
+        <v>0.9781141053861619</v>
       </c>
       <c r="E15">
-        <v>0.9633548569937789</v>
+        <v>0.9633933183797948</v>
       </c>
       <c r="F15">
-        <v>0.8960462274842489</v>
+        <v>0.896070246321952</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022271027116135</v>
+        <v>1.02228812526425</v>
       </c>
       <c r="J15">
-        <v>0.9808201876983487</v>
+        <v>0.9808598238942217</v>
       </c>
       <c r="K15">
-        <v>0.9933542489692365</v>
+        <v>0.9933866081508642</v>
       </c>
       <c r="L15">
-        <v>0.9789266073291661</v>
+        <v>0.9789642731655706</v>
       </c>
       <c r="M15">
-        <v>0.9131516886322203</v>
+        <v>0.9131751046590799</v>
+      </c>
+      <c r="N15">
+        <v>0.9876688918552146</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9548922607406471</v>
+        <v>0.9549296976792717</v>
       </c>
       <c r="D16">
-        <v>0.9824467666519187</v>
+        <v>0.9824764859284411</v>
       </c>
       <c r="E16">
-        <v>0.9679284563694265</v>
+        <v>0.9679631737199089</v>
       </c>
       <c r="F16">
-        <v>0.907516329217348</v>
+        <v>0.9075373303556594</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024707612611559</v>
+        <v>1.024722981598692</v>
       </c>
       <c r="J16">
-        <v>0.9849344119661163</v>
+        <v>0.9849701603616655</v>
       </c>
       <c r="K16">
-        <v>0.997102717426781</v>
+        <v>0.9971318764416058</v>
       </c>
       <c r="L16">
-        <v>0.9828635025541701</v>
+        <v>0.9828975394031605</v>
       </c>
       <c r="M16">
-        <v>0.923741185707403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9237616985196531</v>
+      </c>
+      <c r="N16">
+        <v>0.9905696629966086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9582835404814674</v>
+        <v>0.9583184644752465</v>
       </c>
       <c r="D17">
-        <v>0.985112587178815</v>
+        <v>0.9851403299741026</v>
       </c>
       <c r="E17">
-        <v>0.970725884183249</v>
+        <v>0.9707583543895456</v>
       </c>
       <c r="F17">
-        <v>0.9143829310109939</v>
+        <v>0.9144022136186092</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02618140915196</v>
+        <v>1.02619574515053</v>
       </c>
       <c r="J17">
-        <v>0.9874449063140537</v>
+        <v>0.9874783156882384</v>
       </c>
       <c r="K17">
-        <v>0.9993867809289976</v>
+        <v>0.9994140179875061</v>
       </c>
       <c r="L17">
-        <v>0.9852674312808067</v>
+        <v>0.9852992864174714</v>
       </c>
       <c r="M17">
-        <v>0.930079413141682</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9300982680700353</v>
+      </c>
+      <c r="N17">
+        <v>0.992339194649694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9602311007000207</v>
+        <v>0.9602645982699541</v>
       </c>
       <c r="D18">
-        <v>0.986643053114295</v>
+        <v>0.9866696729532407</v>
       </c>
       <c r="E18">
-        <v>0.9723334504973211</v>
+        <v>0.9723646434165416</v>
       </c>
       <c r="F18">
-        <v>0.9182813251829879</v>
+        <v>0.9182996592008158</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027022791530967</v>
+        <v>1.027036541780626</v>
       </c>
       <c r="J18">
-        <v>0.9888855442255622</v>
+        <v>0.9889176221254645</v>
       </c>
       <c r="K18">
-        <v>1.000696397967236</v>
+        <v>1.000722542032343</v>
       </c>
       <c r="L18">
-        <v>0.9866474678133647</v>
+        <v>0.9866780816206147</v>
       </c>
       <c r="M18">
-        <v>0.9336773194824143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9336952578402533</v>
+      </c>
+      <c r="N18">
+        <v>0.9933544288755258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9608901720384819</v>
+        <v>0.9609231895823052</v>
       </c>
       <c r="D19">
-        <v>0.9871609017018761</v>
+        <v>0.9871871434639112</v>
       </c>
       <c r="E19">
-        <v>0.9728776382104516</v>
+        <v>0.9729084010138196</v>
       </c>
       <c r="F19">
-        <v>0.919593433034811</v>
+        <v>0.9196114520062771</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027306705499545</v>
+        <v>1.027320258714973</v>
       </c>
       <c r="J19">
-        <v>0.9893728866652722</v>
+        <v>0.9894045158733779</v>
       </c>
       <c r="K19">
-        <v>1.001139241260168</v>
+        <v>1.001165017168687</v>
       </c>
       <c r="L19">
-        <v>0.9871144000267492</v>
+        <v>0.9871445956232244</v>
       </c>
       <c r="M19">
-        <v>0.9348881963830079</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9349058300961621</v>
+      </c>
+      <c r="N19">
+        <v>0.9936978282451371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9579228883103753</v>
+        <v>0.9579580777717003</v>
       </c>
       <c r="D20">
-        <v>0.9848291362137144</v>
+        <v>0.9848570879143284</v>
       </c>
       <c r="E20">
-        <v>0.9704282764695811</v>
+        <v>0.9704609842502908</v>
       </c>
       <c r="F20">
-        <v>0.9136574912668366</v>
+        <v>0.9136769525117606</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026025202846036</v>
+        <v>1.026039647901446</v>
       </c>
       <c r="J20">
-        <v>0.9871780386780383</v>
+        <v>0.9872116955463115</v>
       </c>
       <c r="K20">
-        <v>0.9991440976428201</v>
+        <v>0.9991715379508996</v>
       </c>
       <c r="L20">
-        <v>0.9850118335069186</v>
+        <v>0.9850439194307236</v>
       </c>
       <c r="M20">
-        <v>0.9294098467064792</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9294288741254983</v>
+      </c>
+      <c r="N20">
+        <v>0.992151112877842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9479025915287612</v>
+        <v>0.9479453315116213</v>
       </c>
       <c r="D21">
-        <v>0.9769485892500593</v>
+        <v>0.9769824722766738</v>
       </c>
       <c r="E21">
-        <v>0.9621700135461961</v>
+        <v>0.9622094597278146</v>
       </c>
       <c r="F21">
-        <v>0.8930217612971326</v>
+        <v>0.8930466089791612</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021634183816583</v>
+        <v>1.021651738690216</v>
       </c>
       <c r="J21">
-        <v>0.9797523664313665</v>
+        <v>0.9797930233965144</v>
       </c>
       <c r="K21">
-        <v>0.9923802455315158</v>
+        <v>0.9924134461608547</v>
       </c>
       <c r="L21">
-        <v>0.9779053681983512</v>
+        <v>0.9779439873420742</v>
       </c>
       <c r="M21">
-        <v>0.9103591151044983</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9103833268009996</v>
+      </c>
+      <c r="N21">
+        <v>0.9869158694863576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9412790260279731</v>
+        <v>0.9413269585233677</v>
       </c>
       <c r="D22">
-        <v>0.971732794879016</v>
+        <v>0.9717707465715633</v>
       </c>
       <c r="E22">
-        <v>0.9567220930252733</v>
+        <v>0.9567661512728557</v>
       </c>
       <c r="F22">
-        <v>0.87880491689609</v>
+        <v>0.8788338672153011</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018674897284769</v>
+        <v>1.018694603601932</v>
       </c>
       <c r="J22">
-        <v>0.9748318464758967</v>
+        <v>0.9748772744658301</v>
       </c>
       <c r="K22">
-        <v>0.9878858277276933</v>
+        <v>0.9879229685264301</v>
       </c>
       <c r="L22">
-        <v>0.973202570852196</v>
+        <v>0.9732456479876811</v>
       </c>
       <c r="M22">
-        <v>0.8972313812739371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.897259520895589</v>
+      </c>
+      <c r="N22">
+        <v>0.9834453487782263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9448236917030483</v>
+        <v>0.9448688240719932</v>
       </c>
       <c r="D23">
-        <v>0.9745248385395479</v>
+        <v>0.9745605970762754</v>
       </c>
       <c r="E23">
-        <v>0.95963653229938</v>
+        <v>0.9596781057164058</v>
       </c>
       <c r="F23">
-        <v>0.8864760123291973</v>
+        <v>0.8865027050650051</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020264460866198</v>
+        <v>1.020283005359854</v>
       </c>
       <c r="J23">
-        <v>0.9774663395256004</v>
+        <v>0.9775091989446282</v>
       </c>
       <c r="K23">
-        <v>0.9902934737479244</v>
+        <v>0.9903284917501726</v>
       </c>
       <c r="L23">
-        <v>0.9757198572639321</v>
+        <v>0.975760533917861</v>
       </c>
       <c r="M23">
-        <v>0.9043149536989121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9043409340063265</v>
+      </c>
+      <c r="N23">
+        <v>0.9853036077373235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9580859453150378</v>
+        <v>0.9581210147023541</v>
       </c>
       <c r="D24">
-        <v>0.9849572906912053</v>
+        <v>0.9849851479048132</v>
       </c>
       <c r="E24">
-        <v>0.9705628267553473</v>
+        <v>0.9705954270838222</v>
       </c>
       <c r="F24">
-        <v>0.9139856134997173</v>
+        <v>0.9140049938620134</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02609584183766</v>
+        <v>1.026110237563572</v>
       </c>
       <c r="J24">
-        <v>0.9872986975023664</v>
+        <v>0.9873322424379708</v>
       </c>
       <c r="K24">
-        <v>0.999253825354758</v>
+        <v>0.9992811737370673</v>
       </c>
       <c r="L24">
-        <v>0.9851273951853662</v>
+        <v>0.9851593767305824</v>
       </c>
       <c r="M24">
-        <v>0.9297126986133036</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9297316479373079</v>
+      </c>
+      <c r="N24">
+        <v>0.9922361509037102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9722912792700579</v>
+        <v>0.9723161953040674</v>
       </c>
       <c r="D25">
-        <v>0.9961136076122206</v>
+        <v>0.9961334545276935</v>
       </c>
       <c r="E25">
-        <v>0.9823053288407787</v>
+        <v>0.9823288124516324</v>
       </c>
       <c r="F25">
-        <v>0.9417673366446024</v>
+        <v>0.9417803249421166</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032153633699471</v>
+        <v>1.032163865734045</v>
       </c>
       <c r="J25">
-        <v>0.9977885396244696</v>
+        <v>0.9978125486186845</v>
       </c>
       <c r="K25">
-        <v>1.008772555903409</v>
+        <v>1.008792091646147</v>
       </c>
       <c r="L25">
-        <v>0.9951846863086836</v>
+        <v>0.9952077883157552</v>
       </c>
       <c r="M25">
-        <v>0.9553423253467664</v>
+        <v>0.9553550782919832</v>
+      </c>
+      <c r="N25">
+        <v>0.9996243815570515</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9828689909589563</v>
+        <v>0.9976440209950249</v>
       </c>
       <c r="D2">
-        <v>1.004411593486595</v>
+        <v>1.016535578719572</v>
       </c>
       <c r="E2">
-        <v>0.9910780773643468</v>
+        <v>1.009420212974399</v>
       </c>
       <c r="F2">
-        <v>0.9615401438254354</v>
+        <v>1.010517486869029</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036542208991863</v>
+        <v>1.04490802545295</v>
       </c>
       <c r="J2">
-        <v>1.0055744458452</v>
+        <v>1.019895428064191</v>
       </c>
       <c r="K2">
-        <v>1.015809808060873</v>
+        <v>1.027769254782109</v>
       </c>
       <c r="L2">
-        <v>1.002663124240493</v>
+        <v>1.020749850949702</v>
       </c>
       <c r="M2">
-        <v>0.9735626262670524</v>
+        <v>1.021832215500509</v>
       </c>
       <c r="N2">
-        <v>1.005088116031962</v>
+        <v>1.021343796555683</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9901543097741475</v>
+        <v>1.005457780248404</v>
       </c>
       <c r="D3">
-        <v>1.010121881538179</v>
+        <v>1.022526647046691</v>
       </c>
       <c r="E3">
-        <v>0.9971315896255729</v>
+        <v>1.016459694758753</v>
       </c>
       <c r="F3">
-        <v>0.9748122809767021</v>
+        <v>1.01865527002211</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039503012868751</v>
+        <v>1.047453281007302</v>
       </c>
       <c r="J3">
-        <v>1.010917024866304</v>
+        <v>1.025800758411404</v>
       </c>
       <c r="K3">
-        <v>1.020626868648686</v>
+        <v>1.03287918554523</v>
       </c>
       <c r="L3">
-        <v>1.007801304344393</v>
+        <v>1.026886214860245</v>
       </c>
       <c r="M3">
-        <v>0.9857779210686716</v>
+        <v>1.029054890351178</v>
       </c>
       <c r="N3">
-        <v>1.008843546630809</v>
+        <v>1.02725751314934</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9947124942883633</v>
+        <v>1.010351565979702</v>
       </c>
       <c r="D4">
-        <v>1.013692515196752</v>
+        <v>1.026279309939533</v>
       </c>
       <c r="E4">
-        <v>1.000924613742561</v>
+        <v>1.020875034365668</v>
       </c>
       <c r="F4">
-        <v>0.9829793201701541</v>
+        <v>1.023762429025662</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041328815951433</v>
+        <v>1.049030212520128</v>
       </c>
       <c r="J4">
-        <v>1.014252428952957</v>
+        <v>1.029494133706003</v>
       </c>
       <c r="K4">
-        <v>1.023628445422819</v>
+        <v>1.036070584388888</v>
       </c>
       <c r="L4">
-        <v>1.011011892286218</v>
+        <v>1.030727878919817</v>
       </c>
       <c r="M4">
-        <v>0.9932876053717155</v>
+        <v>1.033582278174661</v>
       </c>
       <c r="N4">
-        <v>1.011185460153264</v>
+        <v>1.030956133460493</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9965938393377584</v>
+        <v>1.012372376243149</v>
       </c>
       <c r="D5">
-        <v>1.015165747165135</v>
+        <v>1.027828886804975</v>
       </c>
       <c r="E5">
-        <v>1.002491392976906</v>
+        <v>1.022699759506938</v>
       </c>
       <c r="F5">
-        <v>0.9863214153235075</v>
+        <v>1.025873820687874</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042076218952473</v>
+        <v>1.049677180588835</v>
       </c>
       <c r="J5">
-        <v>1.015627344679651</v>
+        <v>1.03101794867512</v>
       </c>
       <c r="K5">
-        <v>1.02486441763793</v>
+        <v>1.037386174168499</v>
       </c>
       <c r="L5">
-        <v>1.012335993888164</v>
+        <v>1.032313794205378</v>
       </c>
       <c r="M5">
-        <v>0.9963589568551134</v>
+        <v>1.035452656130041</v>
       </c>
       <c r="N5">
-        <v>1.012150187202563</v>
+        <v>1.032482112421651</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9969077431087984</v>
+        <v>1.012709599706985</v>
       </c>
       <c r="D6">
-        <v>1.015411526536589</v>
+        <v>1.028087467948636</v>
       </c>
       <c r="E6">
-        <v>1.002752882221615</v>
+        <v>1.023004346277204</v>
       </c>
       <c r="F6">
-        <v>0.9868774601152008</v>
+        <v>1.026226304525695</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042200565828929</v>
+        <v>1.049784894275243</v>
       </c>
       <c r="J6">
-        <v>1.015856648092884</v>
+        <v>1.031272157194255</v>
       </c>
       <c r="K6">
-        <v>1.025070471193219</v>
+        <v>1.037605578862036</v>
       </c>
       <c r="L6">
-        <v>1.012556859356038</v>
+        <v>1.032578416879685</v>
       </c>
       <c r="M6">
-        <v>0.9968698522929882</v>
+        <v>1.035764825811336</v>
       </c>
       <c r="N6">
-        <v>1.012311041755936</v>
+        <v>1.032736681946041</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9947377671200541</v>
+        <v>1.01037870882199</v>
       </c>
       <c r="D7">
-        <v>1.013712307728942</v>
+        <v>1.026300123597445</v>
       </c>
       <c r="E7">
-        <v>1.000945656059649</v>
+        <v>1.020899537686228</v>
       </c>
       <c r="F7">
-        <v>0.983024324861513</v>
+        <v>1.02379077877558</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041338880315835</v>
+        <v>1.04903891911494</v>
       </c>
       <c r="J7">
-        <v>1.014270905609967</v>
+        <v>1.029514606330235</v>
       </c>
       <c r="K7">
-        <v>1.023645060136353</v>
+        <v>1.036088263967693</v>
       </c>
       <c r="L7">
-        <v>1.011029683596485</v>
+        <v>1.030749182214906</v>
       </c>
       <c r="M7">
-        <v>0.9933289712187729</v>
+        <v>1.033607397090134</v>
       </c>
       <c r="N7">
-        <v>1.011198427152949</v>
+        <v>1.030976635158199</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9853649174314119</v>
+        <v>1.000319765533789</v>
       </c>
       <c r="D8">
-        <v>1.006368364931517</v>
+        <v>1.01858698595866</v>
       </c>
       <c r="E8">
-        <v>0.9931507659018747</v>
+        <v>1.011829394153027</v>
       </c>
       <c r="F8">
-        <v>0.9661188546638215</v>
+        <v>1.013301963141774</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037562366411202</v>
+        <v>1.045783202547986</v>
       </c>
       <c r="J8">
-        <v>1.007406340934067</v>
+        <v>1.021918696137727</v>
       </c>
       <c r="K8">
-        <v>1.017462758171748</v>
+        <v>1.029520935759675</v>
       </c>
       <c r="L8">
-        <v>1.004424320749985</v>
+        <v>1.022851477901348</v>
       </c>
       <c r="M8">
-        <v>0.9777782047290042</v>
+        <v>1.024304715810892</v>
       </c>
       <c r="N8">
-        <v>1.006376341057032</v>
+        <v>1.023369937901956</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9675295870152611</v>
+        <v>0.9812360120835236</v>
       </c>
       <c r="D9">
-        <v>0.9923759909329923</v>
+        <v>1.00396398720597</v>
       </c>
       <c r="E9">
-        <v>0.9783677495130674</v>
+        <v>0.9946785575461394</v>
       </c>
       <c r="F9">
-        <v>0.9325817184720609</v>
+        <v>0.9934896484052937</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030143650498454</v>
+        <v>1.039470270995023</v>
       </c>
       <c r="J9">
-        <v>0.9942834689811401</v>
+        <v>1.007469230779417</v>
       </c>
       <c r="K9">
-        <v>1.005593985439271</v>
+        <v>1.0169930772103</v>
       </c>
       <c r="L9">
-        <v>0.9918218241915566</v>
+        <v>1.007858565523406</v>
       </c>
       <c r="M9">
-        <v>0.9468723029979713</v>
+        <v>1.006689242088579</v>
       </c>
       <c r="N9">
-        <v>0.9971377176678894</v>
+        <v>1.00889995264546</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.954542467209706</v>
+        <v>0.9674143687372776</v>
       </c>
       <c r="D10">
-        <v>0.9821720210721091</v>
+        <v>0.9933909237453146</v>
       </c>
       <c r="E10">
-        <v>0.967643918526927</v>
+        <v>0.9823023186326126</v>
       </c>
       <c r="F10">
-        <v>0.9067463038113244</v>
+        <v>0.9792027737861413</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024553979112812</v>
+        <v>1.03481108896474</v>
       </c>
       <c r="J10">
-        <v>0.9846834010471948</v>
+        <v>0.9969832679432608</v>
       </c>
       <c r="K10">
-        <v>0.9968708027154547</v>
+        <v>1.00788054129475</v>
       </c>
       <c r="L10">
-        <v>0.9826230243035377</v>
+        <v>0.9969986351786004</v>
       </c>
       <c r="M10">
-        <v>0.9230314830529197</v>
+        <v>0.9939579632010206</v>
       </c>
       <c r="N10">
-        <v>0.9903673232143581</v>
+        <v>0.9983990985393194</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9485976374920306</v>
+        <v>0.961118877639803</v>
       </c>
       <c r="D11">
-        <v>0.9774958223256414</v>
+        <v>0.9885821473185284</v>
       </c>
       <c r="E11">
-        <v>0.9627464179041419</v>
+        <v>0.9766777223113301</v>
       </c>
       <c r="F11">
-        <v>0.8944208552215789</v>
+        <v>0.9727110250986086</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02194067382988</v>
+        <v>1.03266980607535</v>
       </c>
       <c r="J11">
-        <v>0.9802769897052844</v>
+        <v>0.9922036418596731</v>
       </c>
       <c r="K11">
-        <v>0.9928549902075049</v>
+        <v>1.003722648414455</v>
       </c>
       <c r="L11">
-        <v>0.9784068228341165</v>
+        <v>0.9920532852212975</v>
       </c>
       <c r="M11">
-        <v>0.9116522051974179</v>
+        <v>0.9881665972863553</v>
       </c>
       <c r="N11">
-        <v>0.987257493792719</v>
+        <v>0.9936126848384624</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9463344571819625</v>
+        <v>0.9587287526510951</v>
       </c>
       <c r="D12">
-        <v>0.9757145216141824</v>
+        <v>0.9867577974196685</v>
       </c>
       <c r="E12">
-        <v>0.9608837978846259</v>
+        <v>0.9745443623065807</v>
       </c>
       <c r="F12">
-        <v>0.8896332681744951</v>
+        <v>0.9702488198343278</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020936310646666</v>
+        <v>1.031854132143933</v>
       </c>
       <c r="J12">
-        <v>0.9785974640227468</v>
+        <v>0.9903886468328781</v>
       </c>
       <c r="K12">
-        <v>0.9913222671879788</v>
+        <v>1.002143171892614</v>
       </c>
       <c r="L12">
-        <v>0.9768008355151724</v>
+        <v>0.9901760601567799</v>
       </c>
       <c r="M12">
-        <v>0.9072316192327199</v>
+        <v>0.9859690984674996</v>
       </c>
       <c r="N12">
-        <v>0.9860718951646605</v>
+        <v>0.9917951123105463</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9468225327973274</v>
+        <v>0.9592438712918561</v>
       </c>
       <c r="D13">
-        <v>0.9760987306155846</v>
+        <v>0.9871509155204357</v>
       </c>
       <c r="E13">
-        <v>0.9612854034670775</v>
+        <v>0.9750040473724876</v>
       </c>
       <c r="F13">
-        <v>0.890670460068993</v>
+        <v>0.9707793621687796</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021153364244223</v>
+        <v>1.032030045991532</v>
       </c>
       <c r="J13">
-        <v>0.9789597647382661</v>
+        <v>0.9907798282907492</v>
       </c>
       <c r="K13">
-        <v>0.991652999685716</v>
+        <v>1.002483617410812</v>
       </c>
       <c r="L13">
-        <v>0.9771472234015697</v>
+        <v>0.9905806224371689</v>
       </c>
       <c r="M13">
-        <v>0.9081893209742105</v>
+        <v>0.9864426449693117</v>
       </c>
       <c r="N13">
-        <v>0.9863276589241053</v>
+        <v>0.9921868492909566</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9484117293550995</v>
+        <v>0.9609223956504908</v>
       </c>
       <c r="D14">
-        <v>0.9773495221433623</v>
+        <v>0.9884321465649303</v>
       </c>
       <c r="E14">
-        <v>0.9625933754730969</v>
+        <v>0.9765023051788394</v>
       </c>
       <c r="F14">
-        <v>0.8940296526655723</v>
+        <v>0.9725085679741842</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021858371784065</v>
+        <v>1.032602807205163</v>
       </c>
       <c r="J14">
-        <v>0.9801390681074796</v>
+        <v>0.9920544456257042</v>
       </c>
       <c r="K14">
-        <v>0.9927291680167538</v>
+        <v>1.003592823516124</v>
       </c>
       <c r="L14">
-        <v>0.9782749182331145</v>
+        <v>0.9918989594084505</v>
       </c>
       <c r="M14">
-        <v>0.9112909994267027</v>
+        <v>0.9879859246562974</v>
       </c>
       <c r="N14">
-        <v>0.9871601382502412</v>
+        <v>0.9934632767287279</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9493833672747252</v>
+        <v>0.9619495757193353</v>
       </c>
       <c r="D15">
-        <v>0.9781141053861619</v>
+        <v>0.9892163851681868</v>
       </c>
       <c r="E15">
-        <v>0.9633933183797948</v>
+        <v>0.9774194456514528</v>
       </c>
       <c r="F15">
-        <v>0.896070246321952</v>
+        <v>0.9735670843441091</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02228812526425</v>
+        <v>1.032952958295381</v>
       </c>
       <c r="J15">
-        <v>0.9808598238942217</v>
+        <v>0.9928344079954404</v>
       </c>
       <c r="K15">
-        <v>0.9933866081508642</v>
+        <v>1.004271494214592</v>
       </c>
       <c r="L15">
-        <v>0.9789642731655706</v>
+        <v>0.9927057663945583</v>
       </c>
       <c r="M15">
-        <v>0.9131751046590799</v>
+        <v>0.9889305062959846</v>
       </c>
       <c r="N15">
-        <v>0.9876688918552146</v>
+        <v>0.9942443467344921</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9549296976792717</v>
+        <v>0.967825222747109</v>
       </c>
       <c r="D16">
-        <v>0.9824764859284411</v>
+        <v>0.9937049200700031</v>
       </c>
       <c r="E16">
-        <v>0.9679631737199089</v>
+        <v>0.982669661600443</v>
       </c>
       <c r="F16">
-        <v>0.9075373303556594</v>
+        <v>0.9796267652120823</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024722981598692</v>
+        <v>1.034950450269981</v>
       </c>
       <c r="J16">
-        <v>0.9849701603616655</v>
+        <v>0.9972951340652874</v>
       </c>
       <c r="K16">
-        <v>0.9971318764416058</v>
+        <v>1.008151756966229</v>
       </c>
       <c r="L16">
-        <v>0.9828975394031605</v>
+        <v>0.9973214114846725</v>
       </c>
       <c r="M16">
-        <v>0.9237616985196531</v>
+        <v>0.9943360803033165</v>
       </c>
       <c r="N16">
-        <v>0.9905696629966086</v>
+        <v>0.9987114075470106</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9583184644752465</v>
+        <v>0.971424374921363</v>
       </c>
       <c r="D17">
-        <v>0.9851403299741026</v>
+        <v>0.9964564041371625</v>
       </c>
       <c r="E17">
-        <v>0.9707583543895456</v>
+        <v>0.9858890776887635</v>
       </c>
       <c r="F17">
-        <v>0.9144022136186092</v>
+        <v>0.9833427710240201</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02619574515053</v>
+        <v>1.036169146361929</v>
       </c>
       <c r="J17">
-        <v>0.9874783156882384</v>
+        <v>1.00002676000894</v>
       </c>
       <c r="K17">
-        <v>0.9994140179875061</v>
+        <v>1.010526852018063</v>
       </c>
       <c r="L17">
-        <v>0.9852992864174714</v>
+        <v>1.000149130407652</v>
       </c>
       <c r="M17">
-        <v>0.9300982680700353</v>
+        <v>0.9976493044059127</v>
       </c>
       <c r="N17">
-        <v>0.992339194649694</v>
+        <v>1.001446912712826</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9602645982699541</v>
+        <v>0.9734941053989462</v>
       </c>
       <c r="D18">
-        <v>0.9866696729532407</v>
+        <v>0.998039314472966</v>
       </c>
       <c r="E18">
-        <v>0.9723646434165416</v>
+        <v>0.98774159841761</v>
       </c>
       <c r="F18">
-        <v>0.9182996592008158</v>
+        <v>0.9854811579864556</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027036541780626</v>
+        <v>1.036868171064308</v>
       </c>
       <c r="J18">
-        <v>0.9889176221254645</v>
+        <v>1.001597275245785</v>
       </c>
       <c r="K18">
-        <v>1.000722542032343</v>
+        <v>1.011891977946557</v>
       </c>
       <c r="L18">
-        <v>0.9866780816206147</v>
+        <v>1.001775336735437</v>
       </c>
       <c r="M18">
-        <v>0.9336952578402533</v>
+        <v>0.9995553018138998</v>
       </c>
       <c r="N18">
-        <v>0.9933544288755258</v>
+        <v>1.003019658261447</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9609231895823052</v>
+        <v>0.9741949511019886</v>
       </c>
       <c r="D19">
-        <v>0.9871871434639112</v>
+        <v>0.998575415725706</v>
       </c>
       <c r="E19">
-        <v>0.9729084010138196</v>
+        <v>0.988369085575642</v>
       </c>
       <c r="F19">
-        <v>0.9196114520062771</v>
+        <v>0.9862054971787418</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027320258714973</v>
+        <v>1.037104563260592</v>
       </c>
       <c r="J19">
-        <v>0.9894045158733779</v>
+        <v>1.002129017454901</v>
       </c>
       <c r="K19">
-        <v>1.001165017168687</v>
+        <v>1.012354109005758</v>
       </c>
       <c r="L19">
-        <v>0.9871445956232244</v>
+        <v>1.002326010273002</v>
       </c>
       <c r="M19">
-        <v>0.9349058300961621</v>
+        <v>1.00020081934503</v>
       </c>
       <c r="N19">
-        <v>0.9936978282451371</v>
+        <v>1.003552155605492</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9579580777717003</v>
+        <v>0.9710413149711051</v>
       </c>
       <c r="D20">
-        <v>0.9848570879143284</v>
+        <v>0.9961634935919814</v>
       </c>
       <c r="E20">
-        <v>0.9704609842502908</v>
+        <v>0.9855463113501217</v>
       </c>
       <c r="F20">
-        <v>0.9136769525117606</v>
+        <v>0.9829471220522276</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026039647901446</v>
+        <v>1.036039625926581</v>
       </c>
       <c r="J20">
-        <v>0.9872116955463115</v>
+        <v>0.9997360653010435</v>
       </c>
       <c r="K20">
-        <v>0.9991715379508996</v>
+        <v>1.010274140471376</v>
       </c>
       <c r="L20">
-        <v>0.9850439194307236</v>
+        <v>0.9998481635902216</v>
       </c>
       <c r="M20">
-        <v>0.9294288741254983</v>
+        <v>0.9972966031845094</v>
       </c>
       <c r="N20">
-        <v>0.992151112877842</v>
+        <v>1.0011558051851</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9479453315116213</v>
+        <v>0.9604295834825732</v>
       </c>
       <c r="D21">
-        <v>0.9769824722766738</v>
+        <v>0.9880559401243897</v>
       </c>
       <c r="E21">
-        <v>0.9622094597278146</v>
+        <v>0.976062361105049</v>
       </c>
       <c r="F21">
-        <v>0.8930466089791612</v>
+        <v>0.9720008084274354</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021651738690216</v>
+        <v>1.032434718801907</v>
       </c>
       <c r="J21">
-        <v>0.9797930233965144</v>
+        <v>0.9916802290803132</v>
       </c>
       <c r="K21">
-        <v>0.9924134461608547</v>
+        <v>1.003267185481951</v>
       </c>
       <c r="L21">
-        <v>0.9779439873420742</v>
+        <v>0.991511887996873</v>
       </c>
       <c r="M21">
-        <v>0.9103833268009996</v>
+        <v>0.9875327853841427</v>
       </c>
       <c r="N21">
-        <v>0.9869158694863576</v>
+        <v>0.9930885287529192</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9413269585233677</v>
+        <v>0.953455362817521</v>
       </c>
       <c r="D22">
-        <v>0.9717707465715633</v>
+        <v>0.9827354919256774</v>
       </c>
       <c r="E22">
-        <v>0.9567661512728557</v>
+        <v>0.9698414873626784</v>
       </c>
       <c r="F22">
-        <v>0.8788338672153011</v>
+        <v>0.964820985409917</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018694603601932</v>
+        <v>1.030049645713614</v>
       </c>
       <c r="J22">
-        <v>0.9748772744658301</v>
+        <v>0.9863836574913102</v>
       </c>
       <c r="K22">
-        <v>0.9879229685264301</v>
+        <v>0.998656899852989</v>
       </c>
       <c r="L22">
-        <v>0.9732456479876811</v>
+        <v>0.9860350373842861</v>
       </c>
       <c r="M22">
-        <v>0.897259520895589</v>
+        <v>0.9811231122629268</v>
       </c>
       <c r="N22">
-        <v>0.9834453487782263</v>
+        <v>0.9877844354247348</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9448688240719932</v>
+        <v>0.9571830650643637</v>
       </c>
       <c r="D23">
-        <v>0.9745605970762754</v>
+        <v>0.9855784087205915</v>
       </c>
       <c r="E23">
-        <v>0.9596781057164058</v>
+        <v>0.9731653269468103</v>
       </c>
       <c r="F23">
-        <v>0.8865027050650051</v>
+        <v>0.968657214244632</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020283005359854</v>
+        <v>1.031325890909616</v>
       </c>
       <c r="J23">
-        <v>0.9775091989446282</v>
+        <v>0.9892148072628538</v>
       </c>
       <c r="K23">
-        <v>0.9903284917501726</v>
+        <v>1.001121499744178</v>
       </c>
       <c r="L23">
-        <v>0.975760533917861</v>
+        <v>0.9889621700283051</v>
       </c>
       <c r="M23">
-        <v>0.9043409340063265</v>
+        <v>0.9845483437259533</v>
       </c>
       <c r="N23">
-        <v>0.9853036077373235</v>
+        <v>0.9906196057536913</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9581210147023541</v>
+        <v>0.9712144943569722</v>
       </c>
       <c r="D24">
-        <v>0.9849851479048132</v>
+        <v>0.9962959149358958</v>
       </c>
       <c r="E24">
-        <v>0.9705954270838222</v>
+        <v>0.9857012706080017</v>
       </c>
       <c r="F24">
-        <v>0.9140049938620134</v>
+        <v>0.9831259883398847</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026110237563572</v>
+        <v>1.036098187037887</v>
       </c>
       <c r="J24">
-        <v>0.9873322424379708</v>
+        <v>0.9998674878995537</v>
       </c>
       <c r="K24">
-        <v>0.9992811737370673</v>
+        <v>1.010388392213164</v>
       </c>
       <c r="L24">
-        <v>0.9851593767305824</v>
+        <v>0.9999842288126134</v>
       </c>
       <c r="M24">
-        <v>0.9297316479373079</v>
+        <v>0.997456055402716</v>
       </c>
       <c r="N24">
-        <v>0.9922361509037102</v>
+        <v>1.001287414418775</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9723161953040674</v>
+        <v>0.9863482875026393</v>
       </c>
       <c r="D25">
-        <v>0.9961334545276935</v>
+        <v>1.007879093186157</v>
       </c>
       <c r="E25">
-        <v>0.9823288124516324</v>
+        <v>0.9992658372915595</v>
       </c>
       <c r="F25">
-        <v>0.9417803249421166</v>
+        <v>0.9987867574836189</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032163865734045</v>
+        <v>1.041176601398064</v>
       </c>
       <c r="J25">
-        <v>0.9978125486186845</v>
+        <v>1.011343985501068</v>
       </c>
       <c r="K25">
-        <v>1.008792091646147</v>
+        <v>1.020356315402616</v>
       </c>
       <c r="L25">
-        <v>0.9952077883157552</v>
+        <v>1.01187556089121</v>
       </c>
       <c r="M25">
-        <v>0.9553550782919832</v>
+        <v>1.011403936720669</v>
       </c>
       <c r="N25">
-        <v>0.9996243815570515</v>
+        <v>1.012780209963255</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9976440209950249</v>
+        <v>1.018832659988579</v>
       </c>
       <c r="D2">
-        <v>1.016535578719572</v>
+        <v>1.037628065501642</v>
       </c>
       <c r="E2">
-        <v>1.009420212974399</v>
+        <v>1.022572586853748</v>
       </c>
       <c r="F2">
-        <v>1.010517486869029</v>
+        <v>1.043735075926358</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04490802545295</v>
+        <v>1.056679879788198</v>
       </c>
       <c r="J2">
-        <v>1.019895428064191</v>
+        <v>1.040464318542144</v>
       </c>
       <c r="K2">
-        <v>1.027769254782109</v>
+        <v>1.048586937439271</v>
       </c>
       <c r="L2">
-        <v>1.020749850949702</v>
+        <v>1.033726157683519</v>
       </c>
       <c r="M2">
-        <v>1.021832215500509</v>
+        <v>1.054616968212967</v>
       </c>
       <c r="N2">
-        <v>1.021343796555683</v>
+        <v>1.016948827822924</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005457780248404</v>
+        <v>1.023565743748126</v>
       </c>
       <c r="D3">
-        <v>1.022526647046691</v>
+        <v>1.041293235082957</v>
       </c>
       <c r="E3">
-        <v>1.016459694758753</v>
+        <v>1.026394202040412</v>
       </c>
       <c r="F3">
-        <v>1.01865527002211</v>
+        <v>1.048046724105202</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047453281007302</v>
+        <v>1.058497052931416</v>
       </c>
       <c r="J3">
-        <v>1.025800758411404</v>
+        <v>1.04343396672594</v>
       </c>
       <c r="K3">
-        <v>1.03287918554523</v>
+        <v>1.05142367753644</v>
       </c>
       <c r="L3">
-        <v>1.026886214860245</v>
+        <v>1.036700145223913</v>
       </c>
       <c r="M3">
-        <v>1.029054890351178</v>
+        <v>1.058099642847872</v>
       </c>
       <c r="N3">
-        <v>1.02725751314934</v>
+        <v>1.017970428738603</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010351565979702</v>
+        <v>1.026564346049254</v>
       </c>
       <c r="D4">
-        <v>1.026279309939533</v>
+        <v>1.043618091842632</v>
       </c>
       <c r="E4">
-        <v>1.020875034365668</v>
+        <v>1.028820896276107</v>
       </c>
       <c r="F4">
-        <v>1.023762429025662</v>
+        <v>1.050783608988271</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049030212520128</v>
+        <v>1.059638560608604</v>
       </c>
       <c r="J4">
-        <v>1.029494133706003</v>
+        <v>1.045312106329878</v>
       </c>
       <c r="K4">
-        <v>1.036070584388888</v>
+        <v>1.053217112830453</v>
       </c>
       <c r="L4">
-        <v>1.030727878919817</v>
+        <v>1.038583490307784</v>
       </c>
       <c r="M4">
-        <v>1.033582278174661</v>
+        <v>1.060305448330756</v>
       </c>
       <c r="N4">
-        <v>1.030956133460493</v>
+        <v>1.018616129113521</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012372376243149</v>
+        <v>1.027810190412091</v>
       </c>
       <c r="D5">
-        <v>1.027828886804975</v>
+        <v>1.044584639304204</v>
       </c>
       <c r="E5">
-        <v>1.022699759506938</v>
+        <v>1.029830413277351</v>
       </c>
       <c r="F5">
-        <v>1.025873820687874</v>
+        <v>1.051921938957468</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049677180588835</v>
+        <v>1.060110451814148</v>
       </c>
       <c r="J5">
-        <v>1.03101794867512</v>
+        <v>1.04609161099146</v>
       </c>
       <c r="K5">
-        <v>1.037386174168499</v>
+        <v>1.053961298770726</v>
       </c>
       <c r="L5">
-        <v>1.032313794205378</v>
+        <v>1.03936574457304</v>
       </c>
       <c r="M5">
-        <v>1.035452656130041</v>
+        <v>1.061221714720354</v>
       </c>
       <c r="N5">
-        <v>1.032482112421651</v>
+        <v>1.018884017232766</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012709599706985</v>
+        <v>1.028018522857704</v>
       </c>
       <c r="D6">
-        <v>1.028087467948636</v>
+        <v>1.044746302680866</v>
       </c>
       <c r="E6">
-        <v>1.023004346277204</v>
+        <v>1.029999300973235</v>
       </c>
       <c r="F6">
-        <v>1.026226304525695</v>
+        <v>1.052112363275041</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049784894275243</v>
+        <v>1.060189221534356</v>
       </c>
       <c r="J6">
-        <v>1.031272157194255</v>
+        <v>1.046221912306362</v>
       </c>
       <c r="K6">
-        <v>1.037605578862036</v>
+        <v>1.054085686437426</v>
       </c>
       <c r="L6">
-        <v>1.032578416879685</v>
+        <v>1.03949654011213</v>
       </c>
       <c r="M6">
-        <v>1.035764825811336</v>
+        <v>1.061374922055126</v>
       </c>
       <c r="N6">
-        <v>1.032736681946041</v>
+        <v>1.018928790879295</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01037870882199</v>
+        <v>1.026581050392348</v>
       </c>
       <c r="D7">
-        <v>1.026300123597445</v>
+        <v>1.043631048943714</v>
       </c>
       <c r="E7">
-        <v>1.020899537686228</v>
+        <v>1.028834426905918</v>
       </c>
       <c r="F7">
-        <v>1.02379077877558</v>
+        <v>1.050798866999321</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04903891911494</v>
+        <v>1.059644897189048</v>
       </c>
       <c r="J7">
-        <v>1.029514606330235</v>
+        <v>1.045322561233652</v>
       </c>
       <c r="K7">
-        <v>1.036088263967693</v>
+        <v>1.053227094685193</v>
       </c>
       <c r="L7">
-        <v>1.030749182214906</v>
+        <v>1.038593979763025</v>
       </c>
       <c r="M7">
-        <v>1.033607397090134</v>
+        <v>1.06031773448629</v>
       </c>
       <c r="N7">
-        <v>1.030976635158199</v>
+        <v>1.018619722512525</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000319765533789</v>
+        <v>1.020445828909836</v>
       </c>
       <c r="D8">
-        <v>1.01858698595866</v>
+        <v>1.038876636231794</v>
       </c>
       <c r="E8">
-        <v>1.011829394153027</v>
+        <v>1.023873910768636</v>
       </c>
       <c r="F8">
-        <v>1.013301963141774</v>
+        <v>1.045203472667518</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045783202547986</v>
+        <v>1.057301244538205</v>
       </c>
       <c r="J8">
-        <v>1.021918696137727</v>
+        <v>1.041477119797018</v>
       </c>
       <c r="K8">
-        <v>1.029520935759675</v>
+        <v>1.049554541440712</v>
       </c>
       <c r="L8">
-        <v>1.022851477901348</v>
+        <v>1.034739921048143</v>
       </c>
       <c r="M8">
-        <v>1.024304715810892</v>
+        <v>1.05580406317253</v>
       </c>
       <c r="N8">
-        <v>1.023369937901956</v>
+        <v>1.017297327088893</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9812360120835236</v>
+        <v>1.009117842265949</v>
       </c>
       <c r="D9">
-        <v>1.00396398720597</v>
+        <v>1.030123057945093</v>
       </c>
       <c r="E9">
-        <v>0.9946785575461394</v>
+        <v>1.014761240011703</v>
       </c>
       <c r="F9">
-        <v>0.9934896484052937</v>
+        <v>1.034916457697585</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039470270995023</v>
+        <v>1.05289810764608</v>
       </c>
       <c r="J9">
-        <v>1.007469230779417</v>
+        <v>1.034352684117527</v>
       </c>
       <c r="K9">
-        <v>1.0169930772103</v>
+        <v>1.042745609136317</v>
       </c>
       <c r="L9">
-        <v>1.007858565523406</v>
+        <v>1.027619281583361</v>
       </c>
       <c r="M9">
-        <v>1.006689242088579</v>
+        <v>1.047467347661674</v>
       </c>
       <c r="N9">
-        <v>1.00889995264546</v>
+        <v>1.014844386700357</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9674143687372776</v>
+        <v>1.001178510060913</v>
       </c>
       <c r="D10">
-        <v>0.9933909237453146</v>
+        <v>1.024008501037986</v>
       </c>
       <c r="E10">
-        <v>0.9823023186326126</v>
+        <v>1.008409209169194</v>
       </c>
       <c r="F10">
-        <v>0.9792027737861413</v>
+        <v>1.027739957857847</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03481108896474</v>
+        <v>1.049763343377432</v>
       </c>
       <c r="J10">
-        <v>0.9969832679432608</v>
+        <v>1.029345447874515</v>
       </c>
       <c r="K10">
-        <v>1.00788054129475</v>
+        <v>1.037957395227073</v>
       </c>
       <c r="L10">
-        <v>0.9969986351786004</v>
+        <v>1.022628274709304</v>
       </c>
       <c r="M10">
-        <v>0.9939579632010206</v>
+        <v>1.041625792805457</v>
       </c>
       <c r="N10">
-        <v>0.9983990985393194</v>
+        <v>1.013118835105386</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.961118877639803</v>
+        <v>0.9976391347875462</v>
       </c>
       <c r="D11">
-        <v>0.9885821473185284</v>
+        <v>1.02128833294693</v>
       </c>
       <c r="E11">
-        <v>0.9766777223113301</v>
+        <v>1.005586467987815</v>
       </c>
       <c r="F11">
-        <v>0.9727110250986086</v>
+        <v>1.024549338049548</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03266980607535</v>
+        <v>1.048354889604027</v>
       </c>
       <c r="J11">
-        <v>0.9922036418596731</v>
+        <v>1.027110459398688</v>
       </c>
       <c r="K11">
-        <v>1.003722648414455</v>
+        <v>1.035819647437908</v>
       </c>
       <c r="L11">
-        <v>0.9920532852212975</v>
+        <v>1.020403795126783</v>
       </c>
       <c r="M11">
-        <v>0.9881665972863553</v>
+        <v>1.039022678754497</v>
       </c>
       <c r="N11">
-        <v>0.9936126848384624</v>
+        <v>1.012348359401531</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9587287526510951</v>
+        <v>0.9963082944837244</v>
       </c>
       <c r="D12">
-        <v>0.9867577974196685</v>
+        <v>1.020266459271332</v>
       </c>
       <c r="E12">
-        <v>0.9745443623065807</v>
+        <v>1.004526513974953</v>
       </c>
       <c r="F12">
-        <v>0.9702488198343278</v>
+        <v>1.023351009851006</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031854132143933</v>
+        <v>1.047823703349755</v>
       </c>
       <c r="J12">
-        <v>0.9903886468328781</v>
+        <v>1.026269719877344</v>
       </c>
       <c r="K12">
-        <v>1.002143171892614</v>
+        <v>1.035015420163667</v>
       </c>
       <c r="L12">
-        <v>0.9901760601567799</v>
+        <v>1.019567503915963</v>
       </c>
       <c r="M12">
-        <v>0.9859690984674996</v>
+        <v>1.038044110371456</v>
       </c>
       <c r="N12">
-        <v>0.9917951123105463</v>
+        <v>1.01205849571485</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9592438712918561</v>
+        <v>0.99659451058065</v>
       </c>
       <c r="D13">
-        <v>0.9871509155204357</v>
+        <v>1.020486184105685</v>
       </c>
       <c r="E13">
-        <v>0.9750040473724876</v>
+        <v>1.00475440658171</v>
       </c>
       <c r="F13">
-        <v>0.9707793621687796</v>
+        <v>1.023608663943851</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032030045991532</v>
+        <v>1.04793801359143</v>
       </c>
       <c r="J13">
-        <v>0.9907798282907492</v>
+        <v>1.026450548327755</v>
       </c>
       <c r="K13">
-        <v>1.002483617410812</v>
+        <v>1.035188398303039</v>
       </c>
       <c r="L13">
-        <v>0.9905806224371689</v>
+        <v>1.019747353163326</v>
       </c>
       <c r="M13">
-        <v>0.9864426449693117</v>
+        <v>1.038254553938211</v>
       </c>
       <c r="N13">
-        <v>0.9921868492909566</v>
+        <v>1.012120841682385</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9609223956504908</v>
+        <v>0.9975294621617878</v>
       </c>
       <c r="D14">
-        <v>0.9884321465649303</v>
+        <v>1.021204102318984</v>
       </c>
       <c r="E14">
-        <v>0.9765023051788394</v>
+        <v>1.005499089332995</v>
       </c>
       <c r="F14">
-        <v>0.9725085679741842</v>
+        <v>1.024450557148925</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032602807205163</v>
+        <v>1.048311147376987</v>
       </c>
       <c r="J14">
-        <v>0.9920544456257042</v>
+        <v>1.027041182313214</v>
       </c>
       <c r="K14">
-        <v>1.003592823516124</v>
+        <v>1.035753380261848</v>
       </c>
       <c r="L14">
-        <v>0.9918989594084505</v>
+        <v>1.020334874492924</v>
       </c>
       <c r="M14">
-        <v>0.9879859246562974</v>
+        <v>1.038942031300848</v>
       </c>
       <c r="N14">
-        <v>0.9934632767287279</v>
+        <v>1.012324475193001</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9619495757193353</v>
+        <v>0.9981033475798888</v>
       </c>
       <c r="D15">
-        <v>0.9892163851681868</v>
+        <v>1.021644895694138</v>
       </c>
       <c r="E15">
-        <v>0.9774194456514528</v>
+        <v>1.005956375284099</v>
       </c>
       <c r="F15">
-        <v>0.9735670843441091</v>
+        <v>1.024967505829471</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032952958295381</v>
+        <v>1.04853997329972</v>
       </c>
       <c r="J15">
-        <v>0.9928344079954404</v>
+        <v>1.027403675022165</v>
       </c>
       <c r="K15">
-        <v>1.004271494214592</v>
+        <v>1.036100120944347</v>
       </c>
       <c r="L15">
-        <v>0.9927057663945583</v>
+        <v>1.020695522271439</v>
       </c>
       <c r="M15">
-        <v>0.9889305062959846</v>
+        <v>1.039364046034526</v>
       </c>
       <c r="N15">
-        <v>0.9942443467344921</v>
+        <v>1.012449448164975</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.967825222747109</v>
+        <v>1.001411191361934</v>
       </c>
       <c r="D16">
-        <v>0.9937049200700031</v>
+        <v>1.024187452534023</v>
       </c>
       <c r="E16">
-        <v>0.982669661600443</v>
+        <v>1.008594971930256</v>
       </c>
       <c r="F16">
-        <v>0.9796267652120823</v>
+        <v>1.027949898501592</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034950450269981</v>
+        <v>1.049855712345062</v>
       </c>
       <c r="J16">
-        <v>0.9972951340652874</v>
+        <v>1.029492324793905</v>
       </c>
       <c r="K16">
-        <v>1.008151756966229</v>
+        <v>1.03809787187552</v>
       </c>
       <c r="L16">
-        <v>0.9973214114846725</v>
+        <v>1.022774529356783</v>
       </c>
       <c r="M16">
-        <v>0.9943360803033165</v>
+        <v>1.04179695143657</v>
       </c>
       <c r="N16">
-        <v>0.9987114075470106</v>
+        <v>1.013169463552764</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.971424374921363</v>
+        <v>1.00345830348963</v>
       </c>
       <c r="D17">
-        <v>0.9964564041371625</v>
+        <v>1.025762513416158</v>
       </c>
       <c r="E17">
-        <v>0.9858890776887635</v>
+        <v>1.010230331666516</v>
       </c>
       <c r="F17">
-        <v>0.9833427710240201</v>
+        <v>1.029797936142433</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036169146361929</v>
+        <v>1.050667126067318</v>
       </c>
       <c r="J17">
-        <v>1.00002676000894</v>
+        <v>1.030784229833978</v>
       </c>
       <c r="K17">
-        <v>1.010526852018063</v>
+        <v>1.039333423348459</v>
       </c>
       <c r="L17">
-        <v>1.000149130407652</v>
+        <v>1.024061332695992</v>
       </c>
       <c r="M17">
-        <v>0.9976493044059127</v>
+        <v>1.04330292109754</v>
       </c>
       <c r="N17">
-        <v>1.001446912712826</v>
+        <v>1.013614752989536</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9734941053989462</v>
+        <v>1.004642611105681</v>
       </c>
       <c r="D18">
-        <v>0.998039314472966</v>
+        <v>1.026674263929348</v>
       </c>
       <c r="E18">
-        <v>0.98774159841761</v>
+        <v>1.011177279365197</v>
       </c>
       <c r="F18">
-        <v>0.9854811579864556</v>
+        <v>1.030867892329367</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036868171064308</v>
+        <v>1.051135506378847</v>
       </c>
       <c r="J18">
-        <v>1.001597275245785</v>
+        <v>1.031531366302137</v>
       </c>
       <c r="K18">
-        <v>1.011891977946557</v>
+        <v>1.040047919270922</v>
       </c>
       <c r="L18">
-        <v>1.001775336735437</v>
+        <v>1.02480582777294</v>
       </c>
       <c r="M18">
-        <v>0.9995553018138998</v>
+        <v>1.044174260177202</v>
       </c>
       <c r="N18">
-        <v>1.003019658261447</v>
+        <v>1.013872247031501</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9741949511019886</v>
+        <v>1.005044803746144</v>
       </c>
       <c r="D19">
-        <v>0.998575415725706</v>
+        <v>1.026983984586101</v>
       </c>
       <c r="E19">
-        <v>0.988369085575642</v>
+        <v>1.011499006279746</v>
       </c>
       <c r="F19">
-        <v>0.9862054971787418</v>
+        <v>1.031231387788438</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037104563260592</v>
+        <v>1.051294390435833</v>
       </c>
       <c r="J19">
-        <v>1.002129017454901</v>
+        <v>1.031785048660234</v>
       </c>
       <c r="K19">
-        <v>1.012354109005758</v>
+        <v>1.040290510056394</v>
       </c>
       <c r="L19">
-        <v>1.002326010273002</v>
+        <v>1.025058665563617</v>
       </c>
       <c r="M19">
-        <v>1.00020081934503</v>
+        <v>1.044470182626685</v>
       </c>
       <c r="N19">
-        <v>1.003552155605492</v>
+        <v>1.013959671705069</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9710413149711051</v>
+        <v>1.003239681267324</v>
       </c>
       <c r="D20">
-        <v>0.9961634935919814</v>
+        <v>1.025594247870296</v>
       </c>
       <c r="E20">
-        <v>0.9855463113501217</v>
+        <v>1.010055594075548</v>
       </c>
       <c r="F20">
-        <v>0.9829471220522276</v>
+        <v>1.029600488754607</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036039625926581</v>
+        <v>1.050580578701432</v>
       </c>
       <c r="J20">
-        <v>0.9997360653010435</v>
+        <v>1.030646287334861</v>
       </c>
       <c r="K20">
-        <v>1.010274140471376</v>
+        <v>1.0392015030903</v>
       </c>
       <c r="L20">
-        <v>0.9998481635902216</v>
+        <v>1.023923902826661</v>
       </c>
       <c r="M20">
-        <v>0.9972966031845094</v>
+        <v>1.043142079937076</v>
       </c>
       <c r="N20">
-        <v>1.0011558051851</v>
+        <v>1.013567210119601</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9604295834825732</v>
+        <v>0.9972545958137936</v>
       </c>
       <c r="D21">
-        <v>0.9880559401243897</v>
+        <v>1.020993015179228</v>
       </c>
       <c r="E21">
-        <v>0.976062361105049</v>
+        <v>1.005280120309735</v>
       </c>
       <c r="F21">
-        <v>0.9720008084274354</v>
+        <v>1.024203010545661</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032434718801907</v>
+        <v>1.048201493208904</v>
       </c>
       <c r="J21">
-        <v>0.9916802290803132</v>
+        <v>1.026867551396336</v>
       </c>
       <c r="K21">
-        <v>1.003267185481951</v>
+        <v>1.035587292118212</v>
       </c>
       <c r="L21">
-        <v>0.991511887996873</v>
+        <v>1.020162144951081</v>
       </c>
       <c r="M21">
-        <v>0.9875327853841427</v>
+        <v>1.038739913030404</v>
       </c>
       <c r="N21">
-        <v>0.9930885287529192</v>
+        <v>1.012264613101155</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.953455362817521</v>
+        <v>0.9933975520823195</v>
       </c>
       <c r="D22">
-        <v>0.9827354919256774</v>
+        <v>1.01803328406883</v>
       </c>
       <c r="E22">
-        <v>0.9698414873626784</v>
+        <v>1.002210941788365</v>
       </c>
       <c r="F22">
-        <v>0.964820985409917</v>
+        <v>1.020732706117387</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030049645713614</v>
+        <v>1.046659052396106</v>
       </c>
       <c r="J22">
-        <v>0.9863836574913102</v>
+        <v>1.024430293574315</v>
       </c>
       <c r="K22">
-        <v>0.998656899852989</v>
+        <v>1.03325576752955</v>
       </c>
       <c r="L22">
-        <v>0.9860350373842861</v>
+        <v>1.017738726362116</v>
       </c>
       <c r="M22">
-        <v>0.9811231122629268</v>
+        <v>1.035904336879727</v>
       </c>
       <c r="N22">
-        <v>0.9877844354247348</v>
+        <v>1.011424262282198</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9571830650643637</v>
+        <v>0.9954514693438221</v>
       </c>
       <c r="D23">
-        <v>0.9855784087205915</v>
+        <v>1.019608827834431</v>
       </c>
       <c r="E23">
-        <v>0.9731653269468103</v>
+        <v>1.00384450226052</v>
       </c>
       <c r="F23">
-        <v>0.968657214244632</v>
+        <v>1.022579896306754</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031325890909616</v>
+        <v>1.047481271538721</v>
       </c>
       <c r="J23">
-        <v>0.9892148072628538</v>
+        <v>1.025728337483292</v>
       </c>
       <c r="K23">
-        <v>1.001121499744178</v>
+        <v>1.034497531902717</v>
       </c>
       <c r="L23">
-        <v>0.9889621700283051</v>
+        <v>1.019029126108126</v>
       </c>
       <c r="M23">
-        <v>0.9845483437259533</v>
+        <v>1.037414159088006</v>
       </c>
       <c r="N23">
-        <v>0.9906196057536913</v>
+        <v>1.011871833991618</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9712144943569722</v>
+        <v>1.003338497267664</v>
       </c>
       <c r="D24">
-        <v>0.9962959149358958</v>
+        <v>1.025670301280631</v>
       </c>
       <c r="E24">
-        <v>0.9857012706080017</v>
+        <v>1.010134571843176</v>
       </c>
       <c r="F24">
-        <v>0.9831259883398847</v>
+        <v>1.029689731318046</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036098187037887</v>
+        <v>1.050619700858628</v>
       </c>
       <c r="J24">
-        <v>0.9998674878995537</v>
+        <v>1.030708637382609</v>
       </c>
       <c r="K24">
-        <v>1.010388392213164</v>
+        <v>1.03926113123959</v>
       </c>
       <c r="L24">
-        <v>0.9999842288126134</v>
+        <v>1.023986020207509</v>
       </c>
       <c r="M24">
-        <v>0.997456055402716</v>
+        <v>1.043214778932304</v>
       </c>
       <c r="N24">
-        <v>1.001287414418775</v>
+        <v>1.013588699592528</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9863482875026393</v>
+        <v>1.012111588035694</v>
       </c>
       <c r="D25">
-        <v>1.007879093186157</v>
+        <v>1.032433186310708</v>
       </c>
       <c r="E25">
-        <v>0.9992658372915595</v>
+        <v>1.017163799943579</v>
       </c>
       <c r="F25">
-        <v>0.9987867574836189</v>
+        <v>1.037629617777398</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041176601398064</v>
+        <v>1.05407035344826</v>
       </c>
       <c r="J25">
-        <v>1.011343985501068</v>
+        <v>1.036238112486</v>
       </c>
       <c r="K25">
-        <v>1.020356315402616</v>
+        <v>1.044548049369866</v>
       </c>
       <c r="L25">
-        <v>1.01187556089121</v>
+        <v>1.029501387339613</v>
       </c>
       <c r="M25">
-        <v>1.011403936720669</v>
+        <v>1.049670574036043</v>
       </c>
       <c r="N25">
-        <v>1.012780209963255</v>
+        <v>1.015493838914933</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018832659988579</v>
+        <v>1.043199492457846</v>
       </c>
       <c r="D2">
-        <v>1.037628065501642</v>
+        <v>1.050618818628143</v>
       </c>
       <c r="E2">
-        <v>1.022572586853748</v>
+        <v>1.041229974745044</v>
       </c>
       <c r="F2">
-        <v>1.043735075926358</v>
+        <v>1.061449140846215</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056679879788198</v>
+        <v>1.046747877627948</v>
       </c>
       <c r="J2">
-        <v>1.040464318542144</v>
+        <v>1.04827122187715</v>
       </c>
       <c r="K2">
-        <v>1.048586937439271</v>
+        <v>1.053372594034342</v>
       </c>
       <c r="L2">
-        <v>1.033726157683519</v>
+        <v>1.044010079067248</v>
       </c>
       <c r="M2">
-        <v>1.054616968212967</v>
+        <v>1.064173171589564</v>
       </c>
       <c r="N2">
-        <v>1.016948827822924</v>
+        <v>1.019930378013375</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023565743748126</v>
+        <v>1.044185484263137</v>
       </c>
       <c r="D3">
-        <v>1.041293235082957</v>
+        <v>1.051401537821809</v>
       </c>
       <c r="E3">
-        <v>1.026394202040412</v>
+        <v>1.042070524742142</v>
       </c>
       <c r="F3">
-        <v>1.048046724105202</v>
+        <v>1.062396398459625</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058497052931416</v>
+        <v>1.047061685466904</v>
       </c>
       <c r="J3">
-        <v>1.04343396672594</v>
+        <v>1.048903782298392</v>
       </c>
       <c r="K3">
-        <v>1.05142367753644</v>
+        <v>1.053967872454583</v>
       </c>
       <c r="L3">
-        <v>1.036700145223913</v>
+        <v>1.044661135540633</v>
       </c>
       <c r="M3">
-        <v>1.058099642847872</v>
+        <v>1.064934718076539</v>
       </c>
       <c r="N3">
-        <v>1.017970428738603</v>
+        <v>1.020145025167254</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026564346049254</v>
+        <v>1.044823801540289</v>
       </c>
       <c r="D4">
-        <v>1.043618091842632</v>
+        <v>1.051908272515548</v>
       </c>
       <c r="E4">
-        <v>1.028820896276107</v>
+        <v>1.04261502520368</v>
       </c>
       <c r="F4">
-        <v>1.050783608988271</v>
+        <v>1.063009967449704</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059638560608604</v>
+        <v>1.047263625999611</v>
       </c>
       <c r="J4">
-        <v>1.045312106329878</v>
+        <v>1.049312792743105</v>
       </c>
       <c r="K4">
-        <v>1.053217112830453</v>
+        <v>1.054352661503881</v>
       </c>
       <c r="L4">
-        <v>1.038583490307784</v>
+        <v>1.045082375485458</v>
       </c>
       <c r="M4">
-        <v>1.060305448330756</v>
+        <v>1.065427492437808</v>
       </c>
       <c r="N4">
-        <v>1.018616129113521</v>
+        <v>1.020283708083621</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.027810190412091</v>
+        <v>1.045092224823668</v>
       </c>
       <c r="D5">
-        <v>1.044584639304204</v>
+        <v>1.052121365672381</v>
       </c>
       <c r="E5">
-        <v>1.029830413277351</v>
+        <v>1.042844077772312</v>
       </c>
       <c r="F5">
-        <v>1.051921938957468</v>
+        <v>1.063268061571674</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060110451814148</v>
+        <v>1.047348254605782</v>
       </c>
       <c r="J5">
-        <v>1.04609161099146</v>
+        <v>1.049484668549876</v>
       </c>
       <c r="K5">
-        <v>1.053961298770726</v>
+        <v>1.054514331265698</v>
       </c>
       <c r="L5">
-        <v>1.03936574457304</v>
+        <v>1.045259455053195</v>
       </c>
       <c r="M5">
-        <v>1.061221714720354</v>
+        <v>1.065634654530064</v>
       </c>
       <c r="N5">
-        <v>1.018884017232766</v>
+        <v>1.020341960213627</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028018522857704</v>
+        <v>1.045137298636393</v>
       </c>
       <c r="D6">
-        <v>1.044746302680866</v>
+        <v>1.052157148549043</v>
       </c>
       <c r="E6">
-        <v>1.029999300973235</v>
+        <v>1.042882545153035</v>
       </c>
       <c r="F6">
-        <v>1.052112363275041</v>
+        <v>1.063311405458109</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060189221534356</v>
+        <v>1.047362448439142</v>
       </c>
       <c r="J6">
-        <v>1.046221912306362</v>
+        <v>1.049513522999868</v>
       </c>
       <c r="K6">
-        <v>1.054085686437426</v>
+        <v>1.054541470704182</v>
       </c>
       <c r="L6">
-        <v>1.03949654011213</v>
+        <v>1.045289186898994</v>
       </c>
       <c r="M6">
-        <v>1.061374922055126</v>
+        <v>1.065669437915183</v>
       </c>
       <c r="N6">
-        <v>1.018928790879295</v>
+        <v>1.020351738050892</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026581050392348</v>
+        <v>1.044827387932589</v>
       </c>
       <c r="D7">
-        <v>1.043631048943714</v>
+        <v>1.051911119634898</v>
       </c>
       <c r="E7">
-        <v>1.028834426905918</v>
+        <v>1.042618085248583</v>
       </c>
       <c r="F7">
-        <v>1.050798866999321</v>
+        <v>1.063013415529072</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059644897189048</v>
+        <v>1.04726475786166</v>
       </c>
       <c r="J7">
-        <v>1.045322561233652</v>
+        <v>1.049315089640598</v>
       </c>
       <c r="K7">
-        <v>1.053227094685193</v>
+        <v>1.054354822119583</v>
       </c>
       <c r="L7">
-        <v>1.038593979763025</v>
+        <v>1.045084741670463</v>
       </c>
       <c r="M7">
-        <v>1.06031773448629</v>
+        <v>1.065430260549968</v>
       </c>
       <c r="N7">
-        <v>1.018619722512525</v>
+        <v>1.020284486648981</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020445828909836</v>
+        <v>1.043532647476632</v>
       </c>
       <c r="D8">
-        <v>1.038876636231794</v>
+        <v>1.050883287131607</v>
       </c>
       <c r="E8">
-        <v>1.023873910768636</v>
+        <v>1.041513915928137</v>
       </c>
       <c r="F8">
-        <v>1.045203472667518</v>
+        <v>1.061769139890949</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057301244538205</v>
+        <v>1.046854160859418</v>
       </c>
       <c r="J8">
-        <v>1.041477119797018</v>
+        <v>1.048485059985659</v>
       </c>
       <c r="K8">
-        <v>1.049554541440712</v>
+        <v>1.053573852668644</v>
       </c>
       <c r="L8">
-        <v>1.034739921048143</v>
+        <v>1.044230113847177</v>
       </c>
       <c r="M8">
-        <v>1.05580406317253</v>
+        <v>1.064430538635959</v>
       </c>
       <c r="N8">
-        <v>1.017297327088893</v>
+        <v>1.020002961918797</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009117842265949</v>
+        <v>1.041253586772192</v>
       </c>
       <c r="D9">
-        <v>1.030123057945093</v>
+        <v>1.04907417705904</v>
       </c>
       <c r="E9">
-        <v>1.014761240011703</v>
+        <v>1.039572935754195</v>
       </c>
       <c r="F9">
-        <v>1.034916457697585</v>
+        <v>1.059581440482979</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05289810764608</v>
+        <v>1.046122124377978</v>
       </c>
       <c r="J9">
-        <v>1.034352684117527</v>
+        <v>1.047020188336284</v>
       </c>
       <c r="K9">
-        <v>1.042745609136317</v>
+        <v>1.052194686854385</v>
       </c>
       <c r="L9">
-        <v>1.027619281583361</v>
+        <v>1.042723902039405</v>
       </c>
       <c r="M9">
-        <v>1.047467347661674</v>
+        <v>1.062668963965138</v>
       </c>
       <c r="N9">
-        <v>1.014844386700357</v>
+        <v>1.019505300108366</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001178510060913</v>
+        <v>1.039735887035672</v>
       </c>
       <c r="D10">
-        <v>1.024008501037986</v>
+        <v>1.047869553211842</v>
       </c>
       <c r="E10">
-        <v>1.008409209169194</v>
+        <v>1.038282176921222</v>
       </c>
       <c r="F10">
-        <v>1.027739957857847</v>
+        <v>1.058126314665449</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049763343377432</v>
+        <v>1.045628404246068</v>
       </c>
       <c r="J10">
-        <v>1.029345447874515</v>
+        <v>1.046042134769491</v>
       </c>
       <c r="K10">
-        <v>1.037957395227073</v>
+        <v>1.05127327249651</v>
       </c>
       <c r="L10">
-        <v>1.022628274709304</v>
+        <v>1.04171964131404</v>
       </c>
       <c r="M10">
-        <v>1.041625792805457</v>
+        <v>1.061494677581136</v>
       </c>
       <c r="N10">
-        <v>1.013118835105386</v>
+        <v>1.019172483473592</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9976391347875462</v>
+        <v>1.03907911018075</v>
       </c>
       <c r="D11">
-        <v>1.02128833294693</v>
+        <v>1.047348294556163</v>
       </c>
       <c r="E11">
-        <v>1.005586467987815</v>
+        <v>1.03772404267801</v>
       </c>
       <c r="F11">
-        <v>1.024549338049548</v>
+        <v>1.057497034501139</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048354889604027</v>
+        <v>1.045413272499515</v>
       </c>
       <c r="J11">
-        <v>1.027110459398688</v>
+        <v>1.045618286131188</v>
       </c>
       <c r="K11">
-        <v>1.035819647437908</v>
+        <v>1.050873831709008</v>
       </c>
       <c r="L11">
-        <v>1.020403795126783</v>
+        <v>1.041284766665065</v>
       </c>
       <c r="M11">
-        <v>1.039022678754497</v>
+        <v>1.060986232626342</v>
       </c>
       <c r="N11">
-        <v>1.012348359401531</v>
+        <v>1.01902812706803</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9963082944837244</v>
+        <v>1.038835214151574</v>
       </c>
       <c r="D12">
-        <v>1.020266459271332</v>
+        <v>1.047154729681907</v>
       </c>
       <c r="E12">
-        <v>1.004526513974953</v>
+        <v>1.037516843886489</v>
       </c>
       <c r="F12">
-        <v>1.023351009851006</v>
+        <v>1.057263412862123</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047823703349755</v>
+        <v>1.045333160914218</v>
       </c>
       <c r="J12">
-        <v>1.026269719877344</v>
+        <v>1.045460798685907</v>
       </c>
       <c r="K12">
-        <v>1.035015420163667</v>
+        <v>1.050725392852323</v>
       </c>
       <c r="L12">
-        <v>1.019567503915963</v>
+        <v>1.041123232119205</v>
       </c>
       <c r="M12">
-        <v>1.038044110371456</v>
+        <v>1.060797378699843</v>
       </c>
       <c r="N12">
-        <v>1.01205849571485</v>
+        <v>1.018974470230751</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.99659451058065</v>
+        <v>1.038887527948783</v>
       </c>
       <c r="D13">
-        <v>1.020486184105685</v>
+        <v>1.047196247553862</v>
       </c>
       <c r="E13">
-        <v>1.00475440658171</v>
+        <v>1.037561283414666</v>
       </c>
       <c r="F13">
-        <v>1.023608663943851</v>
+        <v>1.057313520003608</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04793801359143</v>
+        <v>1.045350354259176</v>
       </c>
       <c r="J13">
-        <v>1.026450548327755</v>
+        <v>1.045494582583617</v>
       </c>
       <c r="K13">
-        <v>1.035188398303039</v>
+        <v>1.050757236591537</v>
       </c>
       <c r="L13">
-        <v>1.019747353163326</v>
+        <v>1.041157881939718</v>
       </c>
       <c r="M13">
-        <v>1.038254553938211</v>
+        <v>1.060837888260752</v>
       </c>
       <c r="N13">
-        <v>1.012120841682385</v>
+        <v>1.018985981448554</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9975294621617878</v>
+        <v>1.039058948429359</v>
       </c>
       <c r="D14">
-        <v>1.021204102318984</v>
+        <v>1.04733229331998</v>
       </c>
       <c r="E14">
-        <v>1.005499089332995</v>
+        <v>1.037706913166291</v>
       </c>
       <c r="F14">
-        <v>1.024450557148925</v>
+        <v>1.057477720788733</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048311147376987</v>
+        <v>1.045406654570866</v>
       </c>
       <c r="J14">
-        <v>1.027041182313214</v>
+        <v>1.045605269210357</v>
       </c>
       <c r="K14">
-        <v>1.035753380261848</v>
+        <v>1.050861563105554</v>
       </c>
       <c r="L14">
-        <v>1.020334874492924</v>
+        <v>1.041271414220713</v>
       </c>
       <c r="M14">
-        <v>1.038942031300848</v>
+        <v>1.06097062179156</v>
       </c>
       <c r="N14">
-        <v>1.012324475193001</v>
+        <v>1.019023692518717</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9981033475798888</v>
+        <v>1.039164574228049</v>
       </c>
       <c r="D15">
-        <v>1.021644895694138</v>
+        <v>1.04741612276552</v>
       </c>
       <c r="E15">
-        <v>1.005956375284099</v>
+        <v>1.037796656011928</v>
       </c>
       <c r="F15">
-        <v>1.024967505829471</v>
+        <v>1.057578906379847</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04853997329972</v>
+        <v>1.045441316285937</v>
       </c>
       <c r="J15">
-        <v>1.027403675022165</v>
+        <v>1.045673460130383</v>
       </c>
       <c r="K15">
-        <v>1.036100120944347</v>
+        <v>1.050925833022965</v>
       </c>
       <c r="L15">
-        <v>1.020695522271439</v>
+        <v>1.041341364865253</v>
       </c>
       <c r="M15">
-        <v>1.039364046034526</v>
+        <v>1.061052404010699</v>
       </c>
       <c r="N15">
-        <v>1.012449448164975</v>
+        <v>1.019046922734145</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.001411191361934</v>
+        <v>1.039779483559987</v>
       </c>
       <c r="D16">
-        <v>1.024187452534023</v>
+        <v>1.047904154921677</v>
       </c>
       <c r="E16">
-        <v>1.008594971930256</v>
+        <v>1.038319234821625</v>
       </c>
       <c r="F16">
-        <v>1.027949898501592</v>
+        <v>1.058168094835426</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049855712345062</v>
+        <v>1.045642653471462</v>
       </c>
       <c r="J16">
-        <v>1.029492324793905</v>
+        <v>1.046070256993885</v>
       </c>
       <c r="K16">
-        <v>1.03809787187552</v>
+        <v>1.051299772385048</v>
       </c>
       <c r="L16">
-        <v>1.022774529356783</v>
+        <v>1.041748502087801</v>
       </c>
       <c r="M16">
-        <v>1.04179695143657</v>
+        <v>1.061528422076803</v>
       </c>
       <c r="N16">
-        <v>1.013169463552764</v>
+        <v>1.019182058805557</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.00345830348963</v>
+        <v>1.040165306596543</v>
       </c>
       <c r="D17">
-        <v>1.025762513416158</v>
+        <v>1.048210379392349</v>
       </c>
       <c r="E17">
-        <v>1.010230331666516</v>
+        <v>1.038647242325916</v>
       </c>
       <c r="F17">
-        <v>1.029797936142433</v>
+        <v>1.058537891788807</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050667126067318</v>
+        <v>1.045768586437901</v>
       </c>
       <c r="J17">
-        <v>1.030784229833978</v>
+        <v>1.046319065271956</v>
       </c>
       <c r="K17">
-        <v>1.039333423348459</v>
+        <v>1.051534211386496</v>
       </c>
       <c r="L17">
-        <v>1.024061332695992</v>
+        <v>1.042003882838473</v>
       </c>
       <c r="M17">
-        <v>1.04330292109754</v>
+        <v>1.061827023937191</v>
       </c>
       <c r="N17">
-        <v>1.013614752989536</v>
+        <v>1.019266760822558</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.004642611105681</v>
+        <v>1.040390388933166</v>
       </c>
       <c r="D18">
-        <v>1.026674263929348</v>
+        <v>1.048389028784815</v>
       </c>
       <c r="E18">
-        <v>1.011177279365197</v>
+        <v>1.038838638055003</v>
       </c>
       <c r="F18">
-        <v>1.030867892329367</v>
+        <v>1.058753665111706</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051135506378847</v>
+        <v>1.045841910949128</v>
       </c>
       <c r="J18">
-        <v>1.031531366302137</v>
+        <v>1.04646415760141</v>
       </c>
       <c r="K18">
-        <v>1.040047919270922</v>
+        <v>1.051670911038941</v>
       </c>
       <c r="L18">
-        <v>1.02480582777294</v>
+        <v>1.042152839828699</v>
       </c>
       <c r="M18">
-        <v>1.044174260177202</v>
+        <v>1.062001196072524</v>
       </c>
       <c r="N18">
-        <v>1.013872247031501</v>
+        <v>1.019316142454347</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.005044803746144</v>
+        <v>1.040467142673189</v>
       </c>
       <c r="D19">
-        <v>1.026983984586101</v>
+        <v>1.048449949320217</v>
       </c>
       <c r="E19">
-        <v>1.011499006279746</v>
+        <v>1.03890391165864</v>
       </c>
       <c r="F19">
-        <v>1.031231387788438</v>
+        <v>1.058827251271526</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051294390435833</v>
+        <v>1.045866890640553</v>
       </c>
       <c r="J19">
-        <v>1.031785048660234</v>
+        <v>1.046513624663455</v>
       </c>
       <c r="K19">
-        <v>1.040290510056394</v>
+        <v>1.051717514493264</v>
       </c>
       <c r="L19">
-        <v>1.025058665563617</v>
+        <v>1.042203629903705</v>
       </c>
       <c r="M19">
-        <v>1.044470182626685</v>
+        <v>1.062060584705803</v>
       </c>
       <c r="N19">
-        <v>1.013959671705069</v>
+        <v>1.01933297629862</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003239681267324</v>
+        <v>1.04012390747244</v>
       </c>
       <c r="D20">
-        <v>1.025594247870296</v>
+        <v>1.048177520897255</v>
       </c>
       <c r="E20">
-        <v>1.010055594075548</v>
+        <v>1.038612042511622</v>
       </c>
       <c r="F20">
-        <v>1.029600488754607</v>
+        <v>1.05849820810196</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050580578701432</v>
+        <v>1.045755088471987</v>
       </c>
       <c r="J20">
-        <v>1.030646287334861</v>
+        <v>1.046292373941184</v>
       </c>
       <c r="K20">
-        <v>1.0392015030903</v>
+        <v>1.051509062913757</v>
       </c>
       <c r="L20">
-        <v>1.023923902826661</v>
+        <v>1.041976483131401</v>
       </c>
       <c r="M20">
-        <v>1.043142079937076</v>
+        <v>1.061794986495832</v>
       </c>
       <c r="N20">
-        <v>1.013567210119601</v>
+        <v>1.019257675538807</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9972545958137936</v>
+        <v>1.039008467706469</v>
       </c>
       <c r="D21">
-        <v>1.020993015179228</v>
+        <v>1.047292229739525</v>
       </c>
       <c r="E21">
-        <v>1.005280120309735</v>
+        <v>1.037664025593073</v>
       </c>
       <c r="F21">
-        <v>1.024203010545661</v>
+        <v>1.057429364400939</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048201493208904</v>
+        <v>1.045390081107408</v>
       </c>
       <c r="J21">
-        <v>1.026867551396336</v>
+        <v>1.045572676165481</v>
       </c>
       <c r="K21">
-        <v>1.035587292118212</v>
+        <v>1.050830843440088</v>
       </c>
       <c r="L21">
-        <v>1.020162144951081</v>
+        <v>1.041237981863352</v>
       </c>
       <c r="M21">
-        <v>1.038739913030404</v>
+        <v>1.060931534925596</v>
       </c>
       <c r="N21">
-        <v>1.012264613101155</v>
+        <v>1.019012588551942</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9933975520823195</v>
+        <v>1.038307494629374</v>
       </c>
       <c r="D22">
-        <v>1.01803328406883</v>
+        <v>1.046735923815626</v>
       </c>
       <c r="E22">
-        <v>1.002210941788365</v>
+        <v>1.037068647832822</v>
       </c>
       <c r="F22">
-        <v>1.020732706117387</v>
+        <v>1.056758040700437</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046659052396106</v>
+        <v>1.045159417539729</v>
       </c>
       <c r="J22">
-        <v>1.024430293574315</v>
+        <v>1.045119877763774</v>
       </c>
       <c r="K22">
-        <v>1.03325576752955</v>
+        <v>1.050404022439693</v>
       </c>
       <c r="L22">
-        <v>1.017738726362116</v>
+        <v>1.040773641326941</v>
       </c>
       <c r="M22">
-        <v>1.035904336879727</v>
+        <v>1.060388678972939</v>
       </c>
       <c r="N22">
-        <v>1.011424262282198</v>
+        <v>1.018858281953704</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9954514693438221</v>
+        <v>1.038679060558741</v>
       </c>
       <c r="D23">
-        <v>1.019608827834431</v>
+        <v>1.047030802224983</v>
       </c>
       <c r="E23">
-        <v>1.00384450226052</v>
+        <v>1.037384204236171</v>
       </c>
       <c r="F23">
-        <v>1.022579896306754</v>
+        <v>1.057113855336406</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047481271538721</v>
+        <v>1.045281807331149</v>
       </c>
       <c r="J23">
-        <v>1.025728337483292</v>
+        <v>1.045359942591658</v>
       </c>
       <c r="K23">
-        <v>1.034497531902717</v>
+        <v>1.050630325774909</v>
       </c>
       <c r="L23">
-        <v>1.019029126108126</v>
+        <v>1.041019798251828</v>
       </c>
       <c r="M23">
-        <v>1.037414159088006</v>
+        <v>1.060676454029121</v>
       </c>
       <c r="N23">
-        <v>1.011871833991618</v>
+        <v>1.018940102668113</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003338497267664</v>
+        <v>1.040142613836283</v>
       </c>
       <c r="D24">
-        <v>1.025670301280631</v>
+        <v>1.048192368132328</v>
       </c>
       <c r="E24">
-        <v>1.010134571843176</v>
+        <v>1.038627947562422</v>
       </c>
       <c r="F24">
-        <v>1.029689731318046</v>
+        <v>1.058516139213978</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050619700858628</v>
+        <v>1.045761188023635</v>
       </c>
       <c r="J24">
-        <v>1.030708637382609</v>
+        <v>1.046304434707652</v>
       </c>
       <c r="K24">
-        <v>1.03926113123959</v>
+        <v>1.051520426564081</v>
       </c>
       <c r="L24">
-        <v>1.023986020207509</v>
+        <v>1.041988863886709</v>
       </c>
       <c r="M24">
-        <v>1.043214778932304</v>
+        <v>1.061809462828182</v>
       </c>
       <c r="N24">
-        <v>1.013588699592528</v>
+        <v>1.019261780860471</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.012111588035694</v>
+        <v>1.04184248612804</v>
       </c>
       <c r="D25">
-        <v>1.032433186310708</v>
+        <v>1.04954162450547</v>
       </c>
       <c r="E25">
-        <v>1.017163799943579</v>
+        <v>1.040074161325043</v>
       </c>
       <c r="F25">
-        <v>1.037629617777398</v>
+        <v>1.06014642912941</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05407035344826</v>
+        <v>1.04631237928422</v>
       </c>
       <c r="J25">
-        <v>1.036238112486</v>
+        <v>1.047399155424853</v>
       </c>
       <c r="K25">
-        <v>1.044548049369866</v>
+        <v>1.052551584894354</v>
       </c>
       <c r="L25">
-        <v>1.029501387339613</v>
+        <v>1.043113318442328</v>
       </c>
       <c r="M25">
-        <v>1.049670574036043</v>
+        <v>1.063124360175963</v>
       </c>
       <c r="N25">
-        <v>1.015493838914933</v>
+        <v>1.019634142735887</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043199492457846</v>
+        <v>1.018832659988578</v>
       </c>
       <c r="D2">
-        <v>1.050618818628143</v>
+        <v>1.037628065501641</v>
       </c>
       <c r="E2">
-        <v>1.041229974745044</v>
+        <v>1.022572586853747</v>
       </c>
       <c r="F2">
-        <v>1.061449140846215</v>
+        <v>1.043735075926356</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046747877627948</v>
+        <v>1.056679879788197</v>
       </c>
       <c r="J2">
-        <v>1.04827122187715</v>
+        <v>1.040464318542143</v>
       </c>
       <c r="K2">
-        <v>1.053372594034342</v>
+        <v>1.04858693743927</v>
       </c>
       <c r="L2">
-        <v>1.044010079067248</v>
+        <v>1.033726157683518</v>
       </c>
       <c r="M2">
-        <v>1.064173171589564</v>
+        <v>1.054616968212966</v>
       </c>
       <c r="N2">
-        <v>1.019930378013375</v>
+        <v>1.016948827822923</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044185484263137</v>
+        <v>1.023565743748127</v>
       </c>
       <c r="D3">
-        <v>1.051401537821809</v>
+        <v>1.041293235082957</v>
       </c>
       <c r="E3">
-        <v>1.042070524742142</v>
+        <v>1.026394202040413</v>
       </c>
       <c r="F3">
-        <v>1.062396398459625</v>
+        <v>1.048046724105202</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047061685466904</v>
+        <v>1.058497052931417</v>
       </c>
       <c r="J3">
-        <v>1.048903782298392</v>
+        <v>1.04343396672594</v>
       </c>
       <c r="K3">
-        <v>1.053967872454583</v>
+        <v>1.05142367753644</v>
       </c>
       <c r="L3">
-        <v>1.044661135540633</v>
+        <v>1.036700145223913</v>
       </c>
       <c r="M3">
-        <v>1.064934718076539</v>
+        <v>1.058099642847872</v>
       </c>
       <c r="N3">
-        <v>1.020145025167254</v>
+        <v>1.017970428738603</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044823801540289</v>
+        <v>1.026564346049253</v>
       </c>
       <c r="D4">
-        <v>1.051908272515548</v>
+        <v>1.043618091842631</v>
       </c>
       <c r="E4">
-        <v>1.04261502520368</v>
+        <v>1.028820896276106</v>
       </c>
       <c r="F4">
-        <v>1.063009967449704</v>
+        <v>1.050783608988271</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047263625999611</v>
+        <v>1.059638560608604</v>
       </c>
       <c r="J4">
-        <v>1.049312792743105</v>
+        <v>1.045312106329877</v>
       </c>
       <c r="K4">
-        <v>1.054352661503881</v>
+        <v>1.053217112830452</v>
       </c>
       <c r="L4">
-        <v>1.045082375485458</v>
+        <v>1.038583490307783</v>
       </c>
       <c r="M4">
-        <v>1.065427492437808</v>
+        <v>1.060305448330755</v>
       </c>
       <c r="N4">
-        <v>1.020283708083621</v>
+        <v>1.018616129113521</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045092224823668</v>
+        <v>1.02781019041209</v>
       </c>
       <c r="D5">
-        <v>1.052121365672381</v>
+        <v>1.044584639304204</v>
       </c>
       <c r="E5">
-        <v>1.042844077772312</v>
+        <v>1.029830413277351</v>
       </c>
       <c r="F5">
-        <v>1.063268061571674</v>
+        <v>1.051921938957467</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047348254605782</v>
+        <v>1.060110451814148</v>
       </c>
       <c r="J5">
-        <v>1.049484668549876</v>
+        <v>1.04609161099146</v>
       </c>
       <c r="K5">
-        <v>1.054514331265698</v>
+        <v>1.053961298770725</v>
       </c>
       <c r="L5">
-        <v>1.045259455053195</v>
+        <v>1.039365744573039</v>
       </c>
       <c r="M5">
-        <v>1.065634654530064</v>
+        <v>1.061221714720354</v>
       </c>
       <c r="N5">
-        <v>1.020341960213627</v>
+        <v>1.018884017232766</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045137298636393</v>
+        <v>1.028018522857703</v>
       </c>
       <c r="D6">
-        <v>1.052157148549043</v>
+        <v>1.044746302680866</v>
       </c>
       <c r="E6">
-        <v>1.042882545153035</v>
+        <v>1.029999300973235</v>
       </c>
       <c r="F6">
-        <v>1.063311405458109</v>
+        <v>1.05211236327504</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047362448439142</v>
+        <v>1.060189221534355</v>
       </c>
       <c r="J6">
-        <v>1.049513522999868</v>
+        <v>1.046221912306362</v>
       </c>
       <c r="K6">
-        <v>1.054541470704182</v>
+        <v>1.054085686437425</v>
       </c>
       <c r="L6">
-        <v>1.045289186898994</v>
+        <v>1.039496540112129</v>
       </c>
       <c r="M6">
-        <v>1.065669437915183</v>
+        <v>1.061374922055125</v>
       </c>
       <c r="N6">
-        <v>1.020351738050892</v>
+        <v>1.018928790879295</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044827387932589</v>
+        <v>1.026581050392349</v>
       </c>
       <c r="D7">
-        <v>1.051911119634898</v>
+        <v>1.043631048943715</v>
       </c>
       <c r="E7">
-        <v>1.042618085248583</v>
+        <v>1.028834426905919</v>
       </c>
       <c r="F7">
-        <v>1.063013415529072</v>
+        <v>1.050798866999322</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04726475786166</v>
+        <v>1.059644897189049</v>
       </c>
       <c r="J7">
-        <v>1.049315089640598</v>
+        <v>1.045322561233653</v>
       </c>
       <c r="K7">
-        <v>1.054354822119583</v>
+        <v>1.053227094685193</v>
       </c>
       <c r="L7">
-        <v>1.045084741670463</v>
+        <v>1.038593979763025</v>
       </c>
       <c r="M7">
-        <v>1.065430260549968</v>
+        <v>1.06031773448629</v>
       </c>
       <c r="N7">
-        <v>1.020284486648981</v>
+        <v>1.018619722512525</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043532647476632</v>
+        <v>1.020445828909836</v>
       </c>
       <c r="D8">
-        <v>1.050883287131607</v>
+        <v>1.038876636231794</v>
       </c>
       <c r="E8">
-        <v>1.041513915928137</v>
+        <v>1.023873910768636</v>
       </c>
       <c r="F8">
-        <v>1.061769139890949</v>
+        <v>1.045203472667518</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046854160859418</v>
+        <v>1.057301244538205</v>
       </c>
       <c r="J8">
-        <v>1.048485059985659</v>
+        <v>1.041477119797018</v>
       </c>
       <c r="K8">
-        <v>1.053573852668644</v>
+        <v>1.049554541440712</v>
       </c>
       <c r="L8">
-        <v>1.044230113847177</v>
+        <v>1.034739921048143</v>
       </c>
       <c r="M8">
-        <v>1.064430538635959</v>
+        <v>1.05580406317253</v>
       </c>
       <c r="N8">
-        <v>1.020002961918797</v>
+        <v>1.017297327088893</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041253586772192</v>
+        <v>1.009117842265949</v>
       </c>
       <c r="D9">
-        <v>1.04907417705904</v>
+        <v>1.030123057945093</v>
       </c>
       <c r="E9">
-        <v>1.039572935754195</v>
+        <v>1.014761240011701</v>
       </c>
       <c r="F9">
-        <v>1.059581440482979</v>
+        <v>1.034916457697584</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046122124377978</v>
+        <v>1.052898107646079</v>
       </c>
       <c r="J9">
-        <v>1.047020188336284</v>
+        <v>1.034352684117526</v>
       </c>
       <c r="K9">
-        <v>1.052194686854385</v>
+        <v>1.042745609136317</v>
       </c>
       <c r="L9">
-        <v>1.042723902039405</v>
+        <v>1.027619281583361</v>
       </c>
       <c r="M9">
-        <v>1.062668963965138</v>
+        <v>1.047467347661673</v>
       </c>
       <c r="N9">
-        <v>1.019505300108366</v>
+        <v>1.014844386700356</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039735887035672</v>
+        <v>1.001178510060913</v>
       </c>
       <c r="D10">
-        <v>1.047869553211842</v>
+        <v>1.024008501037986</v>
       </c>
       <c r="E10">
-        <v>1.038282176921222</v>
+        <v>1.008409209169193</v>
       </c>
       <c r="F10">
-        <v>1.058126314665449</v>
+        <v>1.027739957857847</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045628404246068</v>
+        <v>1.049763343377432</v>
       </c>
       <c r="J10">
-        <v>1.046042134769491</v>
+        <v>1.029345447874514</v>
       </c>
       <c r="K10">
-        <v>1.05127327249651</v>
+        <v>1.037957395227072</v>
       </c>
       <c r="L10">
-        <v>1.04171964131404</v>
+        <v>1.022628274709303</v>
       </c>
       <c r="M10">
-        <v>1.061494677581136</v>
+        <v>1.041625792805457</v>
       </c>
       <c r="N10">
-        <v>1.019172483473592</v>
+        <v>1.013118835105385</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03907911018075</v>
+        <v>0.9976391347875477</v>
       </c>
       <c r="D11">
-        <v>1.047348294556163</v>
+        <v>1.021288332946932</v>
       </c>
       <c r="E11">
-        <v>1.03772404267801</v>
+        <v>1.005586467987817</v>
       </c>
       <c r="F11">
-        <v>1.057497034501139</v>
+        <v>1.024549338049551</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045413272499515</v>
+        <v>1.048354889604028</v>
       </c>
       <c r="J11">
-        <v>1.045618286131188</v>
+        <v>1.02711045939869</v>
       </c>
       <c r="K11">
-        <v>1.050873831709008</v>
+        <v>1.03581964743791</v>
       </c>
       <c r="L11">
-        <v>1.041284766665065</v>
+        <v>1.020403795126784</v>
       </c>
       <c r="M11">
-        <v>1.060986232626342</v>
+        <v>1.039022678754499</v>
       </c>
       <c r="N11">
-        <v>1.01902812706803</v>
+        <v>1.012348359401531</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038835214151574</v>
+        <v>0.9963082944837238</v>
       </c>
       <c r="D12">
-        <v>1.047154729681907</v>
+        <v>1.020266459271331</v>
       </c>
       <c r="E12">
-        <v>1.037516843886489</v>
+        <v>1.004526513974952</v>
       </c>
       <c r="F12">
-        <v>1.057263412862123</v>
+        <v>1.023351009851005</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045333160914218</v>
+        <v>1.047823703349754</v>
       </c>
       <c r="J12">
-        <v>1.045460798685907</v>
+        <v>1.026269719877344</v>
       </c>
       <c r="K12">
-        <v>1.050725392852323</v>
+        <v>1.035015420163667</v>
       </c>
       <c r="L12">
-        <v>1.041123232119205</v>
+        <v>1.019567503915962</v>
       </c>
       <c r="M12">
-        <v>1.060797378699843</v>
+        <v>1.038044110371455</v>
       </c>
       <c r="N12">
-        <v>1.018974470230751</v>
+        <v>1.01205849571485</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038887527948783</v>
+        <v>0.9965945105806508</v>
       </c>
       <c r="D13">
-        <v>1.047196247553862</v>
+        <v>1.020486184105686</v>
       </c>
       <c r="E13">
-        <v>1.037561283414666</v>
+        <v>1.004754406581711</v>
       </c>
       <c r="F13">
-        <v>1.057313520003608</v>
+        <v>1.023608663943852</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045350354259176</v>
+        <v>1.04793801359143</v>
       </c>
       <c r="J13">
-        <v>1.045494582583617</v>
+        <v>1.026450548327756</v>
       </c>
       <c r="K13">
-        <v>1.050757236591537</v>
+        <v>1.035188398303039</v>
       </c>
       <c r="L13">
-        <v>1.041157881939718</v>
+        <v>1.019747353163327</v>
       </c>
       <c r="M13">
-        <v>1.060837888260752</v>
+        <v>1.038254553938212</v>
       </c>
       <c r="N13">
-        <v>1.018985981448554</v>
+        <v>1.012120841682385</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039058948429359</v>
+        <v>0.9975294621617878</v>
       </c>
       <c r="D14">
-        <v>1.04733229331998</v>
+        <v>1.021204102318984</v>
       </c>
       <c r="E14">
-        <v>1.037706913166291</v>
+        <v>1.005499089332995</v>
       </c>
       <c r="F14">
-        <v>1.057477720788733</v>
+        <v>1.024450557148925</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045406654570866</v>
+        <v>1.048311147376987</v>
       </c>
       <c r="J14">
-        <v>1.045605269210357</v>
+        <v>1.027041182313214</v>
       </c>
       <c r="K14">
-        <v>1.050861563105554</v>
+        <v>1.035753380261848</v>
       </c>
       <c r="L14">
-        <v>1.041271414220713</v>
+        <v>1.020334874492924</v>
       </c>
       <c r="M14">
-        <v>1.06097062179156</v>
+        <v>1.038942031300848</v>
       </c>
       <c r="N14">
-        <v>1.019023692518717</v>
+        <v>1.012324475193001</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.039164574228049</v>
+        <v>0.9981033475798886</v>
       </c>
       <c r="D15">
-        <v>1.04741612276552</v>
+        <v>1.021644895694138</v>
       </c>
       <c r="E15">
-        <v>1.037796656011928</v>
+        <v>1.005956375284099</v>
       </c>
       <c r="F15">
-        <v>1.057578906379847</v>
+        <v>1.02496750582947</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045441316285937</v>
+        <v>1.04853997329972</v>
       </c>
       <c r="J15">
-        <v>1.045673460130383</v>
+        <v>1.027403675022165</v>
       </c>
       <c r="K15">
-        <v>1.050925833022965</v>
+        <v>1.036100120944347</v>
       </c>
       <c r="L15">
-        <v>1.041341364865253</v>
+        <v>1.020695522271439</v>
       </c>
       <c r="M15">
-        <v>1.061052404010699</v>
+        <v>1.039364046034525</v>
       </c>
       <c r="N15">
-        <v>1.019046922734145</v>
+        <v>1.012449448164974</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039779483559987</v>
+        <v>1.001411191361934</v>
       </c>
       <c r="D16">
-        <v>1.047904154921677</v>
+        <v>1.024187452534023</v>
       </c>
       <c r="E16">
-        <v>1.038319234821625</v>
+        <v>1.008594971930255</v>
       </c>
       <c r="F16">
-        <v>1.058168094835426</v>
+        <v>1.027949898501591</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045642653471462</v>
+        <v>1.049855712345062</v>
       </c>
       <c r="J16">
-        <v>1.046070256993885</v>
+        <v>1.029492324793905</v>
       </c>
       <c r="K16">
-        <v>1.051299772385048</v>
+        <v>1.038097871875519</v>
       </c>
       <c r="L16">
-        <v>1.041748502087801</v>
+        <v>1.022774529356782</v>
       </c>
       <c r="M16">
-        <v>1.061528422076803</v>
+        <v>1.04179695143657</v>
       </c>
       <c r="N16">
-        <v>1.019182058805557</v>
+        <v>1.013169463552764</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040165306596543</v>
+        <v>1.003458303489631</v>
       </c>
       <c r="D17">
-        <v>1.048210379392349</v>
+        <v>1.025762513416158</v>
       </c>
       <c r="E17">
-        <v>1.038647242325916</v>
+        <v>1.010230331666517</v>
       </c>
       <c r="F17">
-        <v>1.058537891788807</v>
+        <v>1.029797936142434</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045768586437901</v>
+        <v>1.050667126067319</v>
       </c>
       <c r="J17">
-        <v>1.046319065271956</v>
+        <v>1.030784229833979</v>
       </c>
       <c r="K17">
-        <v>1.051534211386496</v>
+        <v>1.03933342334846</v>
       </c>
       <c r="L17">
-        <v>1.042003882838473</v>
+        <v>1.024061332695993</v>
       </c>
       <c r="M17">
-        <v>1.061827023937191</v>
+        <v>1.04330292109754</v>
       </c>
       <c r="N17">
-        <v>1.019266760822558</v>
+        <v>1.013614752989537</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.040390388933166</v>
+        <v>1.004642611105681</v>
       </c>
       <c r="D18">
-        <v>1.048389028784815</v>
+        <v>1.026674263929348</v>
       </c>
       <c r="E18">
-        <v>1.038838638055003</v>
+        <v>1.011177279365197</v>
       </c>
       <c r="F18">
-        <v>1.058753665111706</v>
+        <v>1.030867892329367</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045841910949128</v>
+        <v>1.051135506378847</v>
       </c>
       <c r="J18">
-        <v>1.04646415760141</v>
+        <v>1.031531366302137</v>
       </c>
       <c r="K18">
-        <v>1.051670911038941</v>
+        <v>1.040047919270922</v>
       </c>
       <c r="L18">
-        <v>1.042152839828699</v>
+        <v>1.02480582777294</v>
       </c>
       <c r="M18">
-        <v>1.062001196072524</v>
+        <v>1.044174260177202</v>
       </c>
       <c r="N18">
-        <v>1.019316142454347</v>
+        <v>1.013872247031501</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040467142673189</v>
+        <v>1.005044803746145</v>
       </c>
       <c r="D19">
-        <v>1.048449949320217</v>
+        <v>1.026983984586101</v>
       </c>
       <c r="E19">
-        <v>1.03890391165864</v>
+        <v>1.011499006279746</v>
       </c>
       <c r="F19">
-        <v>1.058827251271526</v>
+        <v>1.031231387788438</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045866890640553</v>
+        <v>1.051294390435834</v>
       </c>
       <c r="J19">
-        <v>1.046513624663455</v>
+        <v>1.031785048660234</v>
       </c>
       <c r="K19">
-        <v>1.051717514493264</v>
+        <v>1.040290510056394</v>
       </c>
       <c r="L19">
-        <v>1.042203629903705</v>
+        <v>1.025058665563617</v>
       </c>
       <c r="M19">
-        <v>1.062060584705803</v>
+        <v>1.044470182626685</v>
       </c>
       <c r="N19">
-        <v>1.01933297629862</v>
+        <v>1.013959671705069</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04012390747244</v>
+        <v>1.003239681267324</v>
       </c>
       <c r="D20">
-        <v>1.048177520897255</v>
+        <v>1.025594247870296</v>
       </c>
       <c r="E20">
-        <v>1.038612042511622</v>
+        <v>1.010055594075548</v>
       </c>
       <c r="F20">
-        <v>1.05849820810196</v>
+        <v>1.029600488754607</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045755088471987</v>
+        <v>1.050580578701432</v>
       </c>
       <c r="J20">
-        <v>1.046292373941184</v>
+        <v>1.030646287334861</v>
       </c>
       <c r="K20">
-        <v>1.051509062913757</v>
+        <v>1.0392015030903</v>
       </c>
       <c r="L20">
-        <v>1.041976483131401</v>
+        <v>1.023923902826661</v>
       </c>
       <c r="M20">
-        <v>1.061794986495832</v>
+        <v>1.043142079937076</v>
       </c>
       <c r="N20">
-        <v>1.019257675538807</v>
+        <v>1.013567210119601</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039008467706469</v>
+        <v>0.9972545958137928</v>
       </c>
       <c r="D21">
-        <v>1.047292229739525</v>
+        <v>1.020993015179227</v>
       </c>
       <c r="E21">
-        <v>1.037664025593073</v>
+        <v>1.005280120309734</v>
       </c>
       <c r="F21">
-        <v>1.057429364400939</v>
+        <v>1.024203010545659</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045390081107408</v>
+        <v>1.048201493208903</v>
       </c>
       <c r="J21">
-        <v>1.045572676165481</v>
+        <v>1.026867551396335</v>
       </c>
       <c r="K21">
-        <v>1.050830843440088</v>
+        <v>1.035587292118211</v>
       </c>
       <c r="L21">
-        <v>1.041237981863352</v>
+        <v>1.02016214495108</v>
       </c>
       <c r="M21">
-        <v>1.060931534925596</v>
+        <v>1.038739913030403</v>
       </c>
       <c r="N21">
-        <v>1.019012588551942</v>
+        <v>1.012264613101154</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038307494629374</v>
+        <v>0.9933975520823185</v>
       </c>
       <c r="D22">
-        <v>1.046735923815626</v>
+        <v>1.018033284068829</v>
       </c>
       <c r="E22">
-        <v>1.037068647832822</v>
+        <v>1.002210941788364</v>
       </c>
       <c r="F22">
-        <v>1.056758040700437</v>
+        <v>1.020732706117386</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045159417539729</v>
+        <v>1.046659052396105</v>
       </c>
       <c r="J22">
-        <v>1.045119877763774</v>
+        <v>1.024430293574313</v>
       </c>
       <c r="K22">
-        <v>1.050404022439693</v>
+        <v>1.033255767529548</v>
       </c>
       <c r="L22">
-        <v>1.040773641326941</v>
+        <v>1.017738726362115</v>
       </c>
       <c r="M22">
-        <v>1.060388678972939</v>
+        <v>1.035904336879726</v>
       </c>
       <c r="N22">
-        <v>1.018858281953704</v>
+        <v>1.011424262282197</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038679060558741</v>
+        <v>0.995451469343822</v>
       </c>
       <c r="D23">
-        <v>1.047030802224983</v>
+        <v>1.019608827834431</v>
       </c>
       <c r="E23">
-        <v>1.037384204236171</v>
+        <v>1.00384450226052</v>
       </c>
       <c r="F23">
-        <v>1.057113855336406</v>
+        <v>1.022579896306754</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045281807331149</v>
+        <v>1.047481271538721</v>
       </c>
       <c r="J23">
-        <v>1.045359942591658</v>
+        <v>1.025728337483291</v>
       </c>
       <c r="K23">
-        <v>1.050630325774909</v>
+        <v>1.034497531902717</v>
       </c>
       <c r="L23">
-        <v>1.041019798251828</v>
+        <v>1.019029126108125</v>
       </c>
       <c r="M23">
-        <v>1.060676454029121</v>
+        <v>1.037414159088006</v>
       </c>
       <c r="N23">
-        <v>1.018940102668113</v>
+        <v>1.011871833991618</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040142613836283</v>
+        <v>1.003338497267663</v>
       </c>
       <c r="D24">
-        <v>1.048192368132328</v>
+        <v>1.025670301280629</v>
       </c>
       <c r="E24">
-        <v>1.038627947562422</v>
+        <v>1.010134571843175</v>
       </c>
       <c r="F24">
-        <v>1.058516139213978</v>
+        <v>1.029689731318044</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045761188023635</v>
+        <v>1.050619700858627</v>
       </c>
       <c r="J24">
-        <v>1.046304434707652</v>
+        <v>1.030708637382608</v>
       </c>
       <c r="K24">
-        <v>1.051520426564081</v>
+        <v>1.039261131239589</v>
       </c>
       <c r="L24">
-        <v>1.041988863886709</v>
+        <v>1.023986020207508</v>
       </c>
       <c r="M24">
-        <v>1.061809462828182</v>
+        <v>1.043214778932303</v>
       </c>
       <c r="N24">
-        <v>1.019261780860471</v>
+        <v>1.013588699592528</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04184248612804</v>
+        <v>1.012111588035694</v>
       </c>
       <c r="D25">
-        <v>1.04954162450547</v>
+        <v>1.032433186310708</v>
       </c>
       <c r="E25">
-        <v>1.040074161325043</v>
+        <v>1.01716379994358</v>
       </c>
       <c r="F25">
-        <v>1.06014642912941</v>
+        <v>1.037629617777398</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04631237928422</v>
+        <v>1.05407035344826</v>
       </c>
       <c r="J25">
-        <v>1.047399155424853</v>
+        <v>1.036238112486</v>
       </c>
       <c r="K25">
-        <v>1.052551584894354</v>
+        <v>1.044548049369866</v>
       </c>
       <c r="L25">
-        <v>1.043113318442328</v>
+        <v>1.029501387339613</v>
       </c>
       <c r="M25">
-        <v>1.063124360175963</v>
+        <v>1.049670574036043</v>
       </c>
       <c r="N25">
-        <v>1.019634142735887</v>
+        <v>1.015493838914932</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018832659988578</v>
+        <v>0.99913121721721</v>
       </c>
       <c r="D2">
-        <v>1.037628065501641</v>
+        <v>1.0200683635012</v>
       </c>
       <c r="E2">
-        <v>1.022572586853747</v>
+        <v>1.014964086213598</v>
       </c>
       <c r="F2">
-        <v>1.043735075926356</v>
+        <v>1.024985469266195</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056679879788197</v>
+        <v>1.046701254834389</v>
       </c>
       <c r="J2">
-        <v>1.040464318542143</v>
+        <v>1.021337944515461</v>
       </c>
       <c r="K2">
-        <v>1.04858693743927</v>
+        <v>1.031255018542781</v>
       </c>
       <c r="L2">
-        <v>1.033726157683518</v>
+        <v>1.026218810855943</v>
       </c>
       <c r="M2">
-        <v>1.054616968212966</v>
+        <v>1.03610735425644</v>
       </c>
       <c r="N2">
-        <v>1.016948827822923</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011103908755073</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.037148931466699</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03317020217784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023565743748127</v>
+        <v>1.002727203010231</v>
       </c>
       <c r="D3">
-        <v>1.041293235082957</v>
+        <v>1.022436260124951</v>
       </c>
       <c r="E3">
-        <v>1.026394202040413</v>
+        <v>1.017827133402136</v>
       </c>
       <c r="F3">
-        <v>1.048046724105202</v>
+        <v>1.027876282386969</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058497052931417</v>
+        <v>1.047407349791827</v>
       </c>
       <c r="J3">
-        <v>1.04343396672594</v>
+        <v>1.023143796817051</v>
       </c>
       <c r="K3">
-        <v>1.05142367753644</v>
+        <v>1.032789892817124</v>
       </c>
       <c r="L3">
-        <v>1.036700145223913</v>
+        <v>1.028236882953401</v>
       </c>
       <c r="M3">
-        <v>1.058099642847872</v>
+        <v>1.038164485098327</v>
       </c>
       <c r="N3">
-        <v>1.017970428738603</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011707338725752</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.038777018359372</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.034252823094473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026564346049253</v>
+        <v>1.005011878261354</v>
       </c>
       <c r="D4">
-        <v>1.043618091842631</v>
+        <v>1.023940939676587</v>
       </c>
       <c r="E4">
-        <v>1.028820896276106</v>
+        <v>1.019652205644289</v>
       </c>
       <c r="F4">
-        <v>1.050783608988271</v>
+        <v>1.029722424181189</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059638560608604</v>
+        <v>1.0478410798392</v>
       </c>
       <c r="J4">
-        <v>1.045312106329877</v>
+        <v>1.024288242793768</v>
       </c>
       <c r="K4">
-        <v>1.053217112830452</v>
+        <v>1.033758756447023</v>
       </c>
       <c r="L4">
-        <v>1.038583490307783</v>
+        <v>1.029519093495266</v>
       </c>
       <c r="M4">
-        <v>1.060305448330755</v>
+        <v>1.039474886852828</v>
       </c>
       <c r="N4">
-        <v>1.018616129113521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012089800623483</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.03981411522517</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.034938804295554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02781019041209</v>
+        <v>1.00596445674522</v>
       </c>
       <c r="D5">
-        <v>1.044584639304204</v>
+        <v>1.024570041656995</v>
       </c>
       <c r="E5">
-        <v>1.029830413277351</v>
+        <v>1.020414621167667</v>
       </c>
       <c r="F5">
-        <v>1.051921938957467</v>
+        <v>1.030493973337041</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060110451814148</v>
+        <v>1.048019451403411</v>
       </c>
       <c r="J5">
-        <v>1.04609161099146</v>
+        <v>1.024765600201386</v>
       </c>
       <c r="K5">
-        <v>1.053961298770725</v>
+        <v>1.034163303109841</v>
       </c>
       <c r="L5">
-        <v>1.039365744573039</v>
+        <v>1.030054164149426</v>
       </c>
       <c r="M5">
-        <v>1.061221714720354</v>
+        <v>1.04002204871637</v>
       </c>
       <c r="N5">
-        <v>1.018884017232766</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012249604484478</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.040247157436266</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.035232073426721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028018522857703</v>
+        <v>1.006126156818784</v>
       </c>
       <c r="D6">
-        <v>1.044746302680866</v>
+        <v>1.024678920871459</v>
       </c>
       <c r="E6">
-        <v>1.029999300973235</v>
+        <v>1.020544172440366</v>
       </c>
       <c r="F6">
-        <v>1.05211236327504</v>
+        <v>1.030624545547387</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060189221534355</v>
+        <v>1.048050924546577</v>
       </c>
       <c r="J6">
-        <v>1.046221912306362</v>
+        <v>1.02484769277009</v>
       </c>
       <c r="K6">
-        <v>1.054085686437425</v>
+        <v>1.034234480846613</v>
       </c>
       <c r="L6">
-        <v>1.039496540112129</v>
+        <v>1.030145573177809</v>
       </c>
       <c r="M6">
-        <v>1.061374922055125</v>
+        <v>1.040114979415068</v>
       </c>
       <c r="N6">
-        <v>1.018928790879295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012277411913797</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04032070587552</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.035291203297599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026581050392349</v>
+        <v>1.005030838532187</v>
       </c>
       <c r="D7">
-        <v>1.043631048943715</v>
+        <v>1.023959012182322</v>
       </c>
       <c r="E7">
-        <v>1.028834426905919</v>
+        <v>1.019667512246046</v>
       </c>
       <c r="F7">
-        <v>1.050798866999322</v>
+        <v>1.029736369961192</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059644897189049</v>
+        <v>1.047848387453512</v>
       </c>
       <c r="J7">
-        <v>1.045322561233653</v>
+        <v>1.024300680659071</v>
       </c>
       <c r="K7">
-        <v>1.053227094685193</v>
+        <v>1.033773715873515</v>
       </c>
       <c r="L7">
-        <v>1.038593979763025</v>
+        <v>1.029531300277852</v>
       </c>
       <c r="M7">
-        <v>1.06031773448629</v>
+        <v>1.03948579050626</v>
       </c>
       <c r="N7">
-        <v>1.018619722512525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012094847978128</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.039822744743962</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.034969624514253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020445828909836</v>
+        <v>1.000362869588266</v>
       </c>
       <c r="D8">
-        <v>1.038876636231794</v>
+        <v>1.020885963641573</v>
       </c>
       <c r="E8">
-        <v>1.023873910768636</v>
+        <v>1.015943640910618</v>
       </c>
       <c r="F8">
-        <v>1.045203472667518</v>
+        <v>1.025971971044231</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057301244538205</v>
+        <v>1.046950594421223</v>
       </c>
       <c r="J8">
-        <v>1.041477119797018</v>
+        <v>1.021960551004629</v>
       </c>
       <c r="K8">
-        <v>1.049554541440712</v>
+        <v>1.031790262351121</v>
       </c>
       <c r="L8">
-        <v>1.034739921048143</v>
+        <v>1.026911890950722</v>
       </c>
       <c r="M8">
-        <v>1.05580406317253</v>
+        <v>1.036811262603434</v>
       </c>
       <c r="N8">
-        <v>1.017297327088893</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011313095952962</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.037706030115766</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.03357173755501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009117842265949</v>
+        <v>0.9917916067394206</v>
       </c>
       <c r="D9">
-        <v>1.030123057945093</v>
+        <v>1.015239011667109</v>
       </c>
       <c r="E9">
-        <v>1.014761240011701</v>
+        <v>1.009155207703828</v>
       </c>
       <c r="F9">
-        <v>1.034916457697584</v>
+        <v>1.019138642229787</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052898107646079</v>
+        <v>1.04518091826917</v>
       </c>
       <c r="J9">
-        <v>1.034352684117526</v>
+        <v>1.017637591918348</v>
       </c>
       <c r="K9">
-        <v>1.042745609136317</v>
+        <v>1.028089591926341</v>
       </c>
       <c r="L9">
-        <v>1.027619281583361</v>
+        <v>1.022101474070895</v>
       </c>
       <c r="M9">
-        <v>1.047467347661673</v>
+        <v>1.031928656412014</v>
       </c>
       <c r="N9">
-        <v>1.014844386700356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009867843315985</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.033841749115095</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.03095188138379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001178510060913</v>
+        <v>0.9858979117998444</v>
       </c>
       <c r="D10">
-        <v>1.024008501037986</v>
+        <v>1.01136589635377</v>
       </c>
       <c r="E10">
-        <v>1.008409209169193</v>
+        <v>1.004582969819299</v>
       </c>
       <c r="F10">
-        <v>1.027739957857847</v>
+        <v>1.014623732119303</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049763343377432</v>
+        <v>1.043899586741965</v>
       </c>
       <c r="J10">
-        <v>1.029345447874514</v>
+        <v>1.014682428910434</v>
       </c>
       <c r="K10">
-        <v>1.037957395227072</v>
+        <v>1.025532924248067</v>
       </c>
       <c r="L10">
-        <v>1.022628274709303</v>
+        <v>1.018869967435099</v>
       </c>
       <c r="M10">
-        <v>1.041625792805457</v>
+        <v>1.028733876767235</v>
       </c>
       <c r="N10">
-        <v>1.013118835105385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008884055339605</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.031365153254266</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.029161077616898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9976391347875477</v>
+        <v>0.9838103799048278</v>
       </c>
       <c r="D11">
-        <v>1.021288332946932</v>
+        <v>1.010018854863754</v>
       </c>
       <c r="E11">
-        <v>1.005586467987817</v>
+        <v>1.003455017319335</v>
       </c>
       <c r="F11">
-        <v>1.024549338049551</v>
+        <v>1.014077069716823</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048354889604028</v>
+        <v>1.043500623025704</v>
       </c>
       <c r="J11">
-        <v>1.02711045939869</v>
+        <v>1.01387252768796</v>
       </c>
       <c r="K11">
-        <v>1.03581964743791</v>
+        <v>1.024754271661987</v>
       </c>
       <c r="L11">
-        <v>1.020403795126784</v>
+        <v>1.018312069887737</v>
       </c>
       <c r="M11">
-        <v>1.039022678754499</v>
+        <v>1.028738307851158</v>
       </c>
       <c r="N11">
-        <v>1.012348359401531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008645485469364</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.031808252450022</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.028643651490176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9963082944837238</v>
+        <v>0.9832194151450675</v>
       </c>
       <c r="D12">
-        <v>1.020266459271331</v>
+        <v>1.009643208528573</v>
       </c>
       <c r="E12">
-        <v>1.004526513974952</v>
+        <v>1.003354353645995</v>
       </c>
       <c r="F12">
-        <v>1.023351009851005</v>
+        <v>1.014389933983054</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047823703349754</v>
+        <v>1.043413753534585</v>
       </c>
       <c r="J12">
-        <v>1.026269719877344</v>
+        <v>1.013751338671381</v>
       </c>
       <c r="K12">
-        <v>1.035015420163667</v>
+        <v>1.024587962838195</v>
       </c>
       <c r="L12">
-        <v>1.019567503915962</v>
+        <v>1.018417570464119</v>
       </c>
       <c r="M12">
-        <v>1.038044110371455</v>
+        <v>1.029246542494888</v>
       </c>
       <c r="N12">
-        <v>1.01205849571485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008629108741353</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.032538776307772</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.028526063875167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9965945105806508</v>
+        <v>0.9837467784872856</v>
       </c>
       <c r="D13">
-        <v>1.020486184105686</v>
+        <v>1.009999744810049</v>
       </c>
       <c r="E13">
-        <v>1.004754406581711</v>
+        <v>1.004044024112064</v>
       </c>
       <c r="F13">
-        <v>1.023608663943852</v>
+        <v>1.015404384608428</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04793801359143</v>
+        <v>1.043571938590701</v>
       </c>
       <c r="J13">
-        <v>1.026450548327756</v>
+        <v>1.014160093152416</v>
       </c>
       <c r="K13">
-        <v>1.035188398303039</v>
+        <v>1.024894441516762</v>
       </c>
       <c r="L13">
-        <v>1.019747353163327</v>
+        <v>1.01905037994162</v>
       </c>
       <c r="M13">
-        <v>1.038254553938212</v>
+        <v>1.030199230476016</v>
       </c>
       <c r="N13">
-        <v>1.012120841682385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008786540925925</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.033570197736938</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.028740243830284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9975294621617878</v>
+        <v>0.984619653364437</v>
       </c>
       <c r="D14">
-        <v>1.021204102318984</v>
+        <v>1.010580164893429</v>
       </c>
       <c r="E14">
-        <v>1.005499089332995</v>
+        <v>1.004878389441745</v>
       </c>
       <c r="F14">
-        <v>1.024450557148925</v>
+        <v>1.016425096881404</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048311147376987</v>
+        <v>1.043792912811097</v>
       </c>
       <c r="J14">
-        <v>1.027041182313214</v>
+        <v>1.014683163056494</v>
       </c>
       <c r="K14">
-        <v>1.035753380261848</v>
+        <v>1.025321986362438</v>
       </c>
       <c r="L14">
-        <v>1.020334874492924</v>
+        <v>1.019725738114177</v>
       </c>
       <c r="M14">
-        <v>1.038942031300848</v>
+        <v>1.031060339702572</v>
       </c>
       <c r="N14">
-        <v>1.012324475193001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008974516357248</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.034424952305517</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.029043973588831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9981033475798886</v>
+        <v>0.9850801053819912</v>
       </c>
       <c r="D15">
-        <v>1.021644895694138</v>
+        <v>1.010885641156336</v>
       </c>
       <c r="E15">
-        <v>1.005956375284099</v>
+        <v>1.005265521295577</v>
       </c>
       <c r="F15">
-        <v>1.02496750582947</v>
+        <v>1.016849305615218</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04853997329972</v>
+        <v>1.043902497424861</v>
       </c>
       <c r="J15">
-        <v>1.027403675022165</v>
+        <v>1.01493208152367</v>
       </c>
       <c r="K15">
-        <v>1.036100120944347</v>
+        <v>1.02553434539355</v>
       </c>
       <c r="L15">
-        <v>1.020695522271439</v>
+        <v>1.020017436542331</v>
       </c>
       <c r="M15">
-        <v>1.039364046034525</v>
+        <v>1.031390110758563</v>
       </c>
       <c r="N15">
-        <v>1.012449448164974</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009060565716227</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.034723278540118</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.029200040792573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001411191361934</v>
+        <v>0.9874669151050334</v>
       </c>
       <c r="D16">
-        <v>1.024187452534023</v>
+        <v>1.012454463771298</v>
       </c>
       <c r="E16">
-        <v>1.008594971930255</v>
+        <v>1.007067543863105</v>
       </c>
       <c r="F16">
-        <v>1.027949898501591</v>
+        <v>1.018602712642733</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049855712345062</v>
+        <v>1.044431257489953</v>
       </c>
       <c r="J16">
-        <v>1.029492324793905</v>
+        <v>1.016108358664671</v>
       </c>
       <c r="K16">
-        <v>1.038097871875519</v>
+        <v>1.026566403797415</v>
       </c>
       <c r="L16">
-        <v>1.022774529356782</v>
+        <v>1.021274047118333</v>
       </c>
       <c r="M16">
-        <v>1.04179695143657</v>
+        <v>1.0326083046917</v>
       </c>
       <c r="N16">
-        <v>1.013169463552764</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.00944845616512</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.035647272181242</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.02993294684827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003458303489631</v>
+        <v>0.9888440978158821</v>
       </c>
       <c r="D17">
-        <v>1.025762513416158</v>
+        <v>1.013356572644208</v>
       </c>
       <c r="E17">
-        <v>1.010230331666517</v>
+        <v>1.00801637776941</v>
       </c>
       <c r="F17">
-        <v>1.029797936142434</v>
+        <v>1.019409418869761</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050667126067319</v>
+        <v>1.044718517945245</v>
       </c>
       <c r="J17">
-        <v>1.030784229833979</v>
+        <v>1.01673783567921</v>
       </c>
       <c r="K17">
-        <v>1.03933342334846</v>
+        <v>1.027134396697532</v>
       </c>
       <c r="L17">
-        <v>1.024061332695993</v>
+        <v>1.021885295771433</v>
       </c>
       <c r="M17">
-        <v>1.04330292109754</v>
+        <v>1.033085479167465</v>
       </c>
       <c r="N17">
-        <v>1.013614752989537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009647874635203</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.035894898576958</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.030337153851036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004642611105681</v>
+        <v>0.9894686584586461</v>
       </c>
       <c r="D18">
-        <v>1.026674263929348</v>
+        <v>1.013756117621043</v>
       </c>
       <c r="E18">
-        <v>1.011177279365197</v>
+        <v>1.00827763945688</v>
       </c>
       <c r="F18">
-        <v>1.030867892329367</v>
+        <v>1.01939901513509</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051135506378847</v>
+        <v>1.044820897656323</v>
       </c>
       <c r="J18">
-        <v>1.031531366302137</v>
+        <v>1.016935517230023</v>
       </c>
       <c r="K18">
-        <v>1.040047919270922</v>
+        <v>1.027341553284574</v>
       </c>
       <c r="L18">
-        <v>1.02480582777294</v>
+        <v>1.021955003566803</v>
       </c>
       <c r="M18">
-        <v>1.044174260177202</v>
+        <v>1.032891091967453</v>
       </c>
       <c r="N18">
-        <v>1.013872247031501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009695693891465</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.035502443834033</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.030471893526096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005044803746145</v>
+        <v>0.9894113823502475</v>
       </c>
       <c r="D19">
-        <v>1.026983984586101</v>
+        <v>1.013708072717601</v>
       </c>
       <c r="E19">
-        <v>1.011499006279746</v>
+        <v>1.007904486881147</v>
       </c>
       <c r="F19">
-        <v>1.031231387788438</v>
+        <v>1.01862689241154</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051294390435834</v>
+        <v>1.044762334903584</v>
       </c>
       <c r="J19">
-        <v>1.031785048660234</v>
+        <v>1.016743465116047</v>
       </c>
       <c r="K19">
-        <v>1.040290510056394</v>
+        <v>1.02723101144563</v>
       </c>
       <c r="L19">
-        <v>1.025058665563617</v>
+        <v>1.021524340293951</v>
       </c>
       <c r="M19">
-        <v>1.044470182626685</v>
+        <v>1.032068802823091</v>
       </c>
       <c r="N19">
-        <v>1.013959671705069</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009609243017419</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.034524912387289</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.030400181449438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003239681267324</v>
+        <v>0.9874407283241827</v>
       </c>
       <c r="D20">
-        <v>1.025594247870296</v>
+        <v>1.012391596673074</v>
       </c>
       <c r="E20">
-        <v>1.010055594075548</v>
+        <v>1.005780697045075</v>
       </c>
       <c r="F20">
-        <v>1.029600488754607</v>
+        <v>1.015805551531482</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050580578701432</v>
+        <v>1.044248482412829</v>
       </c>
       <c r="J20">
-        <v>1.030646287334861</v>
+        <v>1.015464523493407</v>
       </c>
       <c r="K20">
-        <v>1.0392015030903</v>
+        <v>1.026219999030755</v>
       </c>
       <c r="L20">
-        <v>1.023923902826661</v>
+        <v>1.019722655791586</v>
       </c>
       <c r="M20">
-        <v>1.043142079937076</v>
+        <v>1.029576058532335</v>
       </c>
       <c r="N20">
-        <v>1.013567210119601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009147136306053</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032021016956562</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.029689298163179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9972545958137928</v>
+        <v>0.9829142247942441</v>
       </c>
       <c r="D21">
-        <v>1.020993015179227</v>
+        <v>1.009413094119507</v>
       </c>
       <c r="E21">
-        <v>1.005280120309734</v>
+        <v>1.002188828860001</v>
       </c>
       <c r="F21">
-        <v>1.024203010545659</v>
+        <v>1.01215499604644</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048201493208903</v>
+        <v>1.043224366715727</v>
       </c>
       <c r="J21">
-        <v>1.026867551396335</v>
+        <v>1.013144080977985</v>
       </c>
       <c r="K21">
-        <v>1.035587292118211</v>
+        <v>1.024218300388017</v>
       </c>
       <c r="L21">
-        <v>1.02016214495108</v>
+        <v>1.01712885152591</v>
       </c>
       <c r="M21">
-        <v>1.038739913030403</v>
+        <v>1.026909690266469</v>
       </c>
       <c r="N21">
-        <v>1.012264613101154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008368808034208</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.029869525510386</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.028277255571295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9933975520823185</v>
+        <v>0.980037185103409</v>
       </c>
       <c r="D22">
-        <v>1.018033284068829</v>
+        <v>1.00751878973915</v>
       </c>
       <c r="E22">
-        <v>1.002210941788364</v>
+        <v>0.9999437852197779</v>
       </c>
       <c r="F22">
-        <v>1.020732706117386</v>
+        <v>1.00991331773786</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046659052396105</v>
+        <v>1.042560110173087</v>
       </c>
       <c r="J22">
-        <v>1.024430293574313</v>
+        <v>1.011679277866009</v>
       </c>
       <c r="K22">
-        <v>1.033255767529548</v>
+        <v>1.022942755094557</v>
       </c>
       <c r="L22">
-        <v>1.017738726362115</v>
+        <v>1.015516355818202</v>
       </c>
       <c r="M22">
-        <v>1.035904336879726</v>
+        <v>1.025290915104557</v>
       </c>
       <c r="N22">
-        <v>1.011424262282197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007878212176025</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.028588353052464</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027361748868407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.995451469343822</v>
+        <v>0.9815630809600886</v>
       </c>
       <c r="D23">
-        <v>1.019608827834431</v>
+        <v>1.008518990269101</v>
       </c>
       <c r="E23">
-        <v>1.00384450226052</v>
+        <v>1.001133388939967</v>
       </c>
       <c r="F23">
-        <v>1.022579896306754</v>
+        <v>1.011101943793018</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047481271538721</v>
+        <v>1.042911113105071</v>
       </c>
       <c r="J23">
-        <v>1.025728337483291</v>
+        <v>1.012454170030318</v>
       </c>
       <c r="K23">
-        <v>1.034497531902717</v>
+        <v>1.023614605820658</v>
       </c>
       <c r="L23">
-        <v>1.019029126108125</v>
+        <v>1.016370134797013</v>
       </c>
       <c r="M23">
-        <v>1.037414159088006</v>
+        <v>1.026148837642587</v>
       </c>
       <c r="N23">
-        <v>1.011871833991618</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008136767638794</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029267352354598</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.027827061810273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003338497267663</v>
+        <v>0.9874565473972643</v>
       </c>
       <c r="D24">
-        <v>1.025670301280629</v>
+        <v>1.012393261138253</v>
       </c>
       <c r="E24">
-        <v>1.010134571843175</v>
+        <v>1.005745490542574</v>
       </c>
       <c r="F24">
-        <v>1.029689731318044</v>
+        <v>1.015716397522487</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050619700858627</v>
+        <v>1.044241065366302</v>
       </c>
       <c r="J24">
-        <v>1.030708637382608</v>
+        <v>1.015446146274533</v>
       </c>
       <c r="K24">
-        <v>1.039261131239589</v>
+        <v>1.026206177432664</v>
       </c>
       <c r="L24">
-        <v>1.023986020207508</v>
+        <v>1.019672454636774</v>
       </c>
       <c r="M24">
-        <v>1.043214778932303</v>
+        <v>1.029473024713764</v>
       </c>
       <c r="N24">
-        <v>1.013588699592528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009136809005709</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.031898260407411</v>
+      </c>
+      <c r="Q24">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R24">
+        <v>1.029651891175113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012111588035694</v>
+        <v>0.9940583399942498</v>
       </c>
       <c r="D25">
-        <v>1.032433186310708</v>
+        <v>1.016739562374941</v>
       </c>
       <c r="E25">
-        <v>1.01716379994358</v>
+        <v>1.010944806998101</v>
       </c>
       <c r="F25">
-        <v>1.037629617777398</v>
+        <v>1.02093472548476</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05407035344826</v>
+        <v>1.045667284434497</v>
       </c>
       <c r="J25">
-        <v>1.036238112486</v>
+        <v>1.018787332686561</v>
       </c>
       <c r="K25">
-        <v>1.044548049369866</v>
+        <v>1.029083459275233</v>
       </c>
       <c r="L25">
-        <v>1.029501387339613</v>
+        <v>1.023375562012901</v>
       </c>
       <c r="M25">
-        <v>1.049670574036043</v>
+        <v>1.033216522205351</v>
       </c>
       <c r="N25">
-        <v>1.015493838914932</v>
+        <v>1.010253707716026</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.034861017334853</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.031683423122253</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.99913121721721</v>
+        <v>0.9993316586191436</v>
       </c>
       <c r="D2">
-        <v>1.0200683635012</v>
+        <v>1.019950038430606</v>
       </c>
       <c r="E2">
-        <v>1.014964086213598</v>
+        <v>1.015119697053598</v>
       </c>
       <c r="F2">
-        <v>1.024985469266195</v>
+        <v>1.025096060278357</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046701254834389</v>
+        <v>1.046641190054816</v>
       </c>
       <c r="J2">
-        <v>1.021337944515461</v>
+        <v>1.021532378054864</v>
       </c>
       <c r="K2">
-        <v>1.031255018542781</v>
+        <v>1.031138261751525</v>
       </c>
       <c r="L2">
-        <v>1.026218810855943</v>
+        <v>1.026372333790702</v>
       </c>
       <c r="M2">
-        <v>1.03610735425644</v>
+        <v>1.036216497473151</v>
       </c>
       <c r="N2">
-        <v>1.011103908755073</v>
+        <v>1.012966195371994</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037148931466699</v>
+        <v>1.037235311403702</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03317020217784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.033096480637715</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020444441674637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002727203010231</v>
+        <v>1.002805455185359</v>
       </c>
       <c r="D3">
-        <v>1.022436260124951</v>
+        <v>1.022152549123717</v>
       </c>
       <c r="E3">
-        <v>1.017827133402136</v>
+        <v>1.017887685773619</v>
       </c>
       <c r="F3">
-        <v>1.027876282386969</v>
+        <v>1.027919271150617</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047407349791827</v>
+        <v>1.047263179399971</v>
       </c>
       <c r="J3">
-        <v>1.023143796817051</v>
+        <v>1.023219931741789</v>
       </c>
       <c r="K3">
-        <v>1.032789892817124</v>
+        <v>1.032509617886951</v>
       </c>
       <c r="L3">
-        <v>1.028236882953401</v>
+        <v>1.028296693993619</v>
       </c>
       <c r="M3">
-        <v>1.038164485098327</v>
+        <v>1.038206960234088</v>
       </c>
       <c r="N3">
-        <v>1.011707338725752</v>
+        <v>1.013414961804044</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.038777018359372</v>
+        <v>1.038810634661271</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.034252823094473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.034063200702354</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020706600419737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005011878261354</v>
+        <v>1.005013386550852</v>
       </c>
       <c r="D4">
-        <v>1.023940939676587</v>
+        <v>1.02355286236543</v>
       </c>
       <c r="E4">
-        <v>1.019652205644289</v>
+        <v>1.019652991859021</v>
       </c>
       <c r="F4">
-        <v>1.029722424181189</v>
+        <v>1.029722981980318</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.0478410798392</v>
+        <v>1.047643738252357</v>
       </c>
       <c r="J4">
-        <v>1.024288242793768</v>
+        <v>1.024289713018913</v>
       </c>
       <c r="K4">
-        <v>1.033758756447023</v>
+        <v>1.033375098587537</v>
       </c>
       <c r="L4">
-        <v>1.029519093495266</v>
+        <v>1.029519870667533</v>
       </c>
       <c r="M4">
-        <v>1.039474886852828</v>
+        <v>1.03947543839018</v>
       </c>
       <c r="N4">
-        <v>1.012089800623483</v>
+        <v>1.013699505742455</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.03981411522517</v>
+        <v>1.03981455173042</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034938804295554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.034676161591529</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020869331197879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00596445674522</v>
+        <v>1.005934217041511</v>
       </c>
       <c r="D5">
-        <v>1.024570041656995</v>
+        <v>1.024138717570175</v>
       </c>
       <c r="E5">
-        <v>1.020414621167667</v>
+        <v>1.020390668853559</v>
       </c>
       <c r="F5">
-        <v>1.030493973337041</v>
+        <v>1.030476984436455</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048019451403411</v>
+        <v>1.047800053925341</v>
       </c>
       <c r="J5">
-        <v>1.024765600201386</v>
+        <v>1.024736100978981</v>
       </c>
       <c r="K5">
-        <v>1.034163303109841</v>
+        <v>1.033736761466637</v>
       </c>
       <c r="L5">
-        <v>1.030054164149426</v>
+        <v>1.030030479952305</v>
       </c>
       <c r="M5">
-        <v>1.04002204871637</v>
+        <v>1.040005245443416</v>
       </c>
       <c r="N5">
-        <v>1.012249604484478</v>
+        <v>1.013818460280365</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.040247157436266</v>
+        <v>1.040233858767561</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035232073426721</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034939818216102</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020936959036097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006126156818784</v>
+        <v>1.006090597296342</v>
       </c>
       <c r="D6">
-        <v>1.024678920871459</v>
+        <v>1.024240389683043</v>
       </c>
       <c r="E6">
-        <v>1.020544172440366</v>
+        <v>1.020516072650185</v>
       </c>
       <c r="F6">
-        <v>1.030624545547387</v>
+        <v>1.03060461583589</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048050924546577</v>
+        <v>1.047827850041794</v>
       </c>
       <c r="J6">
-        <v>1.02484769277009</v>
+        <v>1.02481299954594</v>
       </c>
       <c r="K6">
-        <v>1.034234480846613</v>
+        <v>1.033800789959885</v>
       </c>
       <c r="L6">
-        <v>1.030145573177809</v>
+        <v>1.030117786485379</v>
       </c>
       <c r="M6">
-        <v>1.040114979415068</v>
+        <v>1.040095266465698</v>
       </c>
       <c r="N6">
-        <v>1.012277411913797</v>
+        <v>1.013839207496908</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04032070587552</v>
+        <v>1.040305104393757</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035291203297599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.03499476124627</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020949247112948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005030838532187</v>
+        <v>1.005038884139295</v>
       </c>
       <c r="D7">
-        <v>1.023959012182322</v>
+        <v>1.023575080567058</v>
       </c>
       <c r="E7">
-        <v>1.019667512246046</v>
+        <v>1.019673535788847</v>
       </c>
       <c r="F7">
-        <v>1.029736369961192</v>
+        <v>1.029740643493626</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047848387453512</v>
+        <v>1.047653153168457</v>
       </c>
       <c r="J7">
-        <v>1.024300680659071</v>
+        <v>1.024308523307414</v>
       </c>
       <c r="K7">
-        <v>1.033773715873515</v>
+        <v>1.033394154825985</v>
       </c>
       <c r="L7">
-        <v>1.029531300277852</v>
+        <v>1.029537254568455</v>
       </c>
       <c r="M7">
-        <v>1.03948579050626</v>
+        <v>1.039490016082406</v>
       </c>
       <c r="N7">
-        <v>1.012094847978128</v>
+        <v>1.013731074995641</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039822744743962</v>
+        <v>1.039826089007303</v>
       </c>
       <c r="Q7">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R7">
-        <v>1.034969624514253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034711876497767</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02087425936608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000362869588266</v>
+        <v>1.000542996139901</v>
       </c>
       <c r="D8">
-        <v>1.020885963641573</v>
+        <v>1.020725619822446</v>
       </c>
       <c r="E8">
-        <v>1.015943640910618</v>
+        <v>1.016083960230462</v>
       </c>
       <c r="F8">
-        <v>1.025971971044231</v>
+        <v>1.026071658719977</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046950594421223</v>
+        <v>1.046869171068292</v>
       </c>
       <c r="J8">
-        <v>1.021960551004629</v>
+        <v>1.022135458951082</v>
       </c>
       <c r="K8">
-        <v>1.031790262351121</v>
+        <v>1.031631981149594</v>
       </c>
       <c r="L8">
-        <v>1.026911890950722</v>
+        <v>1.027050383860525</v>
       </c>
       <c r="M8">
-        <v>1.036811262603434</v>
+        <v>1.036909684155803</v>
       </c>
       <c r="N8">
-        <v>1.011313095952962</v>
+        <v>1.013206088906301</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.037706030115766</v>
+        <v>1.03778392447472</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03357173755501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.033470919424738</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020541697232196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9917916067394206</v>
+        <v>0.9922715277952812</v>
       </c>
       <c r="D9">
-        <v>1.015239011667109</v>
+        <v>1.015478900869467</v>
       </c>
       <c r="E9">
-        <v>1.009155207703828</v>
+        <v>1.009528404757095</v>
       </c>
       <c r="F9">
-        <v>1.019138642229787</v>
+        <v>1.019404448024668</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04518091826917</v>
+        <v>1.045302446192973</v>
       </c>
       <c r="J9">
-        <v>1.017637591918348</v>
+        <v>1.018100181503437</v>
       </c>
       <c r="K9">
-        <v>1.028089591926341</v>
+        <v>1.028325738187626</v>
       </c>
       <c r="L9">
-        <v>1.022101474070895</v>
+        <v>1.022468758959234</v>
       </c>
       <c r="M9">
-        <v>1.031928656412014</v>
+        <v>1.032190355456104</v>
       </c>
       <c r="N9">
-        <v>1.009867843315985</v>
+        <v>1.012142080466749</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.033841749115095</v>
+        <v>1.034048868268279</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.03095188138379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031129680146252</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.01989348099726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9858979117998444</v>
+        <v>0.9866199614855781</v>
       </c>
       <c r="D10">
-        <v>1.01136589635377</v>
+        <v>1.011905078101763</v>
       </c>
       <c r="E10">
-        <v>1.004582969819299</v>
+        <v>1.00514431769629</v>
       </c>
       <c r="F10">
-        <v>1.014623732119303</v>
+        <v>1.015024178394474</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043899586741965</v>
+        <v>1.044172318532012</v>
       </c>
       <c r="J10">
-        <v>1.014682428910434</v>
+        <v>1.015374683928739</v>
       </c>
       <c r="K10">
-        <v>1.025532924248067</v>
+        <v>1.026062658878051</v>
       </c>
       <c r="L10">
-        <v>1.018869967435099</v>
+        <v>1.019421306969632</v>
       </c>
       <c r="M10">
-        <v>1.028733876767235</v>
+        <v>1.029127363691048</v>
       </c>
       <c r="N10">
-        <v>1.008884055339605</v>
+        <v>1.011537321451998</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031365153254266</v>
+        <v>1.031676555969803</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.029161077616898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.02954814734243</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019440561051954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9838103799048278</v>
+        <v>0.9846617232306891</v>
       </c>
       <c r="D11">
-        <v>1.010018854863754</v>
+        <v>1.01068998565166</v>
       </c>
       <c r="E11">
-        <v>1.003455017319335</v>
+        <v>1.004116065863474</v>
       </c>
       <c r="F11">
-        <v>1.014077069716823</v>
+        <v>1.014548159246767</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043500623025704</v>
+        <v>1.043839882328719</v>
       </c>
       <c r="J11">
-        <v>1.01387252768796</v>
+        <v>1.014686812838244</v>
       </c>
       <c r="K11">
-        <v>1.024754271661987</v>
+        <v>1.025413081544754</v>
       </c>
       <c r="L11">
-        <v>1.018312069887737</v>
+        <v>1.018960774435102</v>
       </c>
       <c r="M11">
-        <v>1.028738307851158</v>
+        <v>1.02920083651427</v>
       </c>
       <c r="N11">
-        <v>1.008645485469364</v>
+        <v>1.011606238061063</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031808252450022</v>
+        <v>1.032174107255353</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.028643651490176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.02912519814305</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019331705480901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9832194151450675</v>
+        <v>0.9841131095720708</v>
       </c>
       <c r="D12">
-        <v>1.009643208528573</v>
+        <v>1.010353852825241</v>
       </c>
       <c r="E12">
-        <v>1.003354353645995</v>
+        <v>1.004047145238632</v>
       </c>
       <c r="F12">
-        <v>1.014389933983054</v>
+        <v>1.014883168781291</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043413753534585</v>
+        <v>1.043772905027198</v>
       </c>
       <c r="J12">
-        <v>1.013751338671381</v>
+        <v>1.014605388976396</v>
       </c>
       <c r="K12">
-        <v>1.024587962838195</v>
+        <v>1.025285341813555</v>
       </c>
       <c r="L12">
-        <v>1.018417570464119</v>
+        <v>1.019097216922364</v>
       </c>
       <c r="M12">
-        <v>1.029246542494888</v>
+        <v>1.029730679642472</v>
       </c>
       <c r="N12">
-        <v>1.008629108741353</v>
+        <v>1.011703518923251</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032538776307772</v>
+        <v>1.032921591870549</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.028526063875167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029034882597144</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019320446828625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9837467784872856</v>
+        <v>0.9846089149640432</v>
       </c>
       <c r="D13">
-        <v>1.009999744810049</v>
+        <v>1.010674983416562</v>
       </c>
       <c r="E13">
-        <v>1.004044024112064</v>
+        <v>1.004710929106586</v>
       </c>
       <c r="F13">
-        <v>1.015404384608428</v>
+        <v>1.015878707092375</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043571938590701</v>
+        <v>1.043913217199124</v>
       </c>
       <c r="J13">
-        <v>1.014160093152416</v>
+        <v>1.014984182575227</v>
       </c>
       <c r="K13">
-        <v>1.024894441516762</v>
+        <v>1.0255571289354</v>
       </c>
       <c r="L13">
-        <v>1.01905037994162</v>
+        <v>1.019704695661454</v>
       </c>
       <c r="M13">
-        <v>1.030199230476016</v>
+        <v>1.030664855883504</v>
       </c>
       <c r="N13">
-        <v>1.008786540925925</v>
+        <v>1.011796406777692</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033570197736938</v>
+        <v>1.03393828234184</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.028740243830284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.029224287663784</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019386825845449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.984619653364437</v>
+        <v>0.9854270220228284</v>
       </c>
       <c r="D14">
-        <v>1.010580164893429</v>
+        <v>1.011197418745782</v>
       </c>
       <c r="E14">
-        <v>1.004878389441745</v>
+        <v>1.005501892288379</v>
       </c>
       <c r="F14">
-        <v>1.016425096881404</v>
+        <v>1.016868231019077</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043792912811097</v>
+        <v>1.044104939089036</v>
       </c>
       <c r="J14">
-        <v>1.014683163056494</v>
+        <v>1.015455417580284</v>
       </c>
       <c r="K14">
-        <v>1.025321986362438</v>
+        <v>1.025927909195012</v>
       </c>
       <c r="L14">
-        <v>1.019725738114177</v>
+        <v>1.020337625272065</v>
       </c>
       <c r="M14">
-        <v>1.031060339702572</v>
+        <v>1.031495458537687</v>
       </c>
       <c r="N14">
-        <v>1.008974516357248</v>
+        <v>1.011860006770068</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034424952305517</v>
+        <v>1.034768874256651</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.029043973588831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.029488014894319</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019468365046716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9850801053819912</v>
+        <v>0.9858586260925245</v>
       </c>
       <c r="D15">
-        <v>1.010885641156336</v>
+        <v>1.011472773941928</v>
       </c>
       <c r="E15">
-        <v>1.005265521295577</v>
+        <v>1.005866432380769</v>
       </c>
       <c r="F15">
-        <v>1.016849305615218</v>
+        <v>1.017276289286283</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043902497424861</v>
+        <v>1.044199328503511</v>
       </c>
       <c r="J15">
-        <v>1.01493208152367</v>
+        <v>1.015677040179073</v>
       </c>
       <c r="K15">
-        <v>1.02553434539355</v>
+        <v>1.026110781852339</v>
       </c>
       <c r="L15">
-        <v>1.020017436542331</v>
+        <v>1.020607240384706</v>
       </c>
       <c r="M15">
-        <v>1.031390110758563</v>
+        <v>1.03180943216648</v>
       </c>
       <c r="N15">
-        <v>1.009060565716227</v>
+        <v>1.011879335698679</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034723278540118</v>
+        <v>1.035054705310344</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.029200040792573</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.02962380139784</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019506783466535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9874669151050334</v>
+        <v>0.9881028535277665</v>
       </c>
       <c r="D16">
-        <v>1.012454463771298</v>
+        <v>1.012891122372175</v>
       </c>
       <c r="E16">
-        <v>1.007067543863105</v>
+        <v>1.007557806920905</v>
       </c>
       <c r="F16">
-        <v>1.018602712642733</v>
+        <v>1.018950884257651</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044431257489953</v>
+        <v>1.044652148843687</v>
       </c>
       <c r="J16">
-        <v>1.016108358664671</v>
+        <v>1.016718254701584</v>
       </c>
       <c r="K16">
-        <v>1.026566403797415</v>
+        <v>1.026995454251209</v>
       </c>
       <c r="L16">
-        <v>1.021274047118333</v>
+        <v>1.021755649749843</v>
       </c>
       <c r="M16">
-        <v>1.0326083046917</v>
+        <v>1.032950503509018</v>
       </c>
       <c r="N16">
-        <v>1.00944845616512</v>
+        <v>1.011946017574855</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035647272181242</v>
+        <v>1.03591774993924</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.02993294684827</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.030252794495814</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019683878567401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9888440978158821</v>
+        <v>0.9894069709839616</v>
       </c>
       <c r="D17">
-        <v>1.013356572644208</v>
+        <v>1.013713125566953</v>
       </c>
       <c r="E17">
-        <v>1.00801637776941</v>
+        <v>1.00845027892906</v>
       </c>
       <c r="F17">
-        <v>1.019409418869761</v>
+        <v>1.019717553739744</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044718517945245</v>
+        <v>1.044898955191272</v>
       </c>
       <c r="J17">
-        <v>1.01673783567921</v>
+        <v>1.017278399371719</v>
       </c>
       <c r="K17">
-        <v>1.027134396697532</v>
+        <v>1.027484911588784</v>
       </c>
       <c r="L17">
-        <v>1.021885295771433</v>
+        <v>1.022311748830086</v>
       </c>
       <c r="M17">
-        <v>1.033085479167465</v>
+        <v>1.033388475136707</v>
       </c>
       <c r="N17">
-        <v>1.009647874635203</v>
+        <v>1.011992897871919</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035894898576958</v>
+        <v>1.036134413972681</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.030337153851036</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.030601718646513</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019777499204673</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9894686584586461</v>
+        <v>0.9900021498429836</v>
       </c>
       <c r="D18">
-        <v>1.013756117621043</v>
+        <v>1.014079835108301</v>
       </c>
       <c r="E18">
-        <v>1.00827763945688</v>
+        <v>1.008689336164021</v>
       </c>
       <c r="F18">
-        <v>1.01939901513509</v>
+        <v>1.019691532756934</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044820897656323</v>
+        <v>1.044984754022143</v>
       </c>
       <c r="J18">
-        <v>1.016935517230023</v>
+        <v>1.01744825845858</v>
       </c>
       <c r="K18">
-        <v>1.027341553284574</v>
+        <v>1.027659878849217</v>
       </c>
       <c r="L18">
-        <v>1.021955003566803</v>
+        <v>1.022359747268431</v>
       </c>
       <c r="M18">
-        <v>1.032891091967453</v>
+        <v>1.033178806261372</v>
       </c>
       <c r="N18">
-        <v>1.009695693891465</v>
+        <v>1.011983659591854</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035502443834033</v>
+        <v>1.035729927001784</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.030471893526096</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.030712564458213</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019802755720546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9894113823502475</v>
+        <v>0.9899503968052794</v>
       </c>
       <c r="D19">
-        <v>1.013708072717601</v>
+        <v>1.01403919981635</v>
       </c>
       <c r="E19">
-        <v>1.007904486881147</v>
+        <v>1.00832130622357</v>
       </c>
       <c r="F19">
-        <v>1.01862689241154</v>
+        <v>1.018923367490628</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044762334903584</v>
+        <v>1.044929953146647</v>
       </c>
       <c r="J19">
-        <v>1.016743465116047</v>
+        <v>1.017261634314065</v>
       </c>
       <c r="K19">
-        <v>1.02723101144563</v>
+        <v>1.027556652080883</v>
       </c>
       <c r="L19">
-        <v>1.021524340293951</v>
+        <v>1.021934151180347</v>
       </c>
       <c r="M19">
-        <v>1.032068802823091</v>
+        <v>1.032360426165383</v>
       </c>
       <c r="N19">
-        <v>1.009609243017419</v>
+        <v>1.011906095390055</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034524912387289</v>
+        <v>1.034755562430975</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.030400181449438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.030646648654429</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019767896932869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9874407283241827</v>
+        <v>0.9880798709398013</v>
       </c>
       <c r="D20">
-        <v>1.012391596673074</v>
+        <v>1.012839933051726</v>
       </c>
       <c r="E20">
-        <v>1.005780697045075</v>
+        <v>1.006277105434123</v>
       </c>
       <c r="F20">
-        <v>1.015805551531482</v>
+        <v>1.016159522853499</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044248482412829</v>
+        <v>1.044475350486475</v>
       </c>
       <c r="J20">
-        <v>1.015464523493407</v>
+        <v>1.016078154856357</v>
       </c>
       <c r="K20">
-        <v>1.026219999030755</v>
+        <v>1.026660703577511</v>
       </c>
       <c r="L20">
-        <v>1.019722655791586</v>
+        <v>1.020210470270839</v>
       </c>
       <c r="M20">
-        <v>1.029576058532335</v>
+        <v>1.029924055765194</v>
       </c>
       <c r="N20">
-        <v>1.009147136306053</v>
+        <v>1.01162729738501</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032021016956562</v>
+        <v>1.032296422797045</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.029689298163179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030017513559256</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019562198370024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9829142247942441</v>
+        <v>0.9838368638352284</v>
       </c>
       <c r="D21">
-        <v>1.009413094119507</v>
+        <v>1.010157189476701</v>
       </c>
       <c r="E21">
-        <v>1.002188828860001</v>
+        <v>1.002908270804578</v>
       </c>
       <c r="F21">
-        <v>1.01215499604644</v>
+        <v>1.012668793530315</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043224366715727</v>
+        <v>1.043600477061856</v>
       </c>
       <c r="J21">
-        <v>1.013144080977985</v>
+        <v>1.014026255272254</v>
       </c>
       <c r="K21">
-        <v>1.024218300388017</v>
+        <v>1.024948652488555</v>
       </c>
       <c r="L21">
-        <v>1.01712885152591</v>
+        <v>1.017834753788794</v>
       </c>
       <c r="M21">
-        <v>1.026909690266469</v>
+        <v>1.027414062067363</v>
       </c>
       <c r="N21">
-        <v>1.008368808034208</v>
+        <v>1.011497235320073</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029869525510386</v>
+        <v>1.030268707861987</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.028277255571295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.028810599804245</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019214728001453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.980037185103409</v>
+        <v>0.9811392755907815</v>
       </c>
       <c r="D22">
-        <v>1.00751878973915</v>
+        <v>1.008450135608669</v>
       </c>
       <c r="E22">
-        <v>0.9999437852197779</v>
+        <v>1.000804390424271</v>
       </c>
       <c r="F22">
-        <v>1.00991331773786</v>
+        <v>1.010528471008115</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042560110173087</v>
+        <v>1.043030543609293</v>
       </c>
       <c r="J22">
-        <v>1.011679277866009</v>
+        <v>1.012730200273714</v>
       </c>
       <c r="K22">
-        <v>1.022942755094557</v>
+        <v>1.023856031951681</v>
       </c>
       <c r="L22">
-        <v>1.015516355818202</v>
+        <v>1.016359929007871</v>
       </c>
       <c r="M22">
-        <v>1.025290915104557</v>
+        <v>1.025894202926232</v>
       </c>
       <c r="N22">
-        <v>1.007878212176025</v>
+        <v>1.011409798270204</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028588353052464</v>
+        <v>1.029065822813992</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027361748868407</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028023136474409</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018990754521187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9815630809600886</v>
+        <v>0.982558627410542</v>
       </c>
       <c r="D23">
-        <v>1.008518990269101</v>
+        <v>1.009343168986039</v>
       </c>
       <c r="E23">
-        <v>1.001133388939967</v>
+        <v>1.001909965116085</v>
       </c>
       <c r="F23">
-        <v>1.011101943793018</v>
+        <v>1.011656773042158</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042911113105071</v>
+        <v>1.043327566863588</v>
       </c>
       <c r="J23">
-        <v>1.012454170030318</v>
+        <v>1.013404859528227</v>
       </c>
       <c r="K23">
-        <v>1.023614605820658</v>
+        <v>1.024423202829932</v>
       </c>
       <c r="L23">
-        <v>1.016370134797013</v>
+        <v>1.0171317432961</v>
       </c>
       <c r="M23">
-        <v>1.026148837642587</v>
+        <v>1.02669324365538</v>
       </c>
       <c r="N23">
-        <v>1.008136767638794</v>
+        <v>1.011412581096094</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029267352354598</v>
+        <v>1.029698219932638</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.027827061810273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.02841349144968</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01910621466934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9874565473972643</v>
+        <v>0.9880949386075548</v>
       </c>
       <c r="D24">
-        <v>1.012393261138253</v>
+        <v>1.012840732674368</v>
       </c>
       <c r="E24">
-        <v>1.005745490542574</v>
+        <v>1.006241462420914</v>
       </c>
       <c r="F24">
-        <v>1.015716397522487</v>
+        <v>1.016070111077392</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044241065366302</v>
+        <v>1.044467499633529</v>
       </c>
       <c r="J24">
-        <v>1.015446146274533</v>
+        <v>1.016059093263235</v>
       </c>
       <c r="K24">
-        <v>1.026206177432664</v>
+        <v>1.026646041668155</v>
       </c>
       <c r="L24">
-        <v>1.019672454636774</v>
+        <v>1.02015985043306</v>
       </c>
       <c r="M24">
-        <v>1.029473024713764</v>
+        <v>1.029820774839748</v>
       </c>
       <c r="N24">
-        <v>1.009136809005709</v>
+        <v>1.011615149249738</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.031898260407411</v>
+        <v>1.032173484598558</v>
       </c>
       <c r="Q24">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.029651891175113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.029976842635194</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019556136294013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9940583399942498</v>
+        <v>0.9944496913425162</v>
       </c>
       <c r="D25">
-        <v>1.016739562374941</v>
+        <v>1.016867693931038</v>
       </c>
       <c r="E25">
-        <v>1.010944806998101</v>
+        <v>1.011249049022977</v>
       </c>
       <c r="F25">
-        <v>1.02093472548476</v>
+        <v>1.021151272624494</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045667284434497</v>
+        <v>1.045732235202011</v>
       </c>
       <c r="J25">
-        <v>1.018787332686561</v>
+        <v>1.019165300232093</v>
       </c>
       <c r="K25">
-        <v>1.029083459275233</v>
+        <v>1.029209684479841</v>
       </c>
       <c r="L25">
-        <v>1.023375562012901</v>
+        <v>1.023675212195034</v>
       </c>
       <c r="M25">
-        <v>1.033216522205351</v>
+        <v>1.033429881427433</v>
       </c>
       <c r="N25">
-        <v>1.010253707716026</v>
+        <v>1.012393627307855</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034861017334853</v>
+        <v>1.035029878168355</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.031683423122253</v>
+        <v>1.03178629935808</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020070005085458</v>
       </c>
     </row>
   </sheetData>
